--- a/a1.xlsx
+++ b/a1.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23025" windowHeight="10335" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23025" windowHeight="10335" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="複利計算" sheetId="3" r:id="rId1"/>
+    <sheet name="BootStrap" sheetId="5" r:id="rId2"/>
+    <sheet name="LIBOR" sheetId="6" r:id="rId3"/>
+    <sheet name="宿題１" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="208">
   <si>
     <t>複利計算式</t>
     <rPh sb="0" eb="2">
@@ -456,10 +457,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>P = 100 / ( 1 + r /2) ^ 2nt</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>=( (100/B86) ^ ( 1/(D86*C86) )  - 1 ) * D86</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -913,6 +910,805 @@
     <rPh sb="0" eb="2">
       <t>キカン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>割引債</t>
+    <rPh sb="0" eb="3">
+      <t>ワリビキサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①割引債のCFより、DFを順次求める</t>
+    <rPh sb="1" eb="4">
+      <t>ワリビキサイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジュンジ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PV</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P1 = 2 * 0.99</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P2 = 102 * 0.98</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">PV = P1 + P2 = </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>計算式</t>
+    <rPh sb="0" eb="2">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②利付債のキャッシュフローのPVを求める</t>
+    <rPh sb="1" eb="3">
+      <t>リツキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③利付債の価格</t>
+    <rPh sb="1" eb="3">
+      <t>リツキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例題５　割引債の値段がわかっているとき、利付債の値段を求めよ</t>
+    <rPh sb="0" eb="2">
+      <t>レイダイ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ワリビキサイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ネダン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>リツキ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ネダン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例題６　利付債の値段がわかっているとき、割引債の理論価格を求めよ</t>
+    <rPh sb="0" eb="2">
+      <t>レイダイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>リツキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ネダン</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>ワリビキサイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>リロン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③割引債の価格</t>
+    <rPh sb="1" eb="4">
+      <t>ワリビキサイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PV</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②利付債よりdf2を求める</t>
+    <rPh sb="1" eb="3">
+      <t>リツキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>df2 = ( 101.8 - 2.2*0.99 ) / 102.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PV = 100 * df2 =</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例題７　半年の割引債の理論がわかっていて、順次利付債の価格を求めよ</t>
+    <rPh sb="0" eb="2">
+      <t>レイダイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ハントシ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ワリビキサイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>リロン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジュンジ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>リツキ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②利付債よりdf1を求める</t>
+    <rPh sb="1" eb="3">
+      <t>リツキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P1 + P2 の価格</t>
+    <rPh sb="9" eb="11">
+      <t>カカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>df2 = ( 102.45 - 2*0.99 ) / 102</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③利付債よりdf1.5を求める</t>
+    <rPh sb="1" eb="3">
+      <t>リツキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>df3 = ( 102.23 - 1.5 * (df0.5 + df1.0) ) / 101.5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>割引債0.5</t>
+    <rPh sb="0" eb="3">
+      <t>ワリビキサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>割引債1.5</t>
+    <rPh sb="0" eb="3">
+      <t>ワリビキサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>割引債1.0</t>
+    <rPh sb="0" eb="3">
+      <t>ワリビキサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">BootStrap法 </t>
+    <rPh sb="9" eb="10">
+      <t>ホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結局はDFを求めたら勝ちである</t>
+    <rPh sb="0" eb="2">
+      <t>ケッキョク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BootStrapの実践</t>
+    <rPh sb="10" eb="12">
+      <t>ジッセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>種類</t>
+    <rPh sb="0" eb="2">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クーポン（％）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>価格（円）</t>
+    <rPh sb="0" eb="2">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>利付債</t>
+    <rPh sb="0" eb="2">
+      <t>リツキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（１）ディスカウントファクターを求める</t>
+    <rPh sb="16" eb="17">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">df0.5 = 99.7 / 100 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クーポン半年払い</t>
+    <rPh sb="4" eb="6">
+      <t>ハントシ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ハラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>df1.0 = ( 100 - 0.4 * ( df0.5 ) ) / 100.4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>df1.5 = ( 100.6 - 0.7*(df0.5+df1.0) ) / 100.7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>df2.0 = ( 100.5 - 0.75*(df0.5*df1.0+df1.5) ) / 100.75</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(2)この企業が、期間2年の債権を100円で発行するためのクーポンは何%</t>
+    <rPh sb="5" eb="7">
+      <t>キギョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サイケン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ハッコウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ナン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100 = x/2 * (df0.5+df1.0+df1.5) + ( 100 + x/2 ) * df2.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　→結局はキャッシュフローを考えて、DFをかけて、債権の100円の値段と等式にする</t>
+    <rPh sb="3" eb="5">
+      <t>ケッキョク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>サイケン</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ネダン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>トウシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LIBOR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認問題１</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=B5 * 365/300</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変動金利 LIBOR6M + 0.3%</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>固定金利は何％</t>
+    <rPh sb="0" eb="2">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キンリ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ナン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スワップレート 0.8%　（対　LIBOR6M)</t>
+    <rPh sb="14" eb="15">
+      <t>タイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>= 0.8% + 0.3% * 365/360</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>価格と一致</t>
+    <rPh sb="0" eb="2">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確かめるため、キャッシュフローで計算</t>
+    <rPh sb="0" eb="1">
+      <t>タシ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LIBORのディスカウントファクター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１２M　￥LIBOR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２Y　￥SWAP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>３Y　￥SWAP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例題１</t>
+    <rPh sb="0" eb="2">
+      <t>レイダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>df1 = 100 / ( 100 + 1*365/360)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>df2 = ( 100 - 1.5*df1 ) / 101.5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>df3 = ( 100 - 2*(df1+df2) ) / 102</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検算キャッシュフロー</t>
+    <rPh sb="0" eb="2">
+      <t>ケンザン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>価格100円と一致</t>
+    <rPh sb="0" eb="2">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ディスカウントファクターの公式で求める</t>
+    <rPh sb="13" eb="15">
+      <t>コウシキ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>６M　￥LIBOR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１Y　￥SWAP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１.５Y　￥SWAP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.0Y　￥SWAP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２.５Y　￥SWAP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>３．０Y　￥SWAP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>df0.5 = 100 / ( 100 + 0.5*365/360)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半年ごと</t>
+    <rPh sb="0" eb="2">
+      <t>ハントシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>df1.0 = ( 100 - 0.4 * df0.5 ) / 100.4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>線形補完</t>
+    <rPh sb="0" eb="2">
+      <t>センケイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>df1.5 = ( 100 - 0.6*(df0.5+df1) ) / 100.6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>df2.0 = ( 100 - 0.75*(df0.5+df1.0+df1.5) ) / 100.75</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>df2.5 = ( 100 - (1.75/2)*(df0.5+df1.0+df1.5+df2.0) ) / (100 + (1.75/2))</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>df3.0 = ( 100 - 1 * (df0.5+df1.0+df1.5+df2.0+df2.5 ) ) / 101</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受け取り金利</t>
+    <rPh sb="0" eb="1">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>支払金利</t>
+    <rPh sb="0" eb="2">
+      <t>シハライ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半年払い</t>
+    <rPh sb="0" eb="2">
+      <t>ハントシ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>バラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100億</t>
+    <rPh sb="3" eb="4">
+      <t>オク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当初期間5年、残存期間3年</t>
+    <rPh sb="0" eb="2">
+      <t>トウショ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ザンゾン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LIBOR6M</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時価評価額</t>
+    <rPh sb="0" eb="2">
+      <t>ジカ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ヒョウカガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期間３年のSWAPレート = 2.0%</t>
+    <rPh sb="0" eb="2">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>得するのは0.6%（一年）、半年では0.3%</t>
+    <rPh sb="0" eb="1">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イチネン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハントシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10000000000 * 0.30% * (df0.5 + df1.0 + df1.5 + df2.0 + df2.5 + df3.0 )</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゼロレート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゼロレートの公式</t>
+    <rPh sb="6" eb="8">
+      <t>コウシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>値段</t>
+    <rPh sb="0" eb="2">
+      <t>ネダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P = 100 / ( 1 + r /2) ^ (回数 * t)</t>
+    <rPh sb="25" eb="27">
+      <t>カイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=100/( (1+E99/2)^(2*2) )</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゼロレートから割引債の値段を求める</t>
+    <rPh sb="7" eb="10">
+      <t>ワリビキサイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ネダン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P = 100 / ( 1 + r /2) ^ (年の支払回数　* t )</t>
+    <rPh sb="25" eb="26">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シハライ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>df1.0 = 99.125/100</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>df1.5 = 98.485/100</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>df2.0 = 97.674/100</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（２）利付債の価格</t>
+    <rPh sb="3" eb="5">
+      <t>リツキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検算</t>
+    <rPh sb="0" eb="2">
+      <t>ケンザン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=(C89-0.6*(E79+E80+E81) ) / 100.6</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -920,15 +1716,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="6">
+  <numFmts count="11">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
     <numFmt numFmtId="177" formatCode="#,##0.000_ "/>
     <numFmt numFmtId="178" formatCode="0.000%"/>
     <numFmt numFmtId="179" formatCode="0.0000%"/>
     <numFmt numFmtId="180" formatCode="0.00000%"/>
-    <numFmt numFmtId="188" formatCode="0.0000000%"/>
+    <numFmt numFmtId="181" formatCode="0.0000000%"/>
+    <numFmt numFmtId="184" formatCode="0.00000"/>
+    <numFmt numFmtId="185" formatCode="0.0000"/>
+    <numFmt numFmtId="188" formatCode="0.0"/>
+    <numFmt numFmtId="189" formatCode="0.000000%"/>
+    <numFmt numFmtId="198" formatCode="#,##0.000000_ "/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -993,8 +1794,58 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3" tint="-0.499984740745262"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3" tint="-0.499984740745262"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1061,8 +1912,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1178,13 +2053,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1320,10 +2232,130 @@
     <xf numFmtId="180" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="189" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="198" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1335,6 +2367,7 @@
   <colors>
     <mruColors>
       <color rgb="FFFFCC99"/>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFCCFFFF"/>
     </mruColors>
   </colors>
@@ -1636,10 +2669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K141"/>
+  <dimension ref="A2:K143"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="K139" sqref="K139"/>
+    <sheetView showGridLines="0" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57:J60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1979,7 +3012,7 @@
         <v>107758254.54707402</v>
       </c>
       <c r="G19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2003,7 +3036,7 @@
         <v>100827841.1420833</v>
       </c>
       <c r="G20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2168,7 +3201,7 @@
         <v>102429031.78906216</v>
       </c>
       <c r="F36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2528,12 +3561,12 @@
       <c r="C85" s="2"/>
       <c r="D85" s="3"/>
       <c r="E85" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="86" spans="2:7">
       <c r="B86" s="4" t="s">
-        <v>51</v>
+        <v>198</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="6"/>
@@ -2603,7 +3636,7 @@
         <v>1.5821050769789125E-2</v>
       </c>
       <c r="F91" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="92" spans="2:7">
@@ -2621,7 +3654,7 @@
         <v>1.5758964529032138E-2</v>
       </c>
       <c r="F92" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="93" spans="2:7">
@@ -2639,10 +3672,10 @@
         <v>1.5728043111517209E-2</v>
       </c>
       <c r="F93" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G93" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="94" spans="2:7">
@@ -2660,7 +3693,7 @@
         <v>4.0000933817830653E-2</v>
       </c>
       <c r="F94" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="95" spans="2:7">
@@ -2678,7 +3711,7 @@
         <v>8.1830222508751937E-3</v>
       </c>
       <c r="F95" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="96" spans="2:7">
@@ -2696,10 +3729,10 @@
         <v>1.1175939320328787E-2</v>
       </c>
       <c r="F96" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="97" spans="2:6">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7">
       <c r="B97" s="34">
         <v>94.58</v>
       </c>
@@ -2714,25 +3747,37 @@
         <v>1.1150006658268374E-2</v>
       </c>
     </row>
-    <row r="98" spans="2:6">
-      <c r="B98" s="34"/>
-      <c r="C98" s="8"/>
-      <c r="D98" s="8"/>
-      <c r="E98" s="35" t="e">
+    <row r="98" spans="2:7">
+      <c r="B98" s="34">
+        <v>97.674403443391896</v>
+      </c>
+      <c r="C98" s="8">
+        <v>2</v>
+      </c>
+      <c r="D98" s="8">
+        <v>2</v>
+      </c>
+      <c r="E98" s="35">
         <f>( (100/B98) ^ ( 1/(D98*C98) )  - 1 ) * D98</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="99" spans="2:6">
-      <c r="B99" s="34"/>
-      <c r="C99" s="8"/>
-      <c r="D99" s="8"/>
-      <c r="E99" s="35" t="e">
-        <f>( (100/B99) ^ ( 1/(D99*C99) )  - 1 ) * D99</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="100" spans="2:6">
+        <v>1.1800000000000033E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7">
+      <c r="B99" s="34">
+        <f>100/( (1+E99/2)^(2*1*2) )</f>
+        <v>97.674403443391924</v>
+      </c>
+      <c r="C99" s="8">
+        <v>2</v>
+      </c>
+      <c r="D99" s="8">
+        <v>2</v>
+      </c>
+      <c r="E99" s="35">
+        <v>1.18E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7">
       <c r="B100" s="34"/>
       <c r="C100" s="8"/>
       <c r="D100" s="8"/>
@@ -2740,381 +3785,402 @@
         <f>( (100/B100) ^ ( 1/(D100*C100) )  - 1 ) * D100</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="101" spans="2:6">
-      <c r="B101" s="36"/>
-      <c r="C101" s="19"/>
-      <c r="D101" s="19"/>
-      <c r="E101" s="37"/>
-    </row>
-    <row r="102" spans="2:6">
-      <c r="E102" s="18" t="s">
+      <c r="G100" s="53"/>
+    </row>
+    <row r="101" spans="2:7">
+      <c r="B101" s="34"/>
+      <c r="C101" s="8"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="35" t="e">
+        <f>( (100/B101) ^ ( 1/(D101*C101) )  - 1 ) * D101</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G101" s="53"/>
+    </row>
+    <row r="102" spans="2:7">
+      <c r="B102" s="34"/>
+      <c r="C102" s="8"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="35" t="e">
+        <f>( (100/B102) ^ ( 1/(D102*C102) )  - 1 ) * D102</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G102" s="53"/>
+    </row>
+    <row r="103" spans="2:7">
+      <c r="B103" s="36"/>
+      <c r="C103" s="19"/>
+      <c r="D103" s="19"/>
+      <c r="E103" s="37"/>
+    </row>
+    <row r="104" spans="2:7">
+      <c r="E104" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7">
+      <c r="E105" s="18" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="103" spans="2:6">
-      <c r="E103" s="18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="106" spans="2:6" ht="17.25">
-      <c r="B106" s="10" t="s">
+    <row r="108" spans="2:7" ht="17.25">
+      <c r="B108" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7">
+      <c r="B109" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="107" spans="2:6">
-      <c r="B107" s="1" t="s">
+      <c r="C109" s="2"/>
+      <c r="D109" s="3"/>
+      <c r="E109" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7">
+      <c r="B110" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C107" s="2"/>
-      <c r="D107" s="3"/>
-      <c r="E107" t="s">
+      <c r="C110" s="5"/>
+      <c r="D110" s="6"/>
+    </row>
+    <row r="111" spans="2:7">
+      <c r="B111" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="108" spans="2:6">
-      <c r="B108" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C108" s="5"/>
-      <c r="D108" s="6"/>
-    </row>
-    <row r="109" spans="2:6">
-      <c r="B109" t="s">
+    <row r="112" spans="2:7">
+      <c r="B112" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="110" spans="2:6">
-      <c r="B110" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="111" spans="2:6">
-      <c r="B111" s="9" t="s">
+    <row r="113" spans="2:6">
+      <c r="B113" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C111" s="9" t="s">
+      <c r="C113" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D111" s="25" t="s">
+      <c r="D113" s="25" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="112" spans="2:6">
-      <c r="B112" s="34">
+    <row r="114" spans="2:6">
+      <c r="B114" s="34">
         <v>99.42</v>
       </c>
-      <c r="C112" s="8">
+      <c r="C114" s="8">
         <v>1</v>
-      </c>
-      <c r="D112" s="15">
-        <v>1</v>
-      </c>
-      <c r="F112" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="113" spans="2:10">
-      <c r="B113" s="34">
-        <v>97.56</v>
-      </c>
-      <c r="C113" s="8">
-        <v>3</v>
-      </c>
-      <c r="D113" s="15">
-        <v>1</v>
-      </c>
-      <c r="E113" s="35">
-        <f>(1/C113) * LN(100/B113) * D113</f>
-        <v>8.2342042134572399E-3</v>
-      </c>
-      <c r="F113" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="114" spans="2:10">
-      <c r="B114" s="34">
-        <v>95.4</v>
-      </c>
-      <c r="C114" s="8">
-        <v>3</v>
       </c>
       <c r="D114" s="15">
         <v>1</v>
       </c>
-      <c r="E114" s="35">
-        <f>(1/C114) * LN(100/B114) * D114</f>
-        <v>1.5697202511283457E-2</v>
-      </c>
       <c r="F114" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="115" spans="2:10">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6">
       <c r="B115" s="34">
-        <v>94.58</v>
+        <v>97.56</v>
       </c>
       <c r="C115" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D115" s="15">
         <v>1</v>
       </c>
       <c r="E115" s="35">
         <f>(1/C115) * LN(100/B115) * D115</f>
+        <v>8.2342042134572399E-3</v>
+      </c>
+      <c r="F115" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6">
+      <c r="B116" s="34">
+        <v>95.4</v>
+      </c>
+      <c r="C116" s="8">
+        <v>3</v>
+      </c>
+      <c r="D116" s="15">
+        <v>1</v>
+      </c>
+      <c r="E116" s="35">
+        <f>(1/C116) * LN(100/B116) * D116</f>
+        <v>1.5697202511283457E-2</v>
+      </c>
+      <c r="F116" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6">
+      <c r="B117" s="34">
+        <v>94.58</v>
+      </c>
+      <c r="C117" s="8">
+        <v>5</v>
+      </c>
+      <c r="D117" s="15">
+        <v>1</v>
+      </c>
+      <c r="E117" s="35">
+        <f>(1/C117) * LN(100/B117) * D117</f>
         <v>1.1144829754472344E-2</v>
       </c>
-      <c r="F115" t="s">
+      <c r="F117" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6">
+      <c r="B118" s="34"/>
+      <c r="C118" s="8"/>
+      <c r="D118" s="15"/>
+      <c r="E118" s="35" t="e">
+        <f>(1/C118) * LN(100/B118) * D118</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6">
+      <c r="E120" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6">
+      <c r="E121" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6" ht="17.25">
+      <c r="B125" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="126" spans="2:6">
+      <c r="B126" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="116" spans="2:10">
-      <c r="B116" s="34"/>
-      <c r="C116" s="8"/>
-      <c r="D116" s="15"/>
-      <c r="E116" s="35" t="e">
-        <f>(1/C116) * LN(100/B116) * D116</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="118" spans="2:10">
-      <c r="E118" s="18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="119" spans="2:10">
-      <c r="E119" s="18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="123" spans="2:10" ht="17.25">
-      <c r="B123" s="10" t="s">
+      <c r="C126" s="2"/>
+      <c r="D126" s="3"/>
+    </row>
+    <row r="127" spans="2:6">
+      <c r="B127" s="4"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="6"/>
+    </row>
+    <row r="130" spans="2:11">
+      <c r="B130" s="9" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="124" spans="2:10">
-      <c r="B124" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C124" s="2"/>
-      <c r="D124" s="3"/>
-    </row>
-    <row r="125" spans="2:10">
-      <c r="B125" s="4"/>
-      <c r="C125" s="5"/>
-      <c r="D125" s="6"/>
-    </row>
-    <row r="128" spans="2:10">
-      <c r="B128" s="9" t="s">
+      <c r="C130" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D130" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E130" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C128" s="9" t="s">
+      <c r="F130" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D128" s="16" t="s">
+      <c r="G130" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="E128" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="F128" s="9" t="s">
+      <c r="H130" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G128" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="H128" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="J128" s="13" t="s">
+      <c r="J130" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="2:11">
-      <c r="B129" s="28">
+    <row r="131" spans="2:11">
+      <c r="B131" s="28">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="C129" s="7">
+      <c r="C131" s="7">
         <v>1</v>
       </c>
-      <c r="D129" s="39">
-        <f>C129*H129</f>
+      <c r="D131" s="39">
+        <f>C131*H131</f>
         <v>2</v>
       </c>
-      <c r="E129" s="27">
+      <c r="E131" s="27">
         <v>0.02</v>
       </c>
-      <c r="F129" s="7">
+      <c r="F131" s="7">
         <v>1.5</v>
       </c>
-      <c r="G129" s="39">
-        <f>F129*H129</f>
+      <c r="G131" s="39">
+        <f>F131*H131</f>
         <v>3</v>
       </c>
-      <c r="H129" s="7">
+      <c r="H131" s="7">
         <v>2</v>
       </c>
-      <c r="J129" s="35">
+      <c r="J131" s="35">
         <f xml:space="preserve"> 2 * (  ( (1.01) ^ 3 / ( 1.0075 ) ^2 ) - 1 )</f>
         <v>3.0037251630143036E-2</v>
       </c>
     </row>
-    <row r="130" spans="2:11">
-      <c r="B130" s="28">
+    <row r="132" spans="2:11">
+      <c r="B132" s="28">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="C130" s="7">
+      <c r="C132" s="7">
         <v>2</v>
       </c>
-      <c r="D130" s="39">
-        <f>C130*H130</f>
+      <c r="D132" s="39">
+        <f>C132*H132</f>
         <v>4</v>
       </c>
-      <c r="E130" s="28">
+      <c r="E132" s="28">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F130" s="7">
+      <c r="F132" s="7">
         <v>2.5</v>
       </c>
-      <c r="G130" s="39">
-        <f>F130*H130</f>
+      <c r="G132" s="39">
+        <f>F132*H132</f>
         <v>5</v>
       </c>
-      <c r="H130" s="7">
+      <c r="H132" s="7">
         <v>2</v>
       </c>
-      <c r="J130" s="35">
+      <c r="J132" s="35">
         <f xml:space="preserve"> ( ( (1+ 1.1%/2) ^ 5 / ( 1 + 0.9%/2) ^ 4 )  - 1 ) * 2</f>
         <v>1.9019930234263072E-2</v>
       </c>
-      <c r="K130" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="134" spans="2:11" ht="17.25">
-      <c r="B134" s="10" t="s">
+      <c r="K132" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="136" spans="2:11" ht="17.25">
+      <c r="B136" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="137" spans="2:11">
+      <c r="B137" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="135" spans="2:11">
-      <c r="B135" s="1" t="s">
+      <c r="C137" s="2"/>
+      <c r="D137" s="3"/>
+    </row>
+    <row r="138" spans="2:11">
+      <c r="B138" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C135" s="2"/>
-      <c r="D135" s="3"/>
-    </row>
-    <row r="136" spans="2:11">
-      <c r="B136" s="4" t="s">
+      <c r="C138" s="5"/>
+      <c r="D138" s="6"/>
+    </row>
+    <row r="140" spans="2:11">
+      <c r="B140" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C140" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D140" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E140" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F140" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G140" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="H140" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="I140" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="C136" s="5"/>
-      <c r="D136" s="6"/>
-    </row>
-    <row r="138" spans="2:11">
-      <c r="B138" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C138" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D138" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="E138" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="F138" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G138" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="H138" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="I138" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="K138" s="13" t="s">
+      <c r="K140" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="2:11">
-      <c r="B139" s="28">
+    <row r="141" spans="2:11">
+      <c r="B141" s="28">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="C139" s="7">
+      <c r="C141" s="7">
         <v>1</v>
       </c>
-      <c r="D139" s="39">
-        <f>C139*H139</f>
-        <v>2</v>
-      </c>
-      <c r="E139" s="27">
-        <v>0.02</v>
-      </c>
-      <c r="F139" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="G139" s="39">
-        <f>F139*H139</f>
-        <v>3</v>
-      </c>
-      <c r="H139" s="7">
-        <v>2</v>
-      </c>
-      <c r="I139" s="39">
-        <f>G139-D139</f>
-        <v>1</v>
-      </c>
-      <c r="K139" s="35">
-        <f xml:space="preserve"> ( E139 * G139 - B139 * D139 ) / I139</f>
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="140" spans="2:11">
-      <c r="B140" s="28"/>
-      <c r="C140" s="7"/>
-      <c r="D140" s="39">
-        <f>C140*H140</f>
-        <v>0</v>
-      </c>
-      <c r="E140" s="27"/>
-      <c r="F140" s="7"/>
-      <c r="G140" s="39">
-        <f>F140*H140</f>
-        <v>0</v>
-      </c>
-      <c r="H140" s="7"/>
-      <c r="I140" s="39">
-        <f>G140-D140</f>
-        <v>0</v>
-      </c>
-      <c r="K140" s="35" t="e">
-        <f xml:space="preserve"> ( E140 * G140 - B140 * D140 ) / I140</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="141" spans="2:11">
-      <c r="B141" s="28"/>
-      <c r="C141" s="7"/>
       <c r="D141" s="39">
         <f>C141*H141</f>
-        <v>0</v>
-      </c>
-      <c r="E141" s="27"/>
-      <c r="F141" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="E141" s="27">
+        <v>0.02</v>
+      </c>
+      <c r="F141" s="7">
+        <v>1.5</v>
+      </c>
       <c r="G141" s="39">
         <f>F141*H141</f>
-        <v>0</v>
-      </c>
-      <c r="H141" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="H141" s="7">
+        <v>2</v>
+      </c>
       <c r="I141" s="39">
         <f>G141-D141</f>
+        <v>1</v>
+      </c>
+      <c r="K141" s="35">
+        <f xml:space="preserve"> ( E141 * G141 - B141 * D141 ) / I141</f>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="142" spans="2:11">
+      <c r="B142" s="28"/>
+      <c r="C142" s="7"/>
+      <c r="D142" s="39">
+        <f>C142*H142</f>
         <v>0</v>
       </c>
-      <c r="K141" s="35" t="e">
-        <f xml:space="preserve"> ( E141 * G141 - B141 * D141 ) / I141</f>
+      <c r="E142" s="27"/>
+      <c r="F142" s="7"/>
+      <c r="G142" s="39">
+        <f>F142*H142</f>
+        <v>0</v>
+      </c>
+      <c r="H142" s="7"/>
+      <c r="I142" s="39">
+        <f>G142-D142</f>
+        <v>0</v>
+      </c>
+      <c r="K142" s="35" t="e">
+        <f xml:space="preserve"> ( E142 * G142 - B142 * D142 ) / I142</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="143" spans="2:11">
+      <c r="B143" s="28"/>
+      <c r="C143" s="7"/>
+      <c r="D143" s="39">
+        <f>C143*H143</f>
+        <v>0</v>
+      </c>
+      <c r="E143" s="27"/>
+      <c r="F143" s="7"/>
+      <c r="G143" s="39">
+        <f>F143*H143</f>
+        <v>0</v>
+      </c>
+      <c r="H143" s="7"/>
+      <c r="I143" s="39">
+        <f>G143-D143</f>
+        <v>0</v>
+      </c>
+      <c r="K143" s="35" t="e">
+        <f xml:space="preserve"> ( E143 * G143 - B143 * D143 ) / I143</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3127,10 +4193,1124 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="I58" sqref="I58"/>
+    <sheetView showGridLines="0" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65:XFD86"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="24" width="14.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="28.5">
+      <c r="A1" s="47" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A2" s="47"/>
+    </row>
+    <row r="3" spans="1:5" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A3" s="47"/>
+      <c r="B3" s="58" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="59"/>
+      <c r="D3" s="60"/>
+    </row>
+    <row r="4" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A4" s="47"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="B5" s="50" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="B6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8">
+        <v>99</v>
+      </c>
+      <c r="D8" s="51">
+        <f>C8/100</f>
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9" s="8">
+        <v>2</v>
+      </c>
+      <c r="C9" s="8">
+        <v>98</v>
+      </c>
+      <c r="D9" s="51">
+        <f>C9/100</f>
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="B11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="B12" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="B13" s="8">
+        <v>1</v>
+      </c>
+      <c r="C13" s="8">
+        <v>2</v>
+      </c>
+      <c r="D13" s="8">
+        <f>C13*D8</f>
+        <v>1.98</v>
+      </c>
+      <c r="E13" s="48" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="B14" s="8">
+        <v>2</v>
+      </c>
+      <c r="C14" s="8">
+        <v>102</v>
+      </c>
+      <c r="D14" s="8">
+        <f>C14*D9</f>
+        <v>99.96</v>
+      </c>
+      <c r="E14" s="48" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="B16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="B17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="49">
+        <f>SUM(D13:D14)</f>
+        <v>101.94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="B20" s="50" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="B21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="B22" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="B23" s="8">
+        <v>1</v>
+      </c>
+      <c r="C23" s="8">
+        <v>99</v>
+      </c>
+      <c r="D23" s="16">
+        <f>C23/100</f>
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="53" customFormat="1">
+      <c r="B25" s="53" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="53" customFormat="1">
+      <c r="B26" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E26" s="54"/>
+    </row>
+    <row r="27" spans="1:6" s="53" customFormat="1">
+      <c r="A27" s="54"/>
+      <c r="B27" s="8">
+        <v>1</v>
+      </c>
+      <c r="C27" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D27" s="8">
+        <f>C27*D23</f>
+        <v>2.1779999999999999</v>
+      </c>
+      <c r="E27" s="52"/>
+    </row>
+    <row r="28" spans="1:6" s="53" customFormat="1">
+      <c r="A28" s="54"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="52"/>
+    </row>
+    <row r="29" spans="1:6" s="53" customFormat="1">
+      <c r="B29" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="53" customFormat="1">
+      <c r="B30" s="8">
+        <v>2</v>
+      </c>
+      <c r="C30" s="8">
+        <v>102.2</v>
+      </c>
+      <c r="D30" s="17">
+        <v>101.8</v>
+      </c>
+      <c r="E30" s="16">
+        <f xml:space="preserve"> ( D30 - D27 ) / C30</f>
+        <v>0.97477495107632095</v>
+      </c>
+      <c r="F30" s="53" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="B32" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" t="s">
+        <v>125</v>
+      </c>
+      <c r="C33" s="55">
+        <f>100 * E30</f>
+        <v>97.477495107632095</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="50" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C39" s="8">
+        <v>99</v>
+      </c>
+      <c r="D39" s="16">
+        <f>C39/100</f>
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="C41" s="53"/>
+      <c r="D41" s="53"/>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C43" s="8">
+        <v>2</v>
+      </c>
+      <c r="D43" s="8">
+        <f>C43*D39</f>
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46" s="8">
+        <v>1</v>
+      </c>
+      <c r="C46" s="8">
+        <v>102</v>
+      </c>
+      <c r="D46" s="17">
+        <v>102.45</v>
+      </c>
+      <c r="E46" s="16">
+        <f xml:space="preserve"> ( D46 - D43 ) / C46</f>
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="F46" s="53" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="B48" s="53" t="s">
+        <v>130</v>
+      </c>
+      <c r="C48" s="53"/>
+    </row>
+    <row r="49" spans="2:6">
+      <c r="B49" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6">
+      <c r="B50" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C50" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="D50" s="8">
+        <f>C50*D39</f>
+        <v>1.4849999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6">
+      <c r="B52" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6">
+      <c r="B53" s="8">
+        <v>1</v>
+      </c>
+      <c r="C53" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="D53" s="8">
+        <f>C53*E46</f>
+        <v>1.4775</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6">
+      <c r="B55" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6">
+      <c r="B56" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="C56" s="8">
+        <v>101.5</v>
+      </c>
+      <c r="D56" s="17">
+        <v>102.23</v>
+      </c>
+      <c r="E56" s="16">
+        <f>(D56 - 1.5 * (D39 + E46 ) ) / C56</f>
+        <v>0.97800492610837442</v>
+      </c>
+      <c r="F56" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6">
+      <c r="B58" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C58" s="56">
+        <f>100 * D39</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6">
+      <c r="B59" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C59" s="56">
+        <f>100*E46</f>
+        <v>98.5</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6">
+      <c r="B60" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C60" s="56">
+        <f>100*E56</f>
+        <v>97.800492610837438</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" s="61" customFormat="1" ht="9" customHeight="1"/>
+    <row r="65" spans="1:9" ht="28.5">
+      <c r="A65" s="47" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="B67" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="C67" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="D67" s="63" t="s">
+        <v>139</v>
+      </c>
+      <c r="E67" s="63" t="s">
+        <v>140</v>
+      </c>
+      <c r="F67" s="68" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="B68" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C68" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8">
+        <v>99.7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="B69" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C69" s="8">
+        <v>1</v>
+      </c>
+      <c r="D69" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="E69" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="B70" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C70" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="D70" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="E70" s="8">
+        <v>100.6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="B71" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C71" s="8">
+        <v>2</v>
+      </c>
+      <c r="D71" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="E71" s="8">
+        <v>100.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="B73" s="65" t="s">
+        <v>142</v>
+      </c>
+      <c r="G73" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="B74" t="s">
+        <v>143</v>
+      </c>
+      <c r="C74" s="66"/>
+      <c r="E74" s="70">
+        <f>99.7/100</f>
+        <v>0.997</v>
+      </c>
+      <c r="G74" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="H74" s="7">
+        <f>G74*E74</f>
+        <v>0.74775000000000003</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="B75" t="s">
+        <v>145</v>
+      </c>
+      <c r="E75" s="70">
+        <f>(100 - 0.4*E74 ) / 100.4</f>
+        <v>0.99204382470119523</v>
+      </c>
+      <c r="G75" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="H75" s="7">
+        <f t="shared" ref="H75:H77" si="0">G75*E75</f>
+        <v>0.74403286852589645</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="B76" t="s">
+        <v>146</v>
+      </c>
+      <c r="E76" s="70">
+        <f>(100.6 - 0.7*(E74+E75) ) / 100.7</f>
+        <v>0.98518043021558244</v>
+      </c>
+      <c r="G76" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="H76" s="7">
+        <f t="shared" si="0"/>
+        <v>0.73888532266168683</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="B77" t="s">
+        <v>147</v>
+      </c>
+      <c r="E77" s="70">
+        <f>(100.5 - 0.75 * ( E74+E75+E76) ) / 100.75</f>
+        <v>0.97537798321401892</v>
+      </c>
+      <c r="G77" s="7">
+        <v>100.75</v>
+      </c>
+      <c r="H77" s="7">
+        <f t="shared" si="0"/>
+        <v>98.26933180881241</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="H78" s="78">
+        <f>SUM(H74:H77)</f>
+        <v>100.5</v>
+      </c>
+      <c r="I78" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="B79" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="B80" s="71" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83">
+        <f>100 - 100*E77</f>
+        <v>2.462201678598106</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" s="67">
+        <f>B83*2/(E74+E75+E76+E77)</f>
+        <v>1.246809947000322</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G79"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="54" width="14.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="30.75">
+      <c r="A1" s="72" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="74">
+        <v>3.1250000000000002E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="76" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" s="75">
+        <f>B5 * 365/300</f>
+        <v>3.8020833333333335E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" s="76" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16" s="77"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="B17" s="75">
+        <f xml:space="preserve"> 0.8% + 0.3% * 365/360</f>
+        <v>1.1041666666666667E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="57" customFormat="1" ht="6" customHeight="1"/>
+    <row r="20" spans="1:5" ht="25.5">
+      <c r="A20" s="62" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="B21" s="79" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="B22" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="B23" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C23" s="11">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="B24" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C24" s="11">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="B25" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C25" s="11">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="B26" s="19"/>
+      <c r="C26" s="80"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="B27" s="65" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="B28" s="65" t="s">
+        <v>165</v>
+      </c>
+      <c r="E28" s="69">
+        <f xml:space="preserve"> 100 / ( 100 + 1*365/360)</f>
+        <v>0.98996287639213532</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="B29" t="s">
+        <v>166</v>
+      </c>
+      <c r="E29" s="69">
+        <f>(100 - 1.5*E28)/101.5</f>
+        <v>0.97059168162967291</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="B30" t="s">
+        <v>167</v>
+      </c>
+      <c r="E30" s="69">
+        <f xml:space="preserve"> ( 100 - 2*(E28+E29) ) / 102</f>
+        <v>0.94194991062702338</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="B32" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="7">
+        <v>2</v>
+      </c>
+      <c r="C33" s="7">
+        <f>B33*E28</f>
+        <v>1.9799257527842706</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="7">
+        <v>2</v>
+      </c>
+      <c r="C34" s="7">
+        <f t="shared" ref="C34:C35" si="0">B34*E29</f>
+        <v>1.9411833632593458</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="7">
+        <v>102</v>
+      </c>
+      <c r="C35" s="7">
+        <f t="shared" si="0"/>
+        <v>96.07889088395639</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="C36" s="77">
+        <f>SUM(C33:C35)</f>
+        <v>100</v>
+      </c>
+      <c r="D36" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="79" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C41" s="11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D41" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C42" s="11">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C43" s="11">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C44" s="11">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C45" s="81">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C46" s="11">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48" s="65" t="s">
+        <v>177</v>
+      </c>
+      <c r="G48" s="69">
+        <f xml:space="preserve"> 100 / ( 100 + 0.5*365/360)</f>
+        <v>0.99495612519864574</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49" s="65" t="s">
+        <v>179</v>
+      </c>
+      <c r="G49" s="69">
+        <f xml:space="preserve"> ( 100 - 0.4 * G48 ) / 100.4</f>
+        <v>0.99205196762869063</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50" t="s">
+        <v>181</v>
+      </c>
+      <c r="G50" s="69">
+        <f xml:space="preserve"> ( 100 - 0.6 * (G48+G49) ) / 100.6</f>
+        <v>0.98218484238870385</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" t="s">
+        <v>182</v>
+      </c>
+      <c r="G51" s="69">
+        <f xml:space="preserve"> ( 100 - 0.75*(G48+G49+G50) ) / 100.75</f>
+        <v>0.97045265805050085</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="B52" t="s">
+        <v>183</v>
+      </c>
+      <c r="G52" s="69">
+        <f xml:space="preserve"> ( 100 - (1.75/2)*(G48+G49+G50+G51) ) / (100 + (1.75/2))</f>
+        <v>0.95715301220214899</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7">
+      <c r="B53" t="s">
+        <v>184</v>
+      </c>
+      <c r="G53" s="69">
+        <f xml:space="preserve"> ( 100 - 1 * (G48+G49+G50+G51+G52) ) / 101</f>
+        <v>0.94161585539139914</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7">
+      <c r="B55" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7">
+      <c r="B56" s="7">
+        <v>1</v>
+      </c>
+      <c r="C56" s="7">
+        <f>B56*G48</f>
+        <v>0.99495612519864574</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7">
+      <c r="B57" s="7">
+        <v>1</v>
+      </c>
+      <c r="C57" s="7">
+        <f t="shared" ref="C57:C61" si="1">B57*G49</f>
+        <v>0.99205196762869063</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7">
+      <c r="B58" s="7">
+        <v>1</v>
+      </c>
+      <c r="C58" s="7">
+        <f t="shared" si="1"/>
+        <v>0.98218484238870385</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7">
+      <c r="B59" s="82">
+        <v>1</v>
+      </c>
+      <c r="C59" s="7">
+        <f t="shared" si="1"/>
+        <v>0.97045265805050085</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7">
+      <c r="B60" s="82">
+        <v>1</v>
+      </c>
+      <c r="C60" s="7">
+        <f t="shared" si="1"/>
+        <v>0.95715301220214899</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7">
+      <c r="B61" s="82">
+        <v>101</v>
+      </c>
+      <c r="C61" s="7">
+        <f t="shared" si="1"/>
+        <v>95.103201394531311</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7">
+      <c r="C62" s="41">
+        <f>SUM(C56:C61)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="B65" s="79" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="B66" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="B67" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="B68" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C68" s="28">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E68" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="B69" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="B70" t="s">
+        <v>187</v>
+      </c>
+      <c r="E70" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="B73" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="B74" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="B75" s="67">
+        <f>10000000000 * 0.3% * (G48+G49+G50+G51+G52+G53 )</f>
+        <v>175152433.82580268</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" s="57" customFormat="1" ht="7.5" customHeight="1"/>
+    <row r="79" spans="1:5" ht="25.5">
+      <c r="A79" s="62" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I95"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="J90" sqref="J90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3140,7 +5320,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="24">
       <c r="A1" s="40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3150,21 +5330,21 @@
     </row>
     <row r="3" spans="1:7">
       <c r="B3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="B5" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="D5" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="41" t="s">
-        <v>84</v>
-      </c>
       <c r="E5" s="41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>6</v>
@@ -3189,7 +5369,7 @@
         <v>100321053.88880028</v>
       </c>
       <c r="G6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3212,7 +5392,7 @@
         <v>100321062.2760258</v>
       </c>
       <c r="G7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3229,18 +5409,18 @@
     </row>
     <row r="11" spans="1:7">
       <c r="B11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="B13" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="D13" s="41" t="s">
         <v>83</v>
-      </c>
-      <c r="D13" s="41" t="s">
-        <v>84</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>6</v>
@@ -3262,7 +5442,7 @@
         <v>100321062.24951516</v>
       </c>
       <c r="F14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3277,10 +5457,10 @@
     </row>
     <row r="21" spans="1:7">
       <c r="B21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3288,13 +5468,13 @@
         <v>27</v>
       </c>
       <c r="C23" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D23" s="41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E23" s="39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F23" s="13" t="s">
         <v>6</v>
@@ -3314,11 +5494,11 @@
         <v>2</v>
       </c>
       <c r="E24" s="7">
-        <f>C24*D24</f>
+        <f t="shared" ref="E24:E35" si="0">C24*D24</f>
         <v>3</v>
       </c>
       <c r="F24" s="44">
-        <f>( ( 100 / B24 ) ^ ( 1/E24) - 1 ) * D24</f>
+        <f t="shared" ref="F24:F34" si="1">( ( 100 / B24 ) ^ ( 1/E24) - 1 ) * D24</f>
         <v>6.9141987819838491E-3</v>
       </c>
     </row>
@@ -3336,15 +5516,15 @@
         <v>4</v>
       </c>
       <c r="E25" s="7">
-        <f>C25*D25</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="F25" s="43">
-        <f>( ( 100 / B25 ) ^ ( 1/E25) - 1 ) * D25</f>
+        <f t="shared" si="1"/>
         <v>6.9082333210319646E-3</v>
       </c>
       <c r="G25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3361,15 +5541,15 @@
         <v>365</v>
       </c>
       <c r="E26" s="7">
-        <f>C26*D26</f>
+        <f t="shared" si="0"/>
         <v>547.5</v>
       </c>
       <c r="F26" s="43">
-        <f>( ( 100 / B26 ) ^ ( 1/E26) - 1 ) * D26</f>
+        <f t="shared" si="1"/>
         <v>6.9023399822421005E-3</v>
       </c>
       <c r="G26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3387,15 +5567,15 @@
         <v>31536000</v>
       </c>
       <c r="E27" s="7">
-        <f>C27*D27</f>
+        <f t="shared" si="0"/>
         <v>47304000</v>
       </c>
       <c r="F27" s="43">
-        <f>( ( 100 / B27 ) ^ ( 1/E27) - 1 ) * D27</f>
+        <f t="shared" si="1"/>
         <v>6.9022713624633525E-3</v>
       </c>
       <c r="G27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3412,11 +5592,11 @@
         <v>2</v>
       </c>
       <c r="E28" s="7">
-        <f>C28*D28</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F28" s="44">
-        <f>( ( 100 / B28 ) ^ ( 1/E28) - 1 ) * D28</f>
+        <f t="shared" si="1"/>
         <v>7.9279468577220236E-3</v>
       </c>
     </row>
@@ -3434,15 +5614,15 @@
         <v>4</v>
       </c>
       <c r="E29" s="7">
-        <f>C29*D29</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="F29" s="43">
-        <f>( ( 100 / B29 ) ^ ( 1/E29) - 1 ) * D29</f>
+        <f t="shared" si="1"/>
         <v>7.92010584814129E-3</v>
       </c>
       <c r="G29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3459,15 +5639,15 @@
         <v>365</v>
       </c>
       <c r="E30" s="7">
-        <f>C30*D30</f>
+        <f t="shared" si="0"/>
         <v>730</v>
       </c>
       <c r="F30" s="43">
-        <f>( ( 100 / B30 ) ^ ( 1/E30) - 1 ) * D30</f>
+        <f t="shared" si="1"/>
         <v>7.9123609331721578E-3</v>
       </c>
       <c r="G30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3485,15 +5665,15 @@
         <v>31536000</v>
       </c>
       <c r="E31" s="7">
-        <f>C31*D31</f>
+        <f t="shared" si="0"/>
         <v>63072000</v>
       </c>
       <c r="F31" s="43">
-        <f>( ( 100 / B31 ) ^ ( 1/E31) - 1 ) * D31</f>
+        <f t="shared" si="1"/>
         <v>7.9122763381178629E-3</v>
       </c>
       <c r="G31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3510,11 +5690,11 @@
         <v>2</v>
       </c>
       <c r="E32" s="7">
-        <f>C32*D32</f>
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
       <c r="F32" s="44">
-        <f>( ( 100 / B32 ) ^ ( 1/E32) - 1 ) * D32</f>
+        <f t="shared" si="1"/>
         <v>9.227015480932188E-3</v>
       </c>
     </row>
@@ -3532,15 +5712,15 @@
         <v>4</v>
       </c>
       <c r="E33" s="7">
-        <f>C33*D33</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="F33" s="43">
-        <f>( ( 100 / B33 ) ^ ( 1/E33) - 1 ) * D33</f>
+        <f t="shared" si="1"/>
         <v>9.2163977325361301E-3</v>
       </c>
       <c r="G33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3557,15 +5737,15 @@
         <v>365</v>
       </c>
       <c r="E34" s="7">
-        <f>C34*D34</f>
+        <f t="shared" si="0"/>
         <v>821.25</v>
       </c>
       <c r="F34" s="43">
-        <f>( ( 100 / B34 ) ^ ( 1/E34) - 1 ) * D34</f>
+        <f t="shared" si="1"/>
         <v>9.2059123578758228E-3</v>
       </c>
       <c r="G34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3583,27 +5763,27 @@
         <v>31536000</v>
       </c>
       <c r="E35" s="7">
-        <f>C35*D35</f>
+        <f t="shared" si="0"/>
         <v>70956000</v>
       </c>
       <c r="F35" s="43">
         <v>0.02</v>
       </c>
       <c r="G35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="B37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="B38" t="s">
+        <v>95</v>
+      </c>
+      <c r="D38" t="s">
         <v>96</v>
-      </c>
-      <c r="D38" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3611,7 +5791,7 @@
         <v>27</v>
       </c>
       <c r="C40" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D40" s="13" t="s">
         <v>6</v>
@@ -3632,7 +5812,7 @@
         <v>6.9022747196611448E-3</v>
       </c>
       <c r="E41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3650,7 +5830,7 @@
         <v>7.9122751734856406E-3</v>
       </c>
       <c r="E42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3668,7 +5848,7 @@
         <v>9.2057962655740112E-3</v>
       </c>
       <c r="E43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -3678,29 +5858,29 @@
     </row>
     <row r="48" spans="1:7">
       <c r="B48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="B49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="B51" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="D51" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D51" s="9" t="s">
+      <c r="E51" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E51" s="9" t="s">
+      <c r="F51" s="9" t="s">
         <v>102</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>103</v>
       </c>
       <c r="G51" s="13" t="s">
         <v>6</v>
@@ -3730,12 +5910,12 @@
         <v>1.0972073176996666E-2</v>
       </c>
       <c r="H52" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B53" s="45">
         <v>6.9081999999999998E-3</v>
@@ -3757,12 +5937,12 @@
         <v>1.0957333522545909E-2</v>
       </c>
       <c r="H53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B54" s="45">
         <v>7.9200999999999994E-3</v>
@@ -3786,29 +5966,29 @@
     </row>
     <row r="56" spans="1:8">
       <c r="B56" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="B57" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="B58" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G58" s="13" t="s">
         <v>6</v>
@@ -3833,6 +6013,297 @@
       <c r="G59" s="46">
         <f xml:space="preserve">  (D59*E59 - B59*C59) / F59</f>
         <v>1.9586800000000001E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="B64" s="42" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="10.5" customHeight="1">
+      <c r="A65" s="47"/>
+      <c r="B65" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="B67" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="C67" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="D67" s="63" t="s">
+        <v>195</v>
+      </c>
+      <c r="E67" s="51" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="B68" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C68" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D68" s="11">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="E68" s="83">
+        <f t="shared" ref="E68:E70" si="2">100 /  ( (1+D68/2)^(2*C68) )</f>
+        <v>99.626400996264024</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="B69" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C69" s="8">
+        <v>1</v>
+      </c>
+      <c r="D69" s="11">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="E69" s="83">
+        <f t="shared" si="2"/>
+        <v>99.125774112820366</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="B70" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C70" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="D70" s="11">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="E70" s="83">
+        <f t="shared" si="2"/>
+        <v>98.485474356583538</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="B71" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C71" s="8">
+        <v>2</v>
+      </c>
+      <c r="D71" s="11">
+        <v>1.18E-2</v>
+      </c>
+      <c r="E71" s="83">
+        <f>100 /  ( (1+D71/2)^(2*C71) )</f>
+        <v>97.674403443391924</v>
+      </c>
+      <c r="F71" s="18" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="D72" s="73"/>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="B73" s="64" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="B74" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" s="3"/>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="B75" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C75" s="5"/>
+      <c r="D75" s="6"/>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="B78" s="65" t="s">
+        <v>142</v>
+      </c>
+      <c r="G78" s="53"/>
+      <c r="H78" s="53"/>
+      <c r="I78" s="53"/>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="B79" t="s">
+        <v>143</v>
+      </c>
+      <c r="C79" s="66"/>
+      <c r="E79" s="70">
+        <f>E68/100</f>
+        <v>0.9962640099626402</v>
+      </c>
+      <c r="G79" s="53"/>
+      <c r="H79" s="53"/>
+      <c r="I79" s="53"/>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="B80" t="s">
+        <v>202</v>
+      </c>
+      <c r="E80" s="70">
+        <f>E69/100</f>
+        <v>0.99125774112820364</v>
+      </c>
+      <c r="G80" s="53"/>
+      <c r="H80" s="53"/>
+      <c r="I80" s="53"/>
+    </row>
+    <row r="81" spans="2:9">
+      <c r="B81" t="s">
+        <v>203</v>
+      </c>
+      <c r="E81" s="70">
+        <f>E70/100</f>
+        <v>0.98485474356583536</v>
+      </c>
+      <c r="G81" s="53"/>
+      <c r="H81" s="53"/>
+      <c r="I81" s="53"/>
+    </row>
+    <row r="82" spans="2:9">
+      <c r="B82" t="s">
+        <v>204</v>
+      </c>
+      <c r="E82" s="70">
+        <f>E71/100</f>
+        <v>0.97674403443391922</v>
+      </c>
+      <c r="G82" s="53"/>
+      <c r="H82" s="53"/>
+      <c r="I82" s="53"/>
+    </row>
+    <row r="83" spans="2:9">
+      <c r="G83" s="53"/>
+      <c r="H83" s="84"/>
+      <c r="I83" s="53"/>
+    </row>
+    <row r="84" spans="2:9">
+      <c r="B84" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9">
+      <c r="B85" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="C85" s="7">
+        <f>B85*E79</f>
+        <v>0.59775840597758412</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9">
+      <c r="B86" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="C86" s="7">
+        <f t="shared" ref="C86:C88" si="3">B86*E80</f>
+        <v>0.59475464467692218</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9">
+      <c r="B87" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="C87" s="7">
+        <f t="shared" si="3"/>
+        <v>0.59091284613950124</v>
+      </c>
+      <c r="E87" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9">
+      <c r="B88" s="7">
+        <v>100.6</v>
+      </c>
+      <c r="C88" s="7">
+        <f t="shared" si="3"/>
+        <v>98.260449864052262</v>
+      </c>
+      <c r="E88">
+        <f>(C89-0.6*(E79+E80+E81) ) / 100.6</f>
+        <v>0.97674403443391922</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9">
+      <c r="C89" s="69">
+        <f>SUM(C85:C88)</f>
+        <v>100.04387576084628</v>
+      </c>
+      <c r="E89" s="18" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9">
+      <c r="B92" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E92" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H92" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I92" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9">
+      <c r="B93" s="85">
+        <f>C89</f>
+        <v>100.04387576084628</v>
+      </c>
+      <c r="C93" s="11">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D93" s="8">
+        <v>2</v>
+      </c>
+      <c r="E93" s="8">
+        <v>2</v>
+      </c>
+      <c r="F93" s="26">
+        <f>C93/E93</f>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H93" s="7">
+        <f>B93*(-1)</f>
+        <v>-100.04387576084628</v>
+      </c>
+      <c r="I93" s="86">
+        <f>IRR(H93:H95) * E93</f>
+        <v>1.155743555458022E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9">
+      <c r="H94" s="7">
+        <f>100*F93</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9">
+      <c r="H95" s="7">
+        <f>100*F93 + 100</f>
+        <v>100.6</v>
       </c>
     </row>
   </sheetData>

--- a/a1.xlsx
+++ b/a1.xlsx
@@ -4,24 +4,26 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23025" windowHeight="10335"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23025" windowHeight="10335" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="債権数理式" sheetId="7" r:id="rId1"/>
     <sheet name="LIBOR・SWAP" sheetId="10" r:id="rId2"/>
-    <sheet name="宿題１（解き直し）" sheetId="9" r:id="rId3"/>
-    <sheet name="LIBOR(練習問題)" sheetId="11" r:id="rId4"/>
-    <sheet name="BootStrap" sheetId="5" r:id="rId5"/>
-    <sheet name="複利計算" sheetId="3" r:id="rId6"/>
-    <sheet name="LIBOR" sheetId="6" r:id="rId7"/>
-    <sheet name="宿題１" sheetId="4" r:id="rId8"/>
+    <sheet name="確率・統計" sheetId="12" r:id="rId3"/>
+    <sheet name="宿題１（解き直し）" sheetId="9" r:id="rId4"/>
+    <sheet name="LIBOR(練習問題)" sheetId="11" r:id="rId5"/>
+    <sheet name="確率・統計（練習問題）" sheetId="13" r:id="rId6"/>
+    <sheet name="BootStrap" sheetId="5" r:id="rId7"/>
+    <sheet name="複利計算" sheetId="3" r:id="rId8"/>
+    <sheet name="LIBOR" sheetId="6" r:id="rId9"/>
+    <sheet name="宿題１" sheetId="4" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1679" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2063" uniqueCount="967">
   <si>
     <t>複利計算式</t>
     <rPh sb="0" eb="2">
@@ -7128,12 +7130,2625 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>確率・統計</t>
+    <rPh sb="0" eb="2">
+      <t>カクリツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①期待値・分散・標準偏差</t>
+    <rPh sb="1" eb="4">
+      <t>キタイチ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ブンサン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヘンサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期待値　＝　値×確率の平均値　＝　リターンの平均値　＝　どらぐらいのリターンを得られるかの平均</t>
+    <rPh sb="0" eb="3">
+      <t>キタイチ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクリツ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ヘイキンチ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>ヘイキンチ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ヘイキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　　　 →　1×1/6 + 　2×1/6 + 　3×1/6 + 　4×1/6 + 　5×1/6 + 　6×1/6  = 3.5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分散　　　＝　( 値 - 期待値E　)＾２　×　確率　の平均値　＝　どれぐらいリターンの平均（期待値）より散らばっているか</t>
+    <rPh sb="0" eb="2">
+      <t>ブンサン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>キタイチ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カクリツ</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>ヘイキンチ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="47" eb="50">
+      <t>キタイチ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　　　 →　(1 - 3.5)^2 × 1/6 + (2 - 3.5)^2 × 1/6 + (3 - 3.5)^2 × 1/6 + (4 - 3.5)^2 × 1/6 + (5 - 3.5)^2 × 1/6 +  (6 - 3.5)^2 × 1/6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">           ※二乗しないと、リターン自体が平均値なので、結果としていつも0になってしまうから</t>
+    <rPh sb="12" eb="14">
+      <t>ニジョウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジタイ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>ヘイキンチ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>標準偏差　　＝　　分散の0.5乗　（ルート）</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンサ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ブンサン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[1]サイコロ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>普通のサイコロ</t>
+    <rPh sb="0" eb="2">
+      <t>フツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変なサイコロ１</t>
+    <rPh sb="0" eb="1">
+      <t>ヘン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変なサイコロ２</t>
+    <rPh sb="0" eb="1">
+      <t>ヘン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変なサイコロ３</t>
+    <rPh sb="0" eb="1">
+      <t>ヘン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期待値</t>
+    <rPh sb="0" eb="3">
+      <t>キタイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分散</t>
+    <rPh sb="0" eb="2">
+      <t>ブンサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>標準偏差</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=AVERAGE(E20:E25)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=VARP(E20:E25)</t>
+  </si>
+  <si>
+    <t>=E28^0.5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②期待値と分散の公式</t>
+    <rPh sb="1" eb="4">
+      <t>キタイチ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ブンサン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[1] E( a + X ) = a + E(X)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[2] VAR( a + X ) = VAR(X)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[3] E(a * X ) = a * E(X)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[4] VAR(a * X ) = a^2 * VAR(X)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[5] VAR(X) = E(X^2) + ( E(X) ) ^2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[6] E( X + Y ) = E(X) + E(Y)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;確認問題１&gt;</t>
+    <rPh sb="1" eb="3">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①２つのサイコロを振った目の和の確率分布に基づき、分散・標準偏差を求めよ</t>
+    <rPh sb="9" eb="10">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カクリツ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ブンプ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ブンサン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヘンサ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>値</t>
+    <rPh sb="0" eb="1">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確率変数</t>
+    <rPh sb="0" eb="2">
+      <t>カクリツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/36</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2/36</t>
+  </si>
+  <si>
+    <t>2/36</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3/36</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4/36</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6/36</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5/36</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=2*(1/36) + 3*(2/36) + 4*(3/36) + 5*(4/36) + 6*(5/36) + 7*(6/36) + 8*(5/36) + 9*(4/36) + 10*(3/36) + 11*(2/36) + 12*(1/36)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=(2-7)^2 * (1/36) + (3-7)^2 * (2/36) + (4-7)^2 * (3/36) + (5-7)^2 * (4/36) + (6-7)^2 * (5/36) + (7-7)^2 * (6/36) + (8-7)^2 * (5/36) + (9-7)^2 * (4/36) + (10-7)^2 * (3/36) + (11-7)^2 * (2/36) + (12-7)^2 * (1/36)</t>
+  </si>
+  <si>
+    <t>②サイコロの目がすべてｎ倍のサイコロ</t>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>バイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E(ｎX) = n * E(X) = 3.5n</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VAR(nX) = n^2 * VAR(X) = 2.917 * n^2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>σ(nX) = n * σ(X) = 1.708n</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③サイコロの目がすべてn+3倍になっている</t>
+    <rPh sb="6" eb="7">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>バイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E(　nX + 3 ) = 3 + n * E(X) = 3 + 3.5n</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VAR(nX + 3) = n^2 * VAR(X) = 2.917 * n^2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>σ(nX + 3) = n * σ(X) = 1.708n</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;確認問題2&gt;</t>
+    <rPh sb="1" eb="3">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ある確率変数Xが期待値μ、標準偏差σの正規分布に従うということを</t>
+    <rPh sb="2" eb="4">
+      <t>カクリツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>キタイチ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヘンサ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セイキ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ブンプ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>シタガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>X　~ N(μ.σ)とあらわす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下であるか</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期待値μ</t>
+    <rPh sb="0" eb="3">
+      <t>キタイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>標準偏差σ</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>K</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確率値NORMSDIST</t>
+    <rPh sb="0" eb="2">
+      <t>カクリツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P(A &lt; 3.0 ) A ~ N (  0.5 , 1.0 )</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P(A &lt; 1.6 ) A ~ N (  1.0 , 0.5 )</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P(A &lt; 1.4 ) A ~ N (  -1.0 , 2.0 )</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P(A &gt; -1.5 ) A ~ N (  1.0 , 1.0 )</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.0 = 0.5 + 1.0 × K</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>値 = 期待値　＋　標準偏差　×　K</t>
+    <rPh sb="0" eb="1">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>キタイチ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヘンサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確率値</t>
+    <rPh sb="0" eb="2">
+      <t>カクリツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NORMSDIST(K)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確率値（以上の場合）</t>
+    <rPh sb="0" eb="2">
+      <t>カクリツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NORMSDIST(K × -1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5日　確認試験</t>
+    <rPh sb="1" eb="2">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下のようなくじがある。</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このくじを１回引いてもらえる賞金の金額を確率変数とした場合、その期待値と標準偏差の値はいくらか？</t>
+    <rPh sb="6" eb="7">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ショウキン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カクリツ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヘンサ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>賞金</t>
+    <rPh sb="0" eb="2">
+      <t>ショウキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あたる確率</t>
+    <rPh sb="3" eb="5">
+      <t>カクリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=A8*B8 + A9*B9 + A10*B10 + A11*B11 + A12*B12</t>
+  </si>
+  <si>
+    <t>=(A8-D9)^2*B8 + (A9-D9)^2*B9 + (A10-D9)^2*B10 + (A11-D9)^2*B11 + (A12-D9)^2*B12</t>
+  </si>
+  <si>
+    <t>=D12^0.5</t>
+  </si>
+  <si>
+    <t>Xが期待値1.5、標準偏差4.0の確率変数</t>
+    <rPh sb="2" eb="5">
+      <t>キタイチ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘンサ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カクリツ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Y = 3.0 + 1.5X</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E(Y) = E(3.0 + 1.5X) = 3 + 1.5*E(X) = 3 + 1.5*1.5  = 6.75</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VAR(Y) = VAR(3.0 + 1.5X) = 1.5^2 * VAR(X) = 1.5^2 * 16 = 36</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>σ（Y) = σ（3.0 + 1.5X)  = 1.5 * σ(X) = 6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問3</t>
+    <rPh sb="0" eb="1">
+      <t>トイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①P(X &lt; 4.25 ) = P( Y &lt; ？　）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①のX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①のY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これはつまり、両者のKが同じであるということ</t>
+    <rPh sb="7" eb="9">
+      <t>リョウシャ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>値 = 期待値μ　＋　K　×　標準偏差σ</t>
+    <rPh sb="0" eb="1">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>キタイチ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヘンサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②P(X &gt; -1.25 ) = P( Y &gt; ？　）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②のX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②のY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宿題</t>
+    <rPh sb="0" eb="2">
+      <t>シュクダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Z = 3 + 3X</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>W = 2X + 3Y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期待値と分散を求めよ</t>
+    <rPh sb="0" eb="3">
+      <t>キタイチ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ブンサン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E(Z) = E(3 + 3X) = 3 + 3E(X) = 3 + 3*1.8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VAR(Z) = VAR(3+3X) = 3^2 * VAR(X) = 9 * 2.8^2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E(W) = E(2X + 3Y) = E(2X) + E(3Y) = 2*E(X) + 3*E(Y)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>VAR(W) = E(W^2) + (E(w))^2 = E(4X^2 + 12</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>XY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + 9Y^2) + (E(W))^2</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P(A &lt; 1.8 ) A ~ N (  1.0 , 1.2 )</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P(A &lt; 2.5 ) A ~ N (  0.5 , 3.0 )</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P(A &lt; -1.5 ) A ~ N (  -0.5 , 1.5 )</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P(A &gt; -3.0 ) A ~ N (  1.0 , 6.0 )</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Var</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>209/9/1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>209/9/2</t>
+  </si>
+  <si>
+    <t>209/9/3</t>
+  </si>
+  <si>
+    <t>209/9/4</t>
+  </si>
+  <si>
+    <t>209/9/5</t>
+  </si>
+  <si>
+    <t>209/9/6</t>
+  </si>
+  <si>
+    <t>209/9/7</t>
+  </si>
+  <si>
+    <t>209/9/8</t>
+  </si>
+  <si>
+    <t>209/9/9</t>
+  </si>
+  <si>
+    <t>209/9/10</t>
+  </si>
+  <si>
+    <t>209/9/11</t>
+  </si>
+  <si>
+    <t>209/9/12</t>
+  </si>
+  <si>
+    <t>209/9/13</t>
+  </si>
+  <si>
+    <t>209/9/14</t>
+  </si>
+  <si>
+    <t>209/9/15</t>
+  </si>
+  <si>
+    <t>209/9/16</t>
+  </si>
+  <si>
+    <t>209/9/17</t>
+  </si>
+  <si>
+    <t>209/9/18</t>
+  </si>
+  <si>
+    <t>209/9/19</t>
+  </si>
+  <si>
+    <t>209/9/20</t>
+  </si>
+  <si>
+    <t>期日</t>
+    <rPh sb="0" eb="2">
+      <t>キジツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>株価</t>
+    <rPh sb="0" eb="2">
+      <t>カブカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リターン（変動率）</t>
+    <rPh sb="5" eb="7">
+      <t>ヘンドウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=100*(B133-B132)/B132</t>
+  </si>
+  <si>
+    <t>=100*(B134-B133)/B133</t>
+  </si>
+  <si>
+    <t>①ヒストリカルシミュレーション法</t>
+    <rPh sb="15" eb="16">
+      <t>ホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1番目</t>
+    <rPh sb="1" eb="3">
+      <t>バンメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2番目</t>
+    <rPh sb="1" eb="3">
+      <t>バンメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3番目</t>
+    <rPh sb="1" eb="3">
+      <t>バンメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4番目</t>
+    <rPh sb="1" eb="3">
+      <t>バンメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5番目</t>
+    <rPh sb="1" eb="3">
+      <t>バンメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6番目</t>
+    <rPh sb="1" eb="3">
+      <t>バンメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7番目</t>
+    <rPh sb="1" eb="3">
+      <t>バンメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8番目</t>
+    <rPh sb="1" eb="3">
+      <t>バンメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9番目</t>
+    <rPh sb="1" eb="3">
+      <t>バンメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10番目</t>
+    <rPh sb="2" eb="4">
+      <t>バンメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仮に1000個データがあったとすると、10番目が99%目の悪い値になる</t>
+    <rPh sb="0" eb="1">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>バンメ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ワル</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[1]10番目の変動率を取得</t>
+    <rPh sb="5" eb="7">
+      <t>バンメ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ヘンドウリツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[2]信頼水準99%のVARを計算</t>
+    <rPh sb="3" eb="5">
+      <t>シンライ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>スイジュン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１億　× -0.80%</t>
+    <rPh sb="1" eb="2">
+      <t>オク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②分散共分散法（デルタ法）</t>
+    <rPh sb="1" eb="3">
+      <t>ブンサン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>キョウブンサン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[1]リターンより分散・標準偏差を求める</t>
+    <rPh sb="9" eb="11">
+      <t>ブンサン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヘンサ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分散</t>
+    <rPh sb="0" eb="2">
+      <t>ブンサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>標準偏差</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[2]-2.33 × 標準偏差を求める</t>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヘンサ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[3]信頼水準99%のVARを計算</t>
+    <rPh sb="3" eb="5">
+      <t>シンライ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>スイジュン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1億　× -4.125/100</t>
+    <rPh sb="1" eb="2">
+      <t>オク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>%</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベーシスポイントバリューとは、金利（利回り）が0.01%動いた時の、価格変化額のこと</t>
+    <rPh sb="15" eb="17">
+      <t>キンリ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>リマワ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P = 100 / (1+r)^n</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これが、割引債の価格と金利（利回り）の関係式</t>
+    <rPh sb="4" eb="7">
+      <t>ワリビキサイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キンリ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>リマワ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>シキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→　金利（利回り）が上がれば、価格は下がるということ　（まさにイールドカーブである）</t>
+    <rPh sb="2" eb="4">
+      <t>キンリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>リマワ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期間２年、（１年複利）利回り3.0%の割引債</t>
+    <rPh sb="0" eb="2">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>フクリ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>リマワ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>ワリビキサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①BPVを求める</t>
+    <rPh sb="5" eb="6">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BPV</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■例題</t>
+    <rPh sb="1" eb="3">
+      <t>レイダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保有期間と信頼水準を元に、起こりうるある一定範囲の損益のなかで、最悪の損失金額をVarと呼ぶ</t>
+    <rPh sb="0" eb="2">
+      <t>ホユウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シンライ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>スイジュン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ソンエキ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>サイアク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ソンシツ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Basis Point Value　（BPV or PV01）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>94.241 - 94.260</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10Basisの変化額</t>
+    <rPh sb="8" eb="10">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BPV ×　10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※近似値</t>
+    <rPh sb="1" eb="4">
+      <t>キンジチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期間１０年、（１年複利）利回り3.0%の割引債</t>
+    <rPh sb="0" eb="2">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>フクリ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>リマワ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>ワリビキサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>74.337-74.409</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※重要</t>
+    <rPh sb="1" eb="3">
+      <t>ジュウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期間が長くなると、その分価格の変化額は大きくなる</t>
+    <rPh sb="0" eb="2">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ガク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>つまり、BPVの値も大きい</t>
+    <rPh sb="8" eb="9">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これは債権を考えるときに非常に重要な考えになる</t>
+    <rPh sb="3" eb="5">
+      <t>サイケン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒジョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジュウヨウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デュレーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベーシスポイントバリューと同様に、イールドカーブ（債権の利回り・価格曲線）に、現状の利回り時点で引いた接線の傾きのこと</t>
+    <rPh sb="13" eb="15">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>サイケン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>リマワ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>キョクセン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ゲンジョウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>リマワ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ジテン</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>セッセン</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>カタム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■BPVとディレーションの関係（大体同じような意味と捉えて問題ない）</t>
+    <rPh sb="13" eb="15">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ダイタイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オンナ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イミ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>トラ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■利回りと債権の価格の関係式</t>
+    <rPh sb="1" eb="3">
+      <t>リマワ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サイケン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>シキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D = -n × 100 / (1 + r ) ^n+1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[1] 割引債の１年払いのディレーションの公式</t>
+    <rPh sb="4" eb="7">
+      <t>ワリビキサイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ハラ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>コウシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[2]割引債の半年払いのディレーションの公式</t>
+    <rPh sb="3" eb="6">
+      <t>ワリビキサイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハントシ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ハラ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D = -n × 100 / (1 + r/2 ) ^2n+1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[3]利付債（クーポン１年払い）のデュレーションの公式</t>
+    <rPh sb="3" eb="5">
+      <t>リツキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ハラ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>コウシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D = -1 ×C/(1+r)^2 + -2 ×C/(1+r)^3 + ・・・ + -n × ( C + 100 ) / (1+r)^n+1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[4]利付債（クーポン１年払い）のデュレーションの公式</t>
+    <rPh sb="3" eb="5">
+      <t>リツキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ハラ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>コウシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D = -0.5 ×(C/2) / (1+r/2)^2 + -1 ×(C/2) /(1+r/2)^3 + ・・・ + -n × ( C/2 + 100 ) / (1+r/2)^2n+1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正デュレーション</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正デュレーションは、一定の利回り変化があった場合の価格変動率（額ではない）を、近似的に表現するための概念</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>リマワ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヘンドウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>リツ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ガク</t>
+    </rPh>
+    <rPh sb="40" eb="43">
+      <t>キンジテキ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ガイネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dmod = - D / P</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">価格変化 = </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>利回り変化　×　ディレーション</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>　=　</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>α　×　0.01 ×　ディレーション</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>　＝　</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>α　×　BPV</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>リマワ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■価格変化率</t>
+    <rPh sb="1" eb="3">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">価格変化率 = </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-1 ×　利回り変化　×　修正デュレーション</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>リツ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>リマワ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マコーレーデュレーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正デュレーションに（1 + r )をかけたもの。債権の平均回収期間を示す。</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>サイケン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カイシュウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>シメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dmac = ( 1 + r )  ×　Dmod</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dmacは、債権投資の平均回収期間という意味合いから、単位として年が付与されることが多い。</t>
+    <rPh sb="6" eb="8">
+      <t>サイケン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウシ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カイシュウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>イミア</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>フヨ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>また、DmacとDmodは一般に近い値をとり、割引債の場合は一定の利回りの価格変化率の大きさは、</t>
+    <rPh sb="13" eb="15">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>ワリビキサイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>リマワ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>リツ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おおむねその償還年限に比例することが分かっている。</t>
+    <rPh sb="6" eb="8">
+      <t>ショウカン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ネンゲン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒレイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンベクシティ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D（デュレーション）を、さらにもう一回微分したもの</t>
+    <rPh sb="17" eb="19">
+      <t>イッカイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ビブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[2] コンベクシティ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P' = D = -n × 100 / (1 + r ) ^n+1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P'' = D' = n × ( n + 1 ) × 100 / ( 1 + r ) ^ n+2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーラー展開を利用していて、コンベクシティを加えることでより近似的に近い価格変化額を求めることができる。</t>
+    <rPh sb="4" eb="6">
+      <t>テンカイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>キンジテキ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ガク</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ΔP = Δr　(利回り変化）　× P´（デュレーション）　＋　1/2 × Δr ^2 ×　P''(コンベクシティ)</t>
+    <rPh sb="9" eb="11">
+      <t>リマワ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>演習４</t>
+    <rPh sb="0" eb="2">
+      <t>エンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>割引債１</t>
+    <rPh sb="0" eb="3">
+      <t>ワリビキサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期間２年　、現在の利回り３％　、　１年複利ベース</t>
+    <rPh sb="0" eb="2">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>リマワ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>フクリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>割引債２</t>
+    <rPh sb="0" eb="3">
+      <t>ワリビキサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期間４年　、現在の利回り３％　、　１年複利ベース</t>
+    <rPh sb="0" eb="2">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>リマワ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>フクリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期間</t>
+    <rPh sb="0" eb="2">
+      <t>キカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>利回り</t>
+    <rPh sb="0" eb="2">
+      <t>リマワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mデュレーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>利回り変化</t>
+    <rPh sb="0" eb="2">
+      <t>リマワ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変化後　価格</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オリジナル価格</t>
+    <rPh sb="5" eb="7">
+      <t>カカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>近似価格変化</t>
+    <rPh sb="0" eb="2">
+      <t>キンジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1年複利ベース</t>
+    <rPh sb="1" eb="2">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フクリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実際の変化額</t>
+    <rPh sb="0" eb="2">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ここを一切求めずに計算するのがディレーションやコンベクション。なので、この値が呼ばれることはない。</t>
+    <rPh sb="3" eb="5">
+      <t>イッサイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dを使った価格変化額</t>
+    <rPh sb="2" eb="3">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dmodを使った変化率</t>
+    <rPh sb="5" eb="6">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期間３年　、現在の利回り2.2％　、　１年複利ベース</t>
+    <rPh sb="0" eb="2">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>リマワ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>フクリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問３ デュレーションを使った価格変化額</t>
+    <rPh sb="0" eb="1">
+      <t>トイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポートフォリオのVar(　共分散　・　相関係数　・　ポートフォリオの標準偏差　）</t>
+    <rPh sb="13" eb="16">
+      <t>キョウブンサン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ソウカン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヘンサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポートフォリオのリターンは、投資時点での各資産の時価比率にそれぞれのリターンを掛け合わせれば求めることが出来る。</t>
+    <rPh sb="14" eb="16">
+      <t>トウシ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジテン</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>カクシサン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジカ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒリツ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソニー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トヨタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JR東日本</t>
+    <rPh sb="2" eb="3">
+      <t>ヒガシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>割合</t>
+    <rPh sb="0" eb="2">
+      <t>ワリアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リターン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rj</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポートフォリオのリターン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rp = 0.3 × Rs  +  0.5 × Rt  +  0.2 × Rj</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日次リターンが期待値0の正規分布に従うという前提をおけば、Varは以下で求めることが出来る。</t>
+    <rPh sb="0" eb="2">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>キタイチ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セイキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ブンプ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ゼンテイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正規分布の上から99%の値</t>
+    <rPh sb="0" eb="2">
+      <t>セイキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブンプ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期待値 - 2.33 × 標準偏差 = 0 - 2.33 ×　標準偏差</t>
+    <rPh sb="0" eb="2">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヘンサ</t>
+    </rPh>
+    <rPh sb="31" eb="35">
+      <t>ヒョウジュンヘンサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E ( X + Y ) = E(X) + E(Y)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Var( X + Y ) ≠ Var(X) + Var(Y)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→これが成り立つのは、相関係数が0の場合のみ</t>
+    <rPh sb="4" eb="5">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ソウカン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>相関係数の求め方</t>
+    <rPh sb="0" eb="2">
+      <t>ソウカン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CORREL( sum Xのリターン　： sum Yのリターン）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共分散（covariance）</t>
+    <rPh sb="0" eb="3">
+      <t>キョウブンサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XとYの共分散 = XとYの相関係数　×　Xの標準偏差　×　Yの標準偏差</t>
+    <rPh sb="4" eb="7">
+      <t>キョウブンサン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ソウカン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケイスウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヘンサ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヘンサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>演習７</t>
+    <rPh sb="0" eb="2">
+      <t>エンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソニー、トヨタ、JR東日本の日次リターンのデータから、それぞれの分散・共分散の値を算出し、それに基づいてポートフォリオのリターンの分散・標準偏差を算出せよ</t>
+    <rPh sb="10" eb="11">
+      <t>ヒガシ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニホン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ブンサン</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>キョウブンサン</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>サンシュツ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ブンサン</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ヘンサ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>サンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①ポートフォリオの分散・標準偏差を求める問題</t>
+    <rPh sb="9" eb="11">
+      <t>ブンサン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヘンサ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>株式の日次リターンは期待値ゼロの正規分布に従うと仮定すると、ソニー３億・トヨタ５億・JR東日本２億に投資するポートフォリオの「保有期間１日、信頼水準99%」のVaR値を計算せよ</t>
+  </si>
+  <si>
+    <t>②ポートフォリオのVaR値</t>
+    <rPh sb="12" eb="13">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Var(aX + bY ) = a^2σx^2 + b^2σy^2 + 2 ab ρ σx σy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ρ　×　σX　×　σｙ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Var(X + Y ) = σx^2 + σy^2 + 2 ρ σx σy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Var(X + Y + Z ) = σx^2 + σy^2 + σz^2 + 2σxy + 2σyz + 2σzx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>株価変動率</t>
+    <rPh sb="0" eb="2">
+      <t>カブカ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ヘンドウリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sony</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投資比率</t>
+    <rPh sb="0" eb="2">
+      <t>トウシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分散共分散行列</t>
+    <rPh sb="0" eb="2">
+      <t>ブンサン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>キョウブンサン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ギョウレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポートフォリオの分散</t>
+    <rPh sb="8" eb="10">
+      <t>ブンサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分の分散値</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ブンサン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それぞれの共分散</t>
+    <rPh sb="5" eb="8">
+      <t>キョウブンサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>相関係数</t>
+    <rPh sb="0" eb="2">
+      <t>ソウカン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>xy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yz</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>zx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期待値</t>
+    <rPh sb="0" eb="3">
+      <t>キタイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポートフォリオの期待値</t>
+    <rPh sb="8" eb="10">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポートフォリオの標準偏差</t>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヘンサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リターンの信頼水準99%</t>
+    <rPh sb="5" eb="7">
+      <t>シンライ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>スイジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VaR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>百万円</t>
+    <rPh sb="0" eb="3">
+      <t>ヒャクマンエン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>=B362*B365 + C362*C365 + D362*D365</t>
+  </si>
+  <si>
+    <t>=B362^2*B371^2 + C362^2*C372^2 + D362^2*D373^2 + 2*B362*C362*C371 + 2*C362*D362*D372 + 2*D362*B362*D371</t>
+  </si>
+  <si>
+    <t>=B377^0.5</t>
+  </si>
+  <si>
+    <t>=-2.33 * B379</t>
+  </si>
+  <si>
+    <t>=1000 * B381 / 100</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="25">
+  <numFmts count="28">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
     <numFmt numFmtId="177" formatCode="#,##0.000_ "/>
     <numFmt numFmtId="178" formatCode="0.000%"/>
@@ -7153,14 +9768,17 @@
     <numFmt numFmtId="192" formatCode="0.000000"/>
     <numFmt numFmtId="193" formatCode="0.000"/>
     <numFmt numFmtId="194" formatCode="0.0000_ "/>
-    <numFmt numFmtId="198" formatCode="0.00000_ "/>
-    <numFmt numFmtId="200" formatCode="0.0000000_ "/>
-    <numFmt numFmtId="208" formatCode="#,##0.0000_ "/>
-    <numFmt numFmtId="213" formatCode="#,##0.0000000000_ "/>
-    <numFmt numFmtId="214" formatCode="#,##0.00000000000_ "/>
-    <numFmt numFmtId="216" formatCode="0.000000000%"/>
+    <numFmt numFmtId="195" formatCode="0.00000_ "/>
+    <numFmt numFmtId="196" formatCode="0.0000000_ "/>
+    <numFmt numFmtId="197" formatCode="#,##0.0000_ "/>
+    <numFmt numFmtId="198" formatCode="#,##0.0000000000_ "/>
+    <numFmt numFmtId="199" formatCode="#,##0.00000000000_ "/>
+    <numFmt numFmtId="200" formatCode="0.000000000%"/>
+    <numFmt numFmtId="201" formatCode="0.0000000_);[Red]\(0.0000000\)"/>
+    <numFmt numFmtId="202" formatCode="0.00000000000000_);[Red]\(0.00000000000000\)"/>
+    <numFmt numFmtId="207" formatCode="#,##0.00000_ "/>
   </numFmts>
-  <fonts count="58">
+  <fonts count="70">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7635,8 +10253,109 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="22">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7763,8 +10482,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9966"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -8036,13 +10779,209 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="377">
+  <cellXfs count="491">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8943,16 +11882,16 @@
     <xf numFmtId="190" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="198" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="195" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="200" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="196" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="200" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="196" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="200" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="196" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="190" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -9150,13 +12089,13 @@
     <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="208" fontId="16" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="197" fontId="16" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="213" fontId="16" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="198" fontId="16" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="214" fontId="16" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="199" fontId="16" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="190" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -9171,8 +12110,350 @@
     <xf numFmtId="181" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="216" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="200" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="201" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="201" fontId="3" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="202" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="197" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="3" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="207" fontId="3" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="3" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="3" fillId="19" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="193" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="193" fontId="3" fillId="19" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="4" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9182,13 +12463,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCC99FF"/>
+      <color rgb="FFCCFFFF"/>
+      <color rgb="FFFFFF99"/>
+      <color rgb="FFFF9966"/>
+      <color rgb="FFCCFF99"/>
       <color rgb="FF0000FF"/>
+      <color rgb="FFCCFFCC"/>
+      <color rgb="FFFFFFFF"/>
       <color rgb="FF66FFFF"/>
-      <color rgb="FFFFFF99"/>
-      <color rgb="FFCCFFFF"/>
-      <color rgb="FFFFFFFF"/>
       <color rgb="FFFFCC99"/>
-      <color rgb="FFFFFFCC"/>
     </mruColors>
   </colors>
   <extLst>
@@ -10697,6 +13981,115 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
+      <xdr:colOff>904875</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="V 字形矢印 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3971925" y="29918025"/>
+          <a:ext cx="2171700" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="notchedRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>283</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>809625</xdr:colOff>
+      <xdr:row>285</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="右中かっこ 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="7000875" y="44310299"/>
+          <a:ext cx="238125" cy="3038475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
       <xdr:row>149</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -11366,8 +14759,8 @@
   </sheetPr>
   <dimension ref="A1:N209"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView showGridLines="0" topLeftCell="A191" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73:E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -13473,6 +16866,1017 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:I95"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D99" sqref="D99"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="19" width="16.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="24">
+      <c r="A1" s="40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="B2" s="42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="B5" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" s="14">
+        <v>100000000</v>
+      </c>
+      <c r="C6" s="28">
+        <v>7.7999999999999996E-3</v>
+      </c>
+      <c r="D6" s="7">
+        <f>150/365</f>
+        <v>0.41095890410958902</v>
+      </c>
+      <c r="E6" s="7">
+        <v>150</v>
+      </c>
+      <c r="F6" s="14">
+        <f>B6 * ( (1+C6/E6)^(D6*E6) )</f>
+        <v>100321053.88880028</v>
+      </c>
+      <c r="G6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" s="14">
+        <v>100000000</v>
+      </c>
+      <c r="C7" s="28">
+        <v>7.7999999999999996E-3</v>
+      </c>
+      <c r="D7" s="7">
+        <f>150/365</f>
+        <v>0.41095890410958902</v>
+      </c>
+      <c r="E7" s="7">
+        <f>24*3600*150</f>
+        <v>12960000</v>
+      </c>
+      <c r="F7" s="14">
+        <f>B7 * ( (1+C7/E7)^(D7*E7) )</f>
+        <v>100321062.2760258</v>
+      </c>
+      <c r="G7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" s="14"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="B11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="B14" s="14">
+        <v>100000000</v>
+      </c>
+      <c r="C14" s="28">
+        <v>7.7999999999999996E-3</v>
+      </c>
+      <c r="D14" s="7">
+        <f>150/365</f>
+        <v>0.41095890410958902</v>
+      </c>
+      <c r="E14" s="14">
+        <f>B14*EXP(C14*D14)</f>
+        <v>100321062.24951516</v>
+      </c>
+      <c r="F14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="B19" s="42" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="B21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="B23" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="20">
+        <v>98.97</v>
+      </c>
+      <c r="C24" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="D24" s="7">
+        <v>2</v>
+      </c>
+      <c r="E24" s="7">
+        <f t="shared" ref="E24:E35" si="0">C24*D24</f>
+        <v>3</v>
+      </c>
+      <c r="F24" s="44">
+        <f t="shared" ref="F24:F34" si="1">( ( 100 / B24 ) ^ ( 1/E24) - 1 ) * D24</f>
+        <v>6.9141987819838491E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="20">
+        <v>98.97</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="D25" s="7">
+        <v>4</v>
+      </c>
+      <c r="E25" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F25" s="43">
+        <f t="shared" si="1"/>
+        <v>6.9082333210319646E-3</v>
+      </c>
+      <c r="G25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="20">
+        <v>98.97</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="D26" s="7">
+        <v>365</v>
+      </c>
+      <c r="E26" s="7">
+        <f t="shared" si="0"/>
+        <v>547.5</v>
+      </c>
+      <c r="F26" s="43">
+        <f t="shared" si="1"/>
+        <v>6.9023399822421005E-3</v>
+      </c>
+      <c r="G26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="20">
+        <v>98.97</v>
+      </c>
+      <c r="C27" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="D27" s="7">
+        <f>24*3600*365</f>
+        <v>31536000</v>
+      </c>
+      <c r="E27" s="7">
+        <f t="shared" si="0"/>
+        <v>47304000</v>
+      </c>
+      <c r="F27" s="43">
+        <f t="shared" si="1"/>
+        <v>6.9022713624633525E-3</v>
+      </c>
+      <c r="G27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="20">
+        <v>98.43</v>
+      </c>
+      <c r="C28" s="7">
+        <v>2</v>
+      </c>
+      <c r="D28" s="7">
+        <v>2</v>
+      </c>
+      <c r="E28" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F28" s="44">
+        <f t="shared" si="1"/>
+        <v>7.9279468577220236E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="20">
+        <v>98.43</v>
+      </c>
+      <c r="C29" s="7">
+        <v>2</v>
+      </c>
+      <c r="D29" s="7">
+        <v>4</v>
+      </c>
+      <c r="E29" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F29" s="43">
+        <f t="shared" si="1"/>
+        <v>7.92010584814129E-3</v>
+      </c>
+      <c r="G29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="20">
+        <v>98.43</v>
+      </c>
+      <c r="C30" s="7">
+        <v>2</v>
+      </c>
+      <c r="D30" s="7">
+        <v>365</v>
+      </c>
+      <c r="E30" s="7">
+        <f t="shared" si="0"/>
+        <v>730</v>
+      </c>
+      <c r="F30" s="43">
+        <f t="shared" si="1"/>
+        <v>7.9123609331721578E-3</v>
+      </c>
+      <c r="G30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="20">
+        <v>98.43</v>
+      </c>
+      <c r="C31" s="7">
+        <v>2</v>
+      </c>
+      <c r="D31" s="7">
+        <f>24*3600*365</f>
+        <v>31536000</v>
+      </c>
+      <c r="E31" s="7">
+        <f t="shared" si="0"/>
+        <v>63072000</v>
+      </c>
+      <c r="F31" s="43">
+        <f t="shared" si="1"/>
+        <v>7.9122763381178629E-3</v>
+      </c>
+      <c r="G31" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="20">
+        <v>97.95</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2.25</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2</v>
+      </c>
+      <c r="E32" s="7">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="F32" s="44">
+        <f t="shared" si="1"/>
+        <v>9.227015480932188E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="20">
+        <v>97.95</v>
+      </c>
+      <c r="C33" s="7">
+        <v>2.25</v>
+      </c>
+      <c r="D33" s="7">
+        <v>4</v>
+      </c>
+      <c r="E33" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F33" s="43">
+        <f t="shared" si="1"/>
+        <v>9.2163977325361301E-3</v>
+      </c>
+      <c r="G33" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="20">
+        <v>97.95</v>
+      </c>
+      <c r="C34" s="7">
+        <v>2.25</v>
+      </c>
+      <c r="D34" s="7">
+        <v>365</v>
+      </c>
+      <c r="E34" s="7">
+        <f t="shared" si="0"/>
+        <v>821.25</v>
+      </c>
+      <c r="F34" s="43">
+        <f t="shared" si="1"/>
+        <v>9.2059123578758228E-3</v>
+      </c>
+      <c r="G34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="20">
+        <v>97.95</v>
+      </c>
+      <c r="C35" s="7">
+        <v>2.25</v>
+      </c>
+      <c r="D35" s="7">
+        <f>24*3600*365</f>
+        <v>31536000</v>
+      </c>
+      <c r="E35" s="7">
+        <f t="shared" si="0"/>
+        <v>70956000</v>
+      </c>
+      <c r="F35" s="43">
+        <v>0.02</v>
+      </c>
+      <c r="G35" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="B37" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="B38" t="s">
+        <v>95</v>
+      </c>
+      <c r="D38" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="B40" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="20">
+        <v>98.97</v>
+      </c>
+      <c r="C41" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="D41" s="43">
+        <f>(1/C41)*LN(100/B41)</f>
+        <v>6.9022747196611448E-3</v>
+      </c>
+      <c r="E41" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" s="20">
+        <v>98.43</v>
+      </c>
+      <c r="C42" s="7">
+        <v>2</v>
+      </c>
+      <c r="D42" s="43">
+        <f>(1/C42)*LN(100/B42)</f>
+        <v>7.9122751734856406E-3</v>
+      </c>
+      <c r="E42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="20">
+        <v>97.95</v>
+      </c>
+      <c r="C43" s="7">
+        <v>2.25</v>
+      </c>
+      <c r="D43" s="43">
+        <f>(1/C43)*LN(100/B43)</f>
+        <v>9.2057962655740112E-3</v>
+      </c>
+      <c r="E43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="B47" s="42" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="B48" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="B49" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="B51" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="45">
+        <v>6.9141999999999997E-3</v>
+      </c>
+      <c r="C52" s="7">
+        <v>3</v>
+      </c>
+      <c r="D52" s="45">
+        <v>7.9278999999999999E-3</v>
+      </c>
+      <c r="E52" s="7">
+        <v>4</v>
+      </c>
+      <c r="F52" s="7">
+        <v>2</v>
+      </c>
+      <c r="G52" s="46">
+        <f xml:space="preserve"> ( ( ( (1+D52/F52)^E52 ) / ( (1+B52/F52)^C52 ) )  - 1 ) * F52</f>
+        <v>1.0972073176996666E-2</v>
+      </c>
+      <c r="H52" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="45">
+        <v>6.9081999999999998E-3</v>
+      </c>
+      <c r="C53" s="7">
+        <v>6</v>
+      </c>
+      <c r="D53" s="45">
+        <v>7.9200999999999994E-3</v>
+      </c>
+      <c r="E53" s="7">
+        <v>8</v>
+      </c>
+      <c r="F53" s="7">
+        <v>4</v>
+      </c>
+      <c r="G53" s="46">
+        <f xml:space="preserve"> ( ( ( (1+D53/F53)^E53 ) / ( (1+B53/F53)^C53 ) ) ^ (1/2)  - 1 ) * F53</f>
+        <v>1.0957333522545909E-2</v>
+      </c>
+      <c r="H53" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" t="s">
+        <v>104</v>
+      </c>
+      <c r="B54" s="45">
+        <v>7.9200999999999994E-3</v>
+      </c>
+      <c r="C54" s="7">
+        <v>8</v>
+      </c>
+      <c r="D54" s="45">
+        <v>9.2163999999999996E-3</v>
+      </c>
+      <c r="E54" s="7">
+        <v>9</v>
+      </c>
+      <c r="F54" s="7">
+        <v>4</v>
+      </c>
+      <c r="G54" s="46">
+        <f xml:space="preserve"> ( ( ( (1+D54/F54)^E54 ) / ( (1+B54/F54)^C54 ) )  - 1 ) * F54</f>
+        <v>1.9601905053811208E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="B56" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="B57" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="B58" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G58" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="B59" s="45">
+        <v>7.9200999999999994E-3</v>
+      </c>
+      <c r="C59" s="7">
+        <v>2</v>
+      </c>
+      <c r="D59" s="45">
+        <v>9.2163999999999996E-3</v>
+      </c>
+      <c r="E59" s="7">
+        <v>2.25</v>
+      </c>
+      <c r="F59" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="G59" s="46">
+        <f xml:space="preserve">  (D59*E59 - B59*C59) / F59</f>
+        <v>1.9586800000000001E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="B64" s="42" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="10.5" customHeight="1">
+      <c r="A65" s="47"/>
+      <c r="B65" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="B67" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="C67" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="D67" s="63" t="s">
+        <v>195</v>
+      </c>
+      <c r="E67" s="51" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="B68" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C68" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D68" s="11">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="E68" s="83">
+        <f t="shared" ref="E68:E70" si="2">100 /  ( (1+D68/2)^(2*C68) )</f>
+        <v>99.626400996264024</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="B69" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C69" s="8">
+        <v>1</v>
+      </c>
+      <c r="D69" s="11">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="E69" s="83">
+        <f t="shared" si="2"/>
+        <v>99.125774112820366</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="B70" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C70" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="D70" s="11">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="E70" s="83">
+        <f t="shared" si="2"/>
+        <v>98.485474356583538</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="B71" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C71" s="8">
+        <v>2</v>
+      </c>
+      <c r="D71" s="11">
+        <v>1.18E-2</v>
+      </c>
+      <c r="E71" s="83">
+        <f>100 /  ( (1+D71/2)^(2*C71) )</f>
+        <v>97.674403443391924</v>
+      </c>
+      <c r="F71" s="18" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="D72" s="73"/>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="B73" s="64" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="B74" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" s="3"/>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="B75" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C75" s="5"/>
+      <c r="D75" s="6"/>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="B78" s="65" t="s">
+        <v>142</v>
+      </c>
+      <c r="G78" s="53"/>
+      <c r="H78" s="53"/>
+      <c r="I78" s="53"/>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="B79" t="s">
+        <v>143</v>
+      </c>
+      <c r="C79" s="66"/>
+      <c r="E79" s="70">
+        <f>E68/100</f>
+        <v>0.9962640099626402</v>
+      </c>
+      <c r="G79" s="53"/>
+      <c r="H79" s="53"/>
+      <c r="I79" s="53"/>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="B80" t="s">
+        <v>202</v>
+      </c>
+      <c r="E80" s="70">
+        <f>E69/100</f>
+        <v>0.99125774112820364</v>
+      </c>
+      <c r="G80" s="53"/>
+      <c r="H80" s="53"/>
+      <c r="I80" s="53"/>
+    </row>
+    <row r="81" spans="2:9">
+      <c r="B81" t="s">
+        <v>203</v>
+      </c>
+      <c r="E81" s="70">
+        <f>E70/100</f>
+        <v>0.98485474356583536</v>
+      </c>
+      <c r="G81" s="53"/>
+      <c r="H81" s="53"/>
+      <c r="I81" s="53"/>
+    </row>
+    <row r="82" spans="2:9">
+      <c r="B82" t="s">
+        <v>204</v>
+      </c>
+      <c r="E82" s="70">
+        <f>E71/100</f>
+        <v>0.97674403443391922</v>
+      </c>
+      <c r="G82" s="53"/>
+      <c r="H82" s="53"/>
+      <c r="I82" s="53"/>
+    </row>
+    <row r="83" spans="2:9">
+      <c r="G83" s="53"/>
+      <c r="H83" s="84"/>
+      <c r="I83" s="53"/>
+    </row>
+    <row r="84" spans="2:9">
+      <c r="B84" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9">
+      <c r="B85" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="C85" s="7">
+        <f>B85*E79</f>
+        <v>0.59775840597758412</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9">
+      <c r="B86" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="C86" s="7">
+        <f t="shared" ref="C86:C88" si="3">B86*E80</f>
+        <v>0.59475464467692218</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9">
+      <c r="B87" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="C87" s="7">
+        <f t="shared" si="3"/>
+        <v>0.59091284613950124</v>
+      </c>
+      <c r="E87" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9">
+      <c r="B88" s="7">
+        <v>100.6</v>
+      </c>
+      <c r="C88" s="7">
+        <f t="shared" si="3"/>
+        <v>98.260449864052262</v>
+      </c>
+      <c r="E88">
+        <f>(C89-0.6*(E79+E80+E81) ) / 100.6</f>
+        <v>0.97674403443391922</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9">
+      <c r="C89" s="69">
+        <f>SUM(C85:C88)</f>
+        <v>100.04387576084628</v>
+      </c>
+      <c r="E89" s="18" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9">
+      <c r="B92" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E92" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H92" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I92" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9">
+      <c r="B93" s="85">
+        <f>C89</f>
+        <v>100.04387576084628</v>
+      </c>
+      <c r="C93" s="11">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D93" s="8">
+        <v>2</v>
+      </c>
+      <c r="E93" s="8">
+        <v>2</v>
+      </c>
+      <c r="F93" s="26">
+        <f>C93/E93</f>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H93" s="7">
+        <f>B93*(-1)</f>
+        <v>-100.04387576084628</v>
+      </c>
+      <c r="I93" s="86">
+        <f>IRR(H93:H95) * E93</f>
+        <v>1.155743555458022E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9">
+      <c r="H94" s="7">
+        <f>100*F93</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9">
+      <c r="H95" s="7">
+        <f>100*F93 + 100</f>
+        <v>100.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15304,7 +19708,7 @@
         <v>1516988.189658158</v>
       </c>
       <c r="F247" s="239">
-        <f>B247 * ( D247/200) * C239</f>
+        <f t="shared" ref="F247:F252" si="1">B247 * ( D247/200) * C239</f>
         <v>2992415.0590517092</v>
       </c>
     </row>
@@ -15322,11 +19726,11 @@
         <v>1</v>
       </c>
       <c r="E248" s="207">
-        <f t="shared" ref="E248:E252" si="1">B248 * (C248/200) * C240</f>
+        <f t="shared" ref="E248:E252" si="2">B248 * (C248/200) * C240</f>
         <v>2714870.4389314721</v>
       </c>
       <c r="F248" s="207">
-        <f>B248 * ( D248/200) * C240</f>
+        <f t="shared" si="1"/>
         <v>2480104.8636817667</v>
       </c>
     </row>
@@ -15344,11 +19748,11 @@
         <v>1</v>
       </c>
       <c r="E249" s="207">
+        <f t="shared" si="2"/>
+        <v>3948818.66261731</v>
+      </c>
+      <c r="F249" s="207">
         <f t="shared" si="1"/>
-        <v>3948818.66261731</v>
-      </c>
-      <c r="F249" s="207">
-        <f>B249 * ( D249/200) * C241</f>
         <v>1964339.7976323268</v>
       </c>
     </row>
@@ -15366,11 +19770,11 @@
         <v>1</v>
       </c>
       <c r="E250" s="207">
+        <f t="shared" si="2"/>
+        <v>3520734.3534731264</v>
+      </c>
+      <c r="F250" s="207">
         <f t="shared" si="1"/>
-        <v>3520734.3534731264</v>
-      </c>
-      <c r="F250" s="207">
-        <f>B250 * ( D250/200) * C242</f>
         <v>1455651.1764568796</v>
       </c>
     </row>
@@ -15388,11 +19792,11 @@
         <v>1</v>
       </c>
       <c r="E251" s="207">
+        <f t="shared" si="2"/>
+        <v>2660509.6584244636</v>
+      </c>
+      <c r="F251" s="207">
         <f t="shared" si="1"/>
-        <v>2660509.6584244636</v>
-      </c>
-      <c r="F251" s="207">
-        <f>B251 * ( D251/200) * C243</f>
         <v>957131.56934579741</v>
       </c>
     </row>
@@ -15410,11 +19814,11 @@
         <v>1</v>
       </c>
       <c r="E252" s="207">
+        <f t="shared" si="2"/>
+        <v>1553997.7441076217</v>
+      </c>
+      <c r="F252" s="207">
         <f t="shared" si="1"/>
-        <v>1553997.7441076217</v>
-      </c>
-      <c r="F252" s="207">
-        <f>B252 * ( D252/200) * C244</f>
         <v>470795.79595236067</v>
       </c>
     </row>
@@ -16200,6 +20604,2975 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:N401"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A335" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B383" sqref="B383"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="1" width="24.625" style="87" customWidth="1"/>
+    <col min="2" max="2" width="19.875" style="87" customWidth="1"/>
+    <col min="3" max="109" width="15.625" style="87" customWidth="1"/>
+    <col min="110" max="16384" width="9" style="87"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="42">
+      <c r="A1" s="377" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="12" thickBot="1">
+      <c r="A4" s="87" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="266"/>
+      <c r="B5" s="378"/>
+      <c r="C5" s="378"/>
+      <c r="D5" s="378"/>
+      <c r="E5" s="378"/>
+      <c r="F5" s="267"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="379" t="s">
+        <v>696</v>
+      </c>
+      <c r="B6" s="229"/>
+      <c r="C6" s="229"/>
+      <c r="D6" s="229"/>
+      <c r="E6" s="229"/>
+      <c r="F6" s="269"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="379" t="s">
+        <v>697</v>
+      </c>
+      <c r="B7" s="229"/>
+      <c r="C7" s="229"/>
+      <c r="D7" s="229"/>
+      <c r="E7" s="229"/>
+      <c r="F7" s="269"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="379"/>
+      <c r="B8" s="229"/>
+      <c r="C8" s="229"/>
+      <c r="D8" s="229"/>
+      <c r="E8" s="229"/>
+      <c r="F8" s="269"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="379" t="s">
+        <v>698</v>
+      </c>
+      <c r="B9" s="229"/>
+      <c r="C9" s="229"/>
+      <c r="D9" s="229"/>
+      <c r="E9" s="229"/>
+      <c r="F9" s="269"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="379" t="s">
+        <v>699</v>
+      </c>
+      <c r="B10" s="229"/>
+      <c r="C10" s="229"/>
+      <c r="D10" s="229"/>
+      <c r="E10" s="229"/>
+      <c r="F10" s="269"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="379"/>
+      <c r="B11" s="229"/>
+      <c r="C11" s="229"/>
+      <c r="D11" s="229"/>
+      <c r="E11" s="229"/>
+      <c r="F11" s="269"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="379" t="s">
+        <v>700</v>
+      </c>
+      <c r="B12" s="229"/>
+      <c r="C12" s="229"/>
+      <c r="D12" s="229"/>
+      <c r="E12" s="229"/>
+      <c r="F12" s="269"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="379"/>
+      <c r="B13" s="229"/>
+      <c r="C13" s="229"/>
+      <c r="D13" s="229"/>
+      <c r="E13" s="229"/>
+      <c r="F13" s="269"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="379" t="s">
+        <v>701</v>
+      </c>
+      <c r="B14" s="229"/>
+      <c r="C14" s="229"/>
+      <c r="D14" s="229"/>
+      <c r="E14" s="229"/>
+      <c r="F14" s="269"/>
+    </row>
+    <row r="15" spans="1:6" ht="12" thickBot="1">
+      <c r="A15" s="270"/>
+      <c r="B15" s="380"/>
+      <c r="C15" s="380"/>
+      <c r="D15" s="380"/>
+      <c r="E15" s="380"/>
+      <c r="F15" s="271"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="87" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="297"/>
+      <c r="B19" s="25" t="s">
+        <v>703</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>704</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>705</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="297"/>
+      <c r="B20" s="88">
+        <v>1</v>
+      </c>
+      <c r="C20" s="88">
+        <v>0</v>
+      </c>
+      <c r="D20" s="88">
+        <v>2</v>
+      </c>
+      <c r="E20" s="88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="12" thickBot="1">
+      <c r="A21" s="297"/>
+      <c r="B21" s="88">
+        <v>2</v>
+      </c>
+      <c r="C21" s="389">
+        <v>2</v>
+      </c>
+      <c r="D21" s="88">
+        <v>4</v>
+      </c>
+      <c r="E21" s="88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="12" thickBot="1">
+      <c r="A22" s="297"/>
+      <c r="B22" s="388">
+        <v>3</v>
+      </c>
+      <c r="C22" s="391">
+        <v>3</v>
+      </c>
+      <c r="D22" s="381">
+        <v>6</v>
+      </c>
+      <c r="E22" s="88">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="297"/>
+      <c r="B23" s="88">
+        <v>4</v>
+      </c>
+      <c r="C23" s="390">
+        <v>4</v>
+      </c>
+      <c r="D23" s="88">
+        <v>8</v>
+      </c>
+      <c r="E23" s="88">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="297"/>
+      <c r="B24" s="88">
+        <v>5</v>
+      </c>
+      <c r="C24" s="88">
+        <v>5</v>
+      </c>
+      <c r="D24" s="88">
+        <v>10</v>
+      </c>
+      <c r="E24" s="88">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="297"/>
+      <c r="B25" s="88">
+        <v>6</v>
+      </c>
+      <c r="C25" s="88">
+        <v>7</v>
+      </c>
+      <c r="D25" s="88">
+        <v>12</v>
+      </c>
+      <c r="E25" s="88">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="242"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="B27" s="384">
+        <f>AVERAGE(B20:B25)</f>
+        <v>3.5</v>
+      </c>
+      <c r="C27" s="384">
+        <f>AVERAGE(C20:C25)</f>
+        <v>3.5</v>
+      </c>
+      <c r="D27" s="385">
+        <f>AVERAGE(D20:D25)</f>
+        <v>7</v>
+      </c>
+      <c r="E27" s="382">
+        <f>AVERAGE(E20:E25)</f>
+        <v>5.5</v>
+      </c>
+      <c r="F27" s="235" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="25" t="s">
+        <v>708</v>
+      </c>
+      <c r="B28" s="384">
+        <f>VARP(B20:B25)</f>
+        <v>2.9166666666666665</v>
+      </c>
+      <c r="C28" s="88">
+        <f>VARP(C20:C25)</f>
+        <v>4.916666666666667</v>
+      </c>
+      <c r="D28" s="88">
+        <f>VARP(D20:D25)</f>
+        <v>11.666666666666666</v>
+      </c>
+      <c r="E28" s="386">
+        <f>VARP(E20:E25)</f>
+        <v>2.9166666666666665</v>
+      </c>
+      <c r="F28" s="235" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="25" t="s">
+        <v>709</v>
+      </c>
+      <c r="B29" s="384">
+        <f>B28^0.5</f>
+        <v>1.707825127659933</v>
+      </c>
+      <c r="C29" s="88">
+        <f>C28^0.5</f>
+        <v>2.2173557826083452</v>
+      </c>
+      <c r="D29" s="385">
+        <f>D28^0.5</f>
+        <v>3.415650255319866</v>
+      </c>
+      <c r="E29" s="386">
+        <f>E28^0.5</f>
+        <v>1.707825127659933</v>
+      </c>
+      <c r="F29" s="235" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="387" customFormat="1" ht="6.75" customHeight="1"/>
+    <row r="35" spans="1:3" ht="12" thickBot="1">
+      <c r="A35" s="87" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="14.25">
+      <c r="A36" s="392" t="s">
+        <v>714</v>
+      </c>
+      <c r="B36" s="378"/>
+      <c r="C36" s="267"/>
+    </row>
+    <row r="37" spans="1:3" ht="14.25">
+      <c r="A37" s="393"/>
+      <c r="B37" s="229"/>
+      <c r="C37" s="269"/>
+    </row>
+    <row r="38" spans="1:3" ht="14.25">
+      <c r="A38" s="393" t="s">
+        <v>715</v>
+      </c>
+      <c r="B38" s="229"/>
+      <c r="C38" s="269"/>
+    </row>
+    <row r="39" spans="1:3" ht="14.25">
+      <c r="A39" s="393"/>
+      <c r="B39" s="229"/>
+      <c r="C39" s="269"/>
+    </row>
+    <row r="40" spans="1:3" ht="14.25">
+      <c r="A40" s="393" t="s">
+        <v>716</v>
+      </c>
+      <c r="B40" s="229"/>
+      <c r="C40" s="269"/>
+    </row>
+    <row r="41" spans="1:3" ht="14.25">
+      <c r="A41" s="393"/>
+      <c r="B41" s="229"/>
+      <c r="C41" s="269"/>
+    </row>
+    <row r="42" spans="1:3" ht="14.25">
+      <c r="A42" s="393" t="s">
+        <v>717</v>
+      </c>
+      <c r="B42" s="229"/>
+      <c r="C42" s="269"/>
+    </row>
+    <row r="43" spans="1:3" ht="14.25">
+      <c r="A43" s="393"/>
+      <c r="B43" s="229"/>
+      <c r="C43" s="269"/>
+    </row>
+    <row r="44" spans="1:3" ht="14.25">
+      <c r="A44" s="393" t="s">
+        <v>718</v>
+      </c>
+      <c r="B44" s="229"/>
+      <c r="C44" s="269"/>
+    </row>
+    <row r="45" spans="1:3" ht="14.25">
+      <c r="A45" s="393"/>
+      <c r="B45" s="229"/>
+      <c r="C45" s="269"/>
+    </row>
+    <row r="46" spans="1:3" ht="14.25">
+      <c r="A46" s="393" t="s">
+        <v>719</v>
+      </c>
+      <c r="B46" s="229"/>
+      <c r="C46" s="269"/>
+    </row>
+    <row r="47" spans="1:3" ht="12" thickBot="1">
+      <c r="A47" s="270"/>
+      <c r="B47" s="380"/>
+      <c r="C47" s="271"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="87" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="87" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" s="233" customFormat="1"/>
+    <row r="54" spans="1:4" s="233" customFormat="1">
+      <c r="B54" s="25" t="s">
+        <v>722</v>
+      </c>
+      <c r="C54" s="395" t="s">
+        <v>723</v>
+      </c>
+      <c r="D54" s="397"/>
+    </row>
+    <row r="55" spans="1:4" s="233" customFormat="1">
+      <c r="B55" s="88">
+        <v>2</v>
+      </c>
+      <c r="C55" s="396" t="s">
+        <v>724</v>
+      </c>
+      <c r="D55" s="397"/>
+    </row>
+    <row r="56" spans="1:4" s="233" customFormat="1">
+      <c r="B56" s="88">
+        <v>3</v>
+      </c>
+      <c r="C56" s="396" t="s">
+        <v>726</v>
+      </c>
+      <c r="D56" s="397"/>
+    </row>
+    <row r="57" spans="1:4" s="233" customFormat="1">
+      <c r="B57" s="88">
+        <v>4</v>
+      </c>
+      <c r="C57" s="396" t="s">
+        <v>727</v>
+      </c>
+      <c r="D57" s="397"/>
+    </row>
+    <row r="58" spans="1:4" s="233" customFormat="1">
+      <c r="B58" s="88">
+        <v>5</v>
+      </c>
+      <c r="C58" s="396" t="s">
+        <v>728</v>
+      </c>
+      <c r="D58" s="397"/>
+    </row>
+    <row r="59" spans="1:4" s="233" customFormat="1">
+      <c r="B59" s="88">
+        <v>6</v>
+      </c>
+      <c r="C59" s="396" t="s">
+        <v>730</v>
+      </c>
+      <c r="D59" s="397"/>
+    </row>
+    <row r="60" spans="1:4" s="233" customFormat="1">
+      <c r="B60" s="88">
+        <v>7</v>
+      </c>
+      <c r="C60" s="396" t="s">
+        <v>729</v>
+      </c>
+      <c r="D60" s="397"/>
+    </row>
+    <row r="61" spans="1:4" s="233" customFormat="1">
+      <c r="B61" s="88">
+        <v>8</v>
+      </c>
+      <c r="C61" s="396" t="s">
+        <v>730</v>
+      </c>
+      <c r="D61" s="397"/>
+    </row>
+    <row r="62" spans="1:4" s="233" customFormat="1">
+      <c r="B62" s="88">
+        <v>9</v>
+      </c>
+      <c r="C62" s="396" t="s">
+        <v>728</v>
+      </c>
+      <c r="D62" s="397"/>
+    </row>
+    <row r="63" spans="1:4" s="233" customFormat="1">
+      <c r="B63" s="88">
+        <v>10</v>
+      </c>
+      <c r="C63" s="388" t="s">
+        <v>727</v>
+      </c>
+      <c r="D63" s="397"/>
+    </row>
+    <row r="64" spans="1:4" s="233" customFormat="1">
+      <c r="B64" s="88">
+        <v>11</v>
+      </c>
+      <c r="C64" s="388" t="s">
+        <v>725</v>
+      </c>
+      <c r="D64" s="397"/>
+    </row>
+    <row r="65" spans="1:4" s="233" customFormat="1">
+      <c r="B65" s="88">
+        <v>12</v>
+      </c>
+      <c r="C65" s="388" t="s">
+        <v>724</v>
+      </c>
+      <c r="D65" s="397"/>
+    </row>
+    <row r="66" spans="1:4" s="233" customFormat="1"/>
+    <row r="67" spans="1:4" s="233" customFormat="1">
+      <c r="A67" s="234" t="s">
+        <v>707</v>
+      </c>
+      <c r="B67" s="383">
+        <f>2*(1/36) + 3*(2/36) + 4*(3/36) + 5*(4/36) + 6*(5/36) + 7*(6/36) + 8*(5/36) + 9*(4/36) + 10*(3/36) + 11*(2/36) + 12*(1/36)</f>
+        <v>6.9999999999999991</v>
+      </c>
+      <c r="C67" s="235" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" s="233" customFormat="1">
+      <c r="A68" s="234" t="s">
+        <v>708</v>
+      </c>
+      <c r="B68" s="394">
+        <f>(2-7)^2 * (1/36) + (3-7)^2 * (2/36) + (4-7)^2 * (3/36) + (5-7)^2 * (4/36) + (6-7)^2 * (5/36) + (7-7)^2 * (6/36) + (8-7)^2 * (5/36) + (9-7)^2 * (4/36) + (10-7)^2 * (3/36) + (11-7)^2 * (2/36) + (12-7)^2 * (1/36)</f>
+        <v>5.8333333333333339</v>
+      </c>
+      <c r="C68" s="255" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" s="233" customFormat="1">
+      <c r="A69" s="234" t="s">
+        <v>709</v>
+      </c>
+      <c r="B69" s="398">
+        <f>B68^0.5</f>
+        <v>2.4152294576982398</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" s="233" customFormat="1"/>
+    <row r="71" spans="1:4" s="233" customFormat="1"/>
+    <row r="72" spans="1:4" s="233" customFormat="1"/>
+    <row r="73" spans="1:4" s="233" customFormat="1">
+      <c r="A73" s="255" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" s="233" customFormat="1"/>
+    <row r="75" spans="1:4" s="233" customFormat="1">
+      <c r="A75" s="297"/>
+      <c r="B75" s="25" t="s">
+        <v>703</v>
+      </c>
+      <c r="D75" s="233" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" s="233" customFormat="1">
+      <c r="A76" s="297"/>
+      <c r="B76" s="88">
+        <v>1</v>
+      </c>
+      <c r="D76" s="233" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" s="233" customFormat="1">
+      <c r="A77" s="297"/>
+      <c r="B77" s="88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" s="233" customFormat="1">
+      <c r="A78" s="297"/>
+      <c r="B78" s="388">
+        <v>3</v>
+      </c>
+      <c r="D78" s="233" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" s="233" customFormat="1">
+      <c r="A79" s="297"/>
+      <c r="B79" s="88">
+        <v>4</v>
+      </c>
+      <c r="D79" s="233" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" s="233" customFormat="1">
+      <c r="A80" s="297"/>
+      <c r="B80" s="88">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" s="233" customFormat="1">
+      <c r="A81" s="297"/>
+      <c r="B81" s="88">
+        <v>6</v>
+      </c>
+      <c r="D81" s="233" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" s="233" customFormat="1">
+      <c r="A82" s="242"/>
+      <c r="B82" s="87"/>
+      <c r="D82" s="233" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" s="233" customFormat="1">
+      <c r="A83" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="B83" s="384">
+        <f>AVERAGE(B76:B81)</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" s="233" customFormat="1">
+      <c r="A84" s="25" t="s">
+        <v>708</v>
+      </c>
+      <c r="B84" s="384">
+        <f>VARP(B76:B81)</f>
+        <v>2.9166666666666665</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" s="233" customFormat="1">
+      <c r="A85" s="25" t="s">
+        <v>709</v>
+      </c>
+      <c r="B85" s="384">
+        <f>B84^0.5</f>
+        <v>1.707825127659933</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" s="233" customFormat="1"/>
+    <row r="87" spans="1:4" s="233" customFormat="1"/>
+    <row r="88" spans="1:4" s="233" customFormat="1"/>
+    <row r="89" spans="1:4" s="233" customFormat="1">
+      <c r="A89" s="255" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" s="233" customFormat="1"/>
+    <row r="91" spans="1:4" s="233" customFormat="1">
+      <c r="A91" s="233" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" s="233" customFormat="1">
+      <c r="A92" s="255" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" s="233" customFormat="1"/>
+    <row r="94" spans="1:4" s="233" customFormat="1">
+      <c r="A94" s="233" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" s="233" customFormat="1">
+      <c r="A95" s="255" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" s="233" customFormat="1"/>
+    <row r="97" spans="1:9" s="233" customFormat="1">
+      <c r="A97" s="233" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" s="233" customFormat="1">
+      <c r="A98" s="255" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" s="233" customFormat="1"/>
+    <row r="100" spans="1:9" s="233" customFormat="1"/>
+    <row r="101" spans="1:9" s="233" customFormat="1">
+      <c r="A101" s="233">
+        <f>NORMSDIST(2.5)</f>
+        <v>0.99379033467422384</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" s="233" customFormat="1">
+      <c r="A102" s="233">
+        <f>NORMSDIST(-2.5)</f>
+        <v>6.2096653257761331E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" s="233" customFormat="1"/>
+    <row r="104" spans="1:9" s="233" customFormat="1"/>
+    <row r="105" spans="1:9" s="233" customFormat="1"/>
+    <row r="106" spans="1:9" s="233" customFormat="1"/>
+    <row r="107" spans="1:9" s="233" customFormat="1"/>
+    <row r="108" spans="1:9">
+      <c r="A108" s="87" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" s="233" customFormat="1">
+      <c r="A109" s="255" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" s="233" customFormat="1">
+      <c r="A110" s="255" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" s="233" customFormat="1"/>
+    <row r="112" spans="1:9" s="233" customFormat="1">
+      <c r="C112" s="25" t="s">
+        <v>722</v>
+      </c>
+      <c r="D112" s="25" t="s">
+        <v>744</v>
+      </c>
+      <c r="E112" s="25" t="s">
+        <v>745</v>
+      </c>
+      <c r="F112" s="25" t="s">
+        <v>746</v>
+      </c>
+      <c r="G112" s="234" t="s">
+        <v>747</v>
+      </c>
+      <c r="H112" s="234" t="s">
+        <v>748</v>
+      </c>
+      <c r="I112" s="458"/>
+    </row>
+    <row r="113" spans="1:9" s="233" customFormat="1">
+      <c r="A113" s="399" t="s">
+        <v>749</v>
+      </c>
+      <c r="C113" s="88">
+        <v>3</v>
+      </c>
+      <c r="D113" s="88">
+        <v>1</v>
+      </c>
+      <c r="E113" s="88">
+        <v>0.5</v>
+      </c>
+      <c r="F113" s="88">
+        <v>1</v>
+      </c>
+      <c r="G113" s="88">
+        <f>(C113-E113)/F113</f>
+        <v>2.5</v>
+      </c>
+      <c r="H113" s="88">
+        <f>NORMSDIST(G113 * D113 )</f>
+        <v>0.99379033467422384</v>
+      </c>
+      <c r="I113" s="297"/>
+    </row>
+    <row r="114" spans="1:9" s="233" customFormat="1">
+      <c r="A114" s="399" t="s">
+        <v>750</v>
+      </c>
+      <c r="C114" s="88">
+        <v>1.6</v>
+      </c>
+      <c r="D114" s="88">
+        <v>1</v>
+      </c>
+      <c r="E114" s="88">
+        <v>1</v>
+      </c>
+      <c r="F114" s="88">
+        <v>0.5</v>
+      </c>
+      <c r="G114" s="88">
+        <f>(C114-E114)/F114</f>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="H114" s="88">
+        <f>NORMSDIST(G114 * D114 )</f>
+        <v>0.88493032977829178</v>
+      </c>
+      <c r="I114" s="297"/>
+    </row>
+    <row r="115" spans="1:9" s="233" customFormat="1">
+      <c r="A115" s="399" t="s">
+        <v>751</v>
+      </c>
+      <c r="C115" s="88">
+        <v>1.4</v>
+      </c>
+      <c r="D115" s="88">
+        <v>1</v>
+      </c>
+      <c r="E115" s="88">
+        <v>-1</v>
+      </c>
+      <c r="F115" s="88">
+        <v>2</v>
+      </c>
+      <c r="G115" s="88">
+        <f>(C115-E115)/F115</f>
+        <v>1.2</v>
+      </c>
+      <c r="H115" s="88">
+        <f>NORMSDIST(G115 * D115 )</f>
+        <v>0.88493032977829178</v>
+      </c>
+      <c r="I115" s="297"/>
+    </row>
+    <row r="116" spans="1:9" s="233" customFormat="1">
+      <c r="A116" s="399" t="s">
+        <v>752</v>
+      </c>
+      <c r="C116" s="88">
+        <v>-1.5</v>
+      </c>
+      <c r="D116" s="88">
+        <v>-1</v>
+      </c>
+      <c r="E116" s="88">
+        <v>1</v>
+      </c>
+      <c r="F116" s="88">
+        <v>1</v>
+      </c>
+      <c r="G116" s="88">
+        <f>(C116-E116)/F116</f>
+        <v>-2.5</v>
+      </c>
+      <c r="H116" s="88">
+        <f>NORMSDIST(G116 * D116 )</f>
+        <v>0.99379033467422384</v>
+      </c>
+      <c r="I116" s="297"/>
+    </row>
+    <row r="117" spans="1:9" s="233" customFormat="1" ht="12" thickBot="1"/>
+    <row r="118" spans="1:9" s="233" customFormat="1" ht="12">
+      <c r="A118" s="400" t="s">
+        <v>753</v>
+      </c>
+      <c r="B118" s="401"/>
+    </row>
+    <row r="119" spans="1:9" s="233" customFormat="1" ht="12">
+      <c r="A119" s="402" t="s">
+        <v>754</v>
+      </c>
+      <c r="B119" s="403"/>
+    </row>
+    <row r="120" spans="1:9" s="233" customFormat="1" ht="12">
+      <c r="A120" s="402"/>
+      <c r="B120" s="403"/>
+    </row>
+    <row r="121" spans="1:9" s="233" customFormat="1" ht="12">
+      <c r="A121" s="402" t="s">
+        <v>755</v>
+      </c>
+      <c r="B121" s="403" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" s="233" customFormat="1" ht="12.75" thickBot="1">
+      <c r="A122" s="404" t="s">
+        <v>756</v>
+      </c>
+      <c r="B122" s="405" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" s="233" customFormat="1"/>
+    <row r="124" spans="1:9" s="233" customFormat="1"/>
+    <row r="125" spans="1:9" s="233" customFormat="1"/>
+    <row r="126" spans="1:9" s="233" customFormat="1"/>
+    <row r="127" spans="1:9" s="421" customFormat="1"/>
+    <row r="128" spans="1:9" s="233" customFormat="1"/>
+    <row r="129" spans="1:9" s="233" customFormat="1" ht="32.25">
+      <c r="A129" s="432" t="s">
+        <v>795</v>
+      </c>
+      <c r="B129" s="427" t="s">
+        <v>852</v>
+      </c>
+      <c r="C129" s="425"/>
+      <c r="D129" s="425"/>
+      <c r="E129" s="425"/>
+    </row>
+    <row r="130" spans="1:9" s="233" customFormat="1"/>
+    <row r="131" spans="1:9" s="233" customFormat="1">
+      <c r="A131" s="25" t="s">
+        <v>816</v>
+      </c>
+      <c r="B131" s="25" t="s">
+        <v>817</v>
+      </c>
+      <c r="C131" s="25" t="s">
+        <v>818</v>
+      </c>
+      <c r="F131" s="424" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" s="233" customFormat="1">
+      <c r="A132" s="88" t="s">
+        <v>796</v>
+      </c>
+      <c r="B132" s="88">
+        <v>4020</v>
+      </c>
+      <c r="C132" s="88"/>
+      <c r="F132" s="88">
+        <v>-3.7735849056603774</v>
+      </c>
+      <c r="G132" s="233" t="s">
+        <v>822</v>
+      </c>
+      <c r="H132" s="255" t="s">
+        <v>832</v>
+      </c>
+      <c r="I132" s="255"/>
+    </row>
+    <row r="133" spans="1:9" s="233" customFormat="1">
+      <c r="A133" s="88" t="s">
+        <v>797</v>
+      </c>
+      <c r="B133" s="88">
+        <v>3920</v>
+      </c>
+      <c r="C133" s="382">
+        <f>100*(B133-B132)/B132</f>
+        <v>-2.4875621890547261</v>
+      </c>
+      <c r="D133" s="255" t="s">
+        <v>819</v>
+      </c>
+      <c r="F133" s="88">
+        <v>-3.7037037037037037</v>
+      </c>
+      <c r="G133" s="233" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" s="233" customFormat="1">
+      <c r="A134" s="88" t="s">
+        <v>798</v>
+      </c>
+      <c r="B134" s="88">
+        <v>3850</v>
+      </c>
+      <c r="C134" s="382">
+        <f>100*(B134-B133)/B133</f>
+        <v>-1.7857142857142858</v>
+      </c>
+      <c r="D134" s="255" t="s">
+        <v>820</v>
+      </c>
+      <c r="F134" s="88">
+        <v>-2.6246719160104988</v>
+      </c>
+      <c r="G134" s="233" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" s="233" customFormat="1">
+      <c r="A135" s="88" t="s">
+        <v>799</v>
+      </c>
+      <c r="B135" s="88">
+        <v>3850</v>
+      </c>
+      <c r="C135" s="88">
+        <f t="shared" ref="C135:C151" si="0">100*(B135-B134)/B134</f>
+        <v>0</v>
+      </c>
+      <c r="F135" s="88">
+        <v>-2.6041666666666665</v>
+      </c>
+      <c r="G135" s="233" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" s="233" customFormat="1">
+      <c r="A136" s="88" t="s">
+        <v>800</v>
+      </c>
+      <c r="B136" s="88">
+        <v>3880</v>
+      </c>
+      <c r="C136" s="88">
+        <f t="shared" si="0"/>
+        <v>0.77922077922077926</v>
+      </c>
+      <c r="F136" s="88">
+        <v>-2.4875621890547261</v>
+      </c>
+      <c r="G136" s="233" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" s="233" customFormat="1">
+      <c r="A137" s="88" t="s">
+        <v>801</v>
+      </c>
+      <c r="B137" s="88">
+        <v>3870</v>
+      </c>
+      <c r="C137" s="88">
+        <f t="shared" si="0"/>
+        <v>-0.25773195876288657</v>
+      </c>
+      <c r="F137" s="382">
+        <v>-1.8087855297157622</v>
+      </c>
+      <c r="G137" s="233" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" s="233" customFormat="1">
+      <c r="A138" s="88" t="s">
+        <v>802</v>
+      </c>
+      <c r="B138" s="88">
+        <v>3800</v>
+      </c>
+      <c r="C138" s="88">
+        <f t="shared" si="0"/>
+        <v>-1.8087855297157622</v>
+      </c>
+      <c r="F138" s="88">
+        <v>-1.7902813299232736</v>
+      </c>
+      <c r="G138" s="233" t="s">
+        <v>828</v>
+      </c>
+      <c r="H138" s="311" t="s">
+        <v>833</v>
+      </c>
+      <c r="I138" s="311"/>
+    </row>
+    <row r="139" spans="1:9" s="233" customFormat="1">
+      <c r="A139" s="88" t="s">
+        <v>803</v>
+      </c>
+      <c r="B139" s="88">
+        <v>3910</v>
+      </c>
+      <c r="C139" s="88">
+        <f t="shared" si="0"/>
+        <v>2.8947368421052633</v>
+      </c>
+      <c r="F139" s="88">
+        <v>-1.7857142857142858</v>
+      </c>
+      <c r="G139" s="233" t="s">
+        <v>829</v>
+      </c>
+      <c r="H139" s="334">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="I139" s="459"/>
+    </row>
+    <row r="140" spans="1:9" s="233" customFormat="1">
+      <c r="A140" s="88" t="s">
+        <v>804</v>
+      </c>
+      <c r="B140" s="88">
+        <v>3840</v>
+      </c>
+      <c r="C140" s="88">
+        <f t="shared" si="0"/>
+        <v>-1.7902813299232736</v>
+      </c>
+      <c r="F140" s="88">
+        <v>-1.680672268907563</v>
+      </c>
+      <c r="G140" s="233" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" s="233" customFormat="1">
+      <c r="A141" s="88" t="s">
+        <v>805</v>
+      </c>
+      <c r="B141" s="88">
+        <v>3740</v>
+      </c>
+      <c r="C141" s="88">
+        <f t="shared" si="0"/>
+        <v>-2.6041666666666665</v>
+      </c>
+      <c r="F141" s="25">
+        <v>-0.8</v>
+      </c>
+      <c r="G141" s="233" t="s">
+        <v>831</v>
+      </c>
+      <c r="H141" s="311" t="s">
+        <v>834</v>
+      </c>
+      <c r="I141" s="311"/>
+    </row>
+    <row r="142" spans="1:9" s="233" customFormat="1">
+      <c r="A142" s="88" t="s">
+        <v>806</v>
+      </c>
+      <c r="B142" s="88">
+        <v>3750</v>
+      </c>
+      <c r="C142" s="88">
+        <f t="shared" si="0"/>
+        <v>0.26737967914438504</v>
+      </c>
+      <c r="F142" s="88">
+        <v>-0.52219321148825071</v>
+      </c>
+      <c r="H142" s="233" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" s="233" customFormat="1">
+      <c r="A143" s="88" t="s">
+        <v>807</v>
+      </c>
+      <c r="B143" s="88">
+        <v>3720</v>
+      </c>
+      <c r="C143" s="88">
+        <f t="shared" si="0"/>
+        <v>-0.8</v>
+      </c>
+      <c r="F143" s="382">
+        <v>-0.25773195876288657</v>
+      </c>
+      <c r="H143" s="88">
+        <f>100000000 * (-0.8%)</f>
+        <v>-800000</v>
+      </c>
+      <c r="I143" s="297"/>
+    </row>
+    <row r="144" spans="1:9" s="233" customFormat="1">
+      <c r="A144" s="88" t="s">
+        <v>808</v>
+      </c>
+      <c r="B144" s="88">
+        <v>3780</v>
+      </c>
+      <c r="C144" s="88">
+        <f t="shared" si="0"/>
+        <v>1.6129032258064515</v>
+      </c>
+      <c r="F144" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" s="233" customFormat="1">
+      <c r="A145" s="88" t="s">
+        <v>809</v>
+      </c>
+      <c r="B145" s="88">
+        <v>3830</v>
+      </c>
+      <c r="C145" s="88">
+        <f t="shared" si="0"/>
+        <v>1.3227513227513228</v>
+      </c>
+      <c r="F145" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" s="233" customFormat="1">
+      <c r="A146" s="88" t="s">
+        <v>810</v>
+      </c>
+      <c r="B146" s="88">
+        <v>3810</v>
+      </c>
+      <c r="C146" s="88">
+        <f t="shared" si="0"/>
+        <v>-0.52219321148825071</v>
+      </c>
+      <c r="F146" s="88">
+        <v>0.26737967914438504</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" s="233" customFormat="1">
+      <c r="A147" s="88" t="s">
+        <v>811</v>
+      </c>
+      <c r="B147" s="88">
+        <v>3710</v>
+      </c>
+      <c r="C147" s="88">
+        <f t="shared" si="0"/>
+        <v>-2.6246719160104988</v>
+      </c>
+      <c r="F147" s="88">
+        <v>0.77922077922077926</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" s="233" customFormat="1">
+      <c r="A148" s="88" t="s">
+        <v>812</v>
+      </c>
+      <c r="B148" s="88">
+        <v>3570</v>
+      </c>
+      <c r="C148" s="88">
+        <f t="shared" si="0"/>
+        <v>-3.7735849056603774</v>
+      </c>
+      <c r="F148" s="88">
+        <v>1.3227513227513228</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" s="233" customFormat="1">
+      <c r="A149" s="88" t="s">
+        <v>813</v>
+      </c>
+      <c r="B149" s="88">
+        <v>3570</v>
+      </c>
+      <c r="C149" s="88">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F149" s="88">
+        <v>1.6129032258064515</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" s="233" customFormat="1">
+      <c r="A150" s="88" t="s">
+        <v>814</v>
+      </c>
+      <c r="B150" s="88">
+        <v>3510</v>
+      </c>
+      <c r="C150" s="88">
+        <f t="shared" si="0"/>
+        <v>-1.680672268907563</v>
+      </c>
+      <c r="F150" s="88">
+        <v>2.8947368421052633</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" s="233" customFormat="1">
+      <c r="A151" s="88" t="s">
+        <v>815</v>
+      </c>
+      <c r="B151" s="88">
+        <v>3380</v>
+      </c>
+      <c r="C151" s="88">
+        <f t="shared" si="0"/>
+        <v>-3.7037037037037037</v>
+      </c>
+      <c r="F151" s="88"/>
+    </row>
+    <row r="152" spans="1:7" s="233" customFormat="1">
+      <c r="F152" s="297"/>
+    </row>
+    <row r="153" spans="1:7" s="233" customFormat="1">
+      <c r="F153" s="297"/>
+    </row>
+    <row r="154" spans="1:7" s="233" customFormat="1">
+      <c r="F154" s="297"/>
+    </row>
+    <row r="155" spans="1:7" s="233" customFormat="1">
+      <c r="F155" s="424" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" s="233" customFormat="1"/>
+    <row r="157" spans="1:7" s="233" customFormat="1">
+      <c r="F157" s="311" t="s">
+        <v>837</v>
+      </c>
+      <c r="G157" s="422"/>
+    </row>
+    <row r="158" spans="1:7" s="233" customFormat="1">
+      <c r="F158" s="88" t="s">
+        <v>838</v>
+      </c>
+      <c r="G158" s="88" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" s="233" customFormat="1">
+      <c r="F159" s="88">
+        <f>VARP(C133:C151)</f>
+        <v>3.1343075312178019</v>
+      </c>
+      <c r="G159" s="88">
+        <f>F159^0.5</f>
+        <v>1.7703975630399522</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" s="233" customFormat="1"/>
+    <row r="161" spans="1:7" s="233" customFormat="1">
+      <c r="F161" s="311" t="s">
+        <v>840</v>
+      </c>
+      <c r="G161" s="422"/>
+    </row>
+    <row r="162" spans="1:7" s="233" customFormat="1">
+      <c r="F162" s="88">
+        <f>-2.33 * G159</f>
+        <v>-4.1250263218830892</v>
+      </c>
+      <c r="G162" s="255" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" s="233" customFormat="1"/>
+    <row r="164" spans="1:7" s="233" customFormat="1">
+      <c r="F164" s="311" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" s="233" customFormat="1">
+      <c r="F165" s="233" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" s="233" customFormat="1">
+      <c r="F166" s="423">
+        <f>100000000 * F162 / 100</f>
+        <v>-4125026.3218830889</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" s="233" customFormat="1"/>
+    <row r="168" spans="1:7" s="233" customFormat="1"/>
+    <row r="169" spans="1:7" s="233" customFormat="1"/>
+    <row r="170" spans="1:7" s="233" customFormat="1"/>
+    <row r="171" spans="1:7" s="233" customFormat="1"/>
+    <row r="172" spans="1:7" s="233" customFormat="1"/>
+    <row r="173" spans="1:7" s="233" customFormat="1"/>
+    <row r="174" spans="1:7" s="233" customFormat="1" ht="32.25">
+      <c r="A174" s="433" t="s">
+        <v>853</v>
+      </c>
+      <c r="B174" s="425"/>
+      <c r="C174" s="425"/>
+      <c r="D174" s="425"/>
+      <c r="E174" s="425"/>
+    </row>
+    <row r="175" spans="1:7" s="233" customFormat="1">
+      <c r="A175" s="425"/>
+      <c r="B175" s="425"/>
+      <c r="C175" s="425"/>
+      <c r="D175" s="425"/>
+      <c r="E175" s="425"/>
+    </row>
+    <row r="176" spans="1:7" s="233" customFormat="1">
+      <c r="A176" s="427" t="s">
+        <v>844</v>
+      </c>
+      <c r="B176" s="425"/>
+      <c r="C176" s="425"/>
+      <c r="D176" s="425"/>
+      <c r="E176" s="425"/>
+    </row>
+    <row r="177" spans="1:12" s="233" customFormat="1"/>
+    <row r="178" spans="1:12" s="233" customFormat="1" ht="12" thickBot="1"/>
+    <row r="179" spans="1:12" s="233" customFormat="1" ht="19.5" thickBot="1">
+      <c r="A179" s="426" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" s="233" customFormat="1">
+      <c r="A180" s="255" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" s="233" customFormat="1">
+      <c r="A181" s="255" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" s="233" customFormat="1">
+      <c r="A182" s="255"/>
+    </row>
+    <row r="183" spans="1:12" s="233" customFormat="1">
+      <c r="A183" s="255"/>
+    </row>
+    <row r="184" spans="1:12" s="233" customFormat="1">
+      <c r="A184" s="255"/>
+    </row>
+    <row r="185" spans="1:12" s="233" customFormat="1">
+      <c r="A185" s="255"/>
+    </row>
+    <row r="186" spans="1:12" s="233" customFormat="1"/>
+    <row r="187" spans="1:12" s="233" customFormat="1">
+      <c r="A187" s="255" t="s">
+        <v>851</v>
+      </c>
+      <c r="F187" s="255" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" s="233" customFormat="1">
+      <c r="A188" s="428" t="s">
+        <v>848</v>
+      </c>
+      <c r="B188" s="429"/>
+      <c r="F188" s="428" t="s">
+        <v>858</v>
+      </c>
+      <c r="G188" s="429"/>
+    </row>
+    <row r="189" spans="1:12" s="233" customFormat="1">
+      <c r="A189" s="430" t="s">
+        <v>849</v>
+      </c>
+      <c r="B189" s="431"/>
+      <c r="F189" s="430" t="s">
+        <v>849</v>
+      </c>
+      <c r="G189" s="431"/>
+    </row>
+    <row r="190" spans="1:12" s="233" customFormat="1"/>
+    <row r="191" spans="1:12" s="233" customFormat="1" ht="17.25">
+      <c r="A191" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="B191" s="99"/>
+      <c r="C191" s="99"/>
+      <c r="D191" s="99"/>
+      <c r="E191" s="99"/>
+      <c r="F191" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="G191" s="99"/>
+      <c r="H191" s="99"/>
+      <c r="I191" s="99"/>
+      <c r="J191" s="99"/>
+      <c r="K191" s="99"/>
+      <c r="L191" s="99"/>
+    </row>
+    <row r="192" spans="1:12" s="233" customFormat="1">
+      <c r="A192" s="100" t="s">
+        <v>241</v>
+      </c>
+      <c r="B192" s="99"/>
+      <c r="C192" s="99"/>
+      <c r="D192" s="99"/>
+      <c r="E192" s="99"/>
+      <c r="F192" s="100" t="s">
+        <v>241</v>
+      </c>
+      <c r="G192" s="99"/>
+      <c r="H192" s="99"/>
+      <c r="I192" s="99"/>
+      <c r="J192" s="99"/>
+      <c r="K192" s="99"/>
+      <c r="L192" s="99"/>
+    </row>
+    <row r="193" spans="1:12" s="233" customFormat="1" ht="13.5">
+      <c r="A193" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B193" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C193" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D193" s="145" t="s">
+        <v>47</v>
+      </c>
+      <c r="E193" s="99"/>
+      <c r="F193" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G193" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H193" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="I193" s="25"/>
+      <c r="J193" s="145" t="s">
+        <v>47</v>
+      </c>
+      <c r="K193" s="460"/>
+      <c r="L193" s="99"/>
+    </row>
+    <row r="194" spans="1:12" s="233" customFormat="1" ht="13.5">
+      <c r="A194" s="34">
+        <f>100 / ( ( 1 + D194/C194 )^(B194*C194) )</f>
+        <v>94.259590913375433</v>
+      </c>
+      <c r="B194" s="8">
+        <v>2</v>
+      </c>
+      <c r="C194" s="8">
+        <v>1</v>
+      </c>
+      <c r="D194" s="11">
+        <v>0.03</v>
+      </c>
+      <c r="E194" s="99" t="s">
+        <v>235</v>
+      </c>
+      <c r="F194" s="34">
+        <f>100 / ( ( 1 + J194/H194 )^(G194*H194) )</f>
+        <v>74.409391489672515</v>
+      </c>
+      <c r="G194" s="8">
+        <v>10</v>
+      </c>
+      <c r="H194" s="8">
+        <v>1</v>
+      </c>
+      <c r="I194" s="8"/>
+      <c r="J194" s="11">
+        <v>0.03</v>
+      </c>
+      <c r="K194" s="80"/>
+      <c r="L194" s="99" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" s="233" customFormat="1" ht="13.5">
+      <c r="A195" s="34">
+        <f>100 / ( ( 1 + D195/C195 )^(B195*C195) )</f>
+        <v>94.241290745304511</v>
+      </c>
+      <c r="B195" s="8">
+        <v>2</v>
+      </c>
+      <c r="C195" s="8">
+        <v>1</v>
+      </c>
+      <c r="D195" s="11">
+        <v>3.0099999999999998E-2</v>
+      </c>
+      <c r="E195" s="99" t="s">
+        <v>235</v>
+      </c>
+      <c r="F195" s="34">
+        <f>100 / ( ( 1 + J195/H195 )^(G195*H195) )</f>
+        <v>74.337187922929829</v>
+      </c>
+      <c r="G195" s="8">
+        <v>10</v>
+      </c>
+      <c r="H195" s="8">
+        <v>1</v>
+      </c>
+      <c r="I195" s="8"/>
+      <c r="J195" s="11">
+        <v>3.0099999999999998E-2</v>
+      </c>
+      <c r="K195" s="80"/>
+      <c r="L195" s="99" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" s="233" customFormat="1"/>
+    <row r="197" spans="1:12" s="233" customFormat="1">
+      <c r="A197" s="234" t="s">
+        <v>850</v>
+      </c>
+      <c r="B197" s="234" t="s">
+        <v>855</v>
+      </c>
+      <c r="F197" s="234" t="s">
+        <v>850</v>
+      </c>
+      <c r="G197" s="234" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" s="233" customFormat="1">
+      <c r="A198" s="233" t="s">
+        <v>854</v>
+      </c>
+      <c r="B198" s="88" t="s">
+        <v>856</v>
+      </c>
+      <c r="F198" s="233" t="s">
+        <v>859</v>
+      </c>
+      <c r="G198" s="88" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" s="233" customFormat="1">
+      <c r="A199" s="434">
+        <f>A195-A194</f>
+        <v>-1.8300168070922496E-2</v>
+      </c>
+      <c r="B199" s="276">
+        <f>A199*10</f>
+        <v>-0.18300168070922496</v>
+      </c>
+      <c r="C199" s="255" t="s">
+        <v>857</v>
+      </c>
+      <c r="F199" s="434">
+        <f>F195-F194</f>
+        <v>-7.2203566742686576E-2</v>
+      </c>
+      <c r="G199" s="276">
+        <f>F199*10</f>
+        <v>-0.72203566742686576</v>
+      </c>
+      <c r="H199" s="255" t="s">
+        <v>857</v>
+      </c>
+      <c r="I199" s="255"/>
+    </row>
+    <row r="200" spans="1:12" s="233" customFormat="1"/>
+    <row r="201" spans="1:12" s="233" customFormat="1"/>
+    <row r="202" spans="1:12" s="233" customFormat="1"/>
+    <row r="203" spans="1:12" s="233" customFormat="1" ht="14.25">
+      <c r="C203" s="435" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" s="233" customFormat="1" ht="21">
+      <c r="C204" s="444" t="s">
+        <v>861</v>
+      </c>
+      <c r="D204" s="446"/>
+      <c r="E204" s="446"/>
+    </row>
+    <row r="205" spans="1:12" s="233" customFormat="1" ht="21">
+      <c r="C205" s="447" t="s">
+        <v>862</v>
+      </c>
+      <c r="D205" s="446"/>
+      <c r="E205" s="446"/>
+    </row>
+    <row r="206" spans="1:12" s="233" customFormat="1" ht="21">
+      <c r="C206" s="447" t="s">
+        <v>863</v>
+      </c>
+      <c r="D206" s="446"/>
+      <c r="E206" s="446"/>
+    </row>
+    <row r="207" spans="1:12" s="233" customFormat="1"/>
+    <row r="208" spans="1:12" s="233" customFormat="1"/>
+    <row r="209" spans="1:5" s="233" customFormat="1"/>
+    <row r="210" spans="1:5" s="233" customFormat="1"/>
+    <row r="211" spans="1:5" s="233" customFormat="1"/>
+    <row r="212" spans="1:5" s="233" customFormat="1"/>
+    <row r="213" spans="1:5" s="233" customFormat="1" ht="32.25">
+      <c r="A213" s="433" t="s">
+        <v>864</v>
+      </c>
+      <c r="B213" s="425"/>
+      <c r="C213" s="425"/>
+      <c r="D213" s="425"/>
+      <c r="E213" s="425"/>
+    </row>
+    <row r="214" spans="1:5" s="233" customFormat="1">
+      <c r="A214" s="425"/>
+      <c r="B214" s="425"/>
+      <c r="C214" s="425"/>
+      <c r="D214" s="425"/>
+      <c r="E214" s="425"/>
+    </row>
+    <row r="215" spans="1:5" s="233" customFormat="1">
+      <c r="A215" s="427" t="s">
+        <v>865</v>
+      </c>
+      <c r="B215" s="425"/>
+      <c r="C215" s="425"/>
+      <c r="D215" s="425"/>
+      <c r="E215" s="425"/>
+    </row>
+    <row r="216" spans="1:5" s="233" customFormat="1">
+      <c r="B216" s="436"/>
+      <c r="C216" s="436"/>
+    </row>
+    <row r="217" spans="1:5" s="233" customFormat="1">
+      <c r="A217" s="255" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" s="233" customFormat="1" ht="21">
+      <c r="A218" s="444" t="s">
+        <v>879</v>
+      </c>
+      <c r="B218" s="445"/>
+      <c r="C218" s="445"/>
+      <c r="D218" s="445"/>
+    </row>
+    <row r="219" spans="1:5" s="233" customFormat="1"/>
+    <row r="220" spans="1:5" s="233" customFormat="1" ht="12" thickBot="1">
+      <c r="A220" s="255" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" s="233" customFormat="1" ht="19.5" thickBot="1">
+      <c r="A221" s="450" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" s="233" customFormat="1"/>
+    <row r="223" spans="1:5" s="233" customFormat="1" ht="12" thickBot="1">
+      <c r="A223" s="255" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" s="233" customFormat="1" ht="19.5" thickBot="1">
+      <c r="A224" s="438" t="s">
+        <v>868</v>
+      </c>
+      <c r="B224" s="437"/>
+    </row>
+    <row r="225" spans="1:7" s="233" customFormat="1"/>
+    <row r="226" spans="1:7" s="233" customFormat="1" ht="12" thickBot="1">
+      <c r="A226" s="255" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" s="233" customFormat="1" ht="19.5" thickBot="1">
+      <c r="A227" s="438" t="s">
+        <v>871</v>
+      </c>
+      <c r="B227" s="437"/>
+    </row>
+    <row r="228" spans="1:7" s="233" customFormat="1"/>
+    <row r="229" spans="1:7" s="233" customFormat="1" ht="12" thickBot="1">
+      <c r="A229" s="255" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" s="233" customFormat="1" ht="18" thickBot="1">
+      <c r="A230" s="442" t="s">
+        <v>873</v>
+      </c>
+      <c r="B230" s="440"/>
+      <c r="C230" s="440"/>
+      <c r="D230" s="441"/>
+      <c r="E230" s="437"/>
+    </row>
+    <row r="231" spans="1:7" s="233" customFormat="1" ht="17.25">
+      <c r="A231" s="439"/>
+      <c r="B231" s="439"/>
+      <c r="C231" s="439"/>
+    </row>
+    <row r="232" spans="1:7" s="233" customFormat="1" ht="12" thickBot="1">
+      <c r="A232" s="255" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" s="233" customFormat="1" ht="18" thickBot="1">
+      <c r="A233" s="442" t="s">
+        <v>875</v>
+      </c>
+      <c r="B233" s="441"/>
+      <c r="C233" s="441"/>
+      <c r="D233" s="441"/>
+      <c r="E233" s="437"/>
+      <c r="F233" s="441"/>
+      <c r="G233" s="437"/>
+    </row>
+    <row r="234" spans="1:7" s="233" customFormat="1"/>
+    <row r="235" spans="1:7" s="233" customFormat="1"/>
+    <row r="236" spans="1:7" s="233" customFormat="1" ht="32.25">
+      <c r="A236" s="433" t="s">
+        <v>876</v>
+      </c>
+      <c r="B236" s="425"/>
+      <c r="C236" s="425"/>
+      <c r="D236" s="425"/>
+      <c r="E236" s="425"/>
+    </row>
+    <row r="237" spans="1:7" s="233" customFormat="1">
+      <c r="A237" s="425"/>
+      <c r="B237" s="425"/>
+      <c r="C237" s="425"/>
+      <c r="D237" s="425"/>
+      <c r="E237" s="425"/>
+    </row>
+    <row r="238" spans="1:7" s="233" customFormat="1">
+      <c r="A238" s="427" t="s">
+        <v>877</v>
+      </c>
+      <c r="B238" s="425"/>
+      <c r="C238" s="425"/>
+      <c r="D238" s="425"/>
+      <c r="E238" s="425"/>
+    </row>
+    <row r="239" spans="1:7" s="233" customFormat="1" ht="12" thickBot="1"/>
+    <row r="240" spans="1:7" s="233" customFormat="1" ht="29.25" thickBot="1">
+      <c r="A240" s="443" t="s">
+        <v>878</v>
+      </c>
+      <c r="B240" s="437"/>
+    </row>
+    <row r="242" spans="1:5" s="233" customFormat="1">
+      <c r="A242" s="255" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" s="233" customFormat="1" ht="21">
+      <c r="A243" s="444" t="s">
+        <v>881</v>
+      </c>
+      <c r="B243" s="445"/>
+      <c r="C243" s="445"/>
+      <c r="D243" s="445"/>
+    </row>
+    <row r="248" spans="1:5" s="233" customFormat="1" ht="32.25">
+      <c r="A248" s="433" t="s">
+        <v>882</v>
+      </c>
+      <c r="B248" s="425"/>
+      <c r="C248" s="425"/>
+      <c r="D248" s="425"/>
+      <c r="E248" s="425"/>
+    </row>
+    <row r="249" spans="1:5" s="233" customFormat="1">
+      <c r="A249" s="425"/>
+      <c r="B249" s="425"/>
+      <c r="C249" s="425"/>
+      <c r="D249" s="425"/>
+      <c r="E249" s="425"/>
+    </row>
+    <row r="250" spans="1:5" s="233" customFormat="1">
+      <c r="A250" s="427" t="s">
+        <v>883</v>
+      </c>
+      <c r="B250" s="425"/>
+      <c r="C250" s="425"/>
+      <c r="D250" s="425"/>
+      <c r="E250" s="425"/>
+    </row>
+    <row r="251" spans="1:5" s="233" customFormat="1" ht="12" thickBot="1"/>
+    <row r="252" spans="1:5" s="233" customFormat="1" ht="29.25" thickBot="1">
+      <c r="A252" s="443" t="s">
+        <v>884</v>
+      </c>
+      <c r="B252" s="437"/>
+    </row>
+    <row r="254" spans="1:5" s="233" customFormat="1">
+      <c r="A254" s="255" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" s="233" customFormat="1" ht="21">
+      <c r="A255" s="444" t="s">
+        <v>886</v>
+      </c>
+      <c r="B255" s="445"/>
+      <c r="C255" s="445"/>
+      <c r="D255" s="445"/>
+    </row>
+    <row r="256" spans="1:5" ht="21">
+      <c r="A256" s="444" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" ht="32.25">
+      <c r="A259" s="433" t="s">
+        <v>888</v>
+      </c>
+      <c r="B259" s="425"/>
+      <c r="C259" s="425"/>
+      <c r="D259" s="425"/>
+      <c r="E259" s="425"/>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" s="425"/>
+      <c r="B260" s="425"/>
+      <c r="C260" s="425"/>
+      <c r="D260" s="425"/>
+      <c r="E260" s="425"/>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" s="427" t="s">
+        <v>889</v>
+      </c>
+      <c r="B261" s="425"/>
+      <c r="C261" s="425"/>
+      <c r="D261" s="425"/>
+      <c r="E261" s="425"/>
+    </row>
+    <row r="263" spans="1:5" ht="12" thickBot="1">
+      <c r="A263" s="255" t="s">
+        <v>867</v>
+      </c>
+      <c r="B263" s="233"/>
+    </row>
+    <row r="264" spans="1:5" ht="19.5" thickBot="1">
+      <c r="A264" s="450" t="s">
+        <v>845</v>
+      </c>
+      <c r="B264" s="233"/>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" s="233"/>
+      <c r="B265" s="233"/>
+    </row>
+    <row r="266" spans="1:5" ht="12" thickBot="1">
+      <c r="A266" s="255" t="s">
+        <v>869</v>
+      </c>
+      <c r="B266" s="233"/>
+    </row>
+    <row r="267" spans="1:5" ht="19.5" thickBot="1">
+      <c r="A267" s="451" t="s">
+        <v>891</v>
+      </c>
+      <c r="B267" s="452"/>
+    </row>
+    <row r="269" spans="1:5" ht="12" thickBot="1">
+      <c r="A269" s="255" t="s">
+        <v>890</v>
+      </c>
+      <c r="B269" s="233"/>
+    </row>
+    <row r="270" spans="1:5" ht="19.5" thickBot="1">
+      <c r="A270" s="438" t="s">
+        <v>892</v>
+      </c>
+      <c r="B270" s="437"/>
+      <c r="C270" s="340"/>
+      <c r="D270" s="341"/>
+    </row>
+    <row r="273" spans="1:14">
+      <c r="A273" s="87" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="274" spans="1:14" ht="12" thickBot="1"/>
+    <row r="275" spans="1:14" ht="19.5" thickBot="1">
+      <c r="A275" s="448" t="s">
+        <v>894</v>
+      </c>
+      <c r="B275" s="449"/>
+      <c r="C275" s="449"/>
+      <c r="D275" s="449"/>
+      <c r="E275" s="449"/>
+      <c r="F275" s="340"/>
+      <c r="G275" s="341"/>
+    </row>
+    <row r="279" spans="1:14">
+      <c r="A279" s="87" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="280" spans="1:14">
+      <c r="A280" s="278" t="s">
+        <v>896</v>
+      </c>
+      <c r="B280" s="280"/>
+    </row>
+    <row r="281" spans="1:14">
+      <c r="A281" s="281" t="s">
+        <v>897</v>
+      </c>
+      <c r="B281" s="283"/>
+    </row>
+    <row r="282" spans="1:14">
+      <c r="A282" s="281"/>
+      <c r="B282" s="283"/>
+    </row>
+    <row r="283" spans="1:14">
+      <c r="A283" s="281" t="s">
+        <v>898</v>
+      </c>
+      <c r="B283" s="283"/>
+      <c r="F283" s="87" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="284" spans="1:14">
+      <c r="A284" s="284" t="s">
+        <v>899</v>
+      </c>
+      <c r="B284" s="286"/>
+    </row>
+    <row r="286" spans="1:14" ht="14.25">
+      <c r="B286" s="453" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="287" spans="1:14">
+      <c r="B287" s="25" t="s">
+        <v>900</v>
+      </c>
+      <c r="C287" s="25" t="s">
+        <v>901</v>
+      </c>
+      <c r="D287" s="25" t="s">
+        <v>903</v>
+      </c>
+      <c r="E287" s="454" t="s">
+        <v>905</v>
+      </c>
+      <c r="F287" s="454" t="s">
+        <v>904</v>
+      </c>
+      <c r="G287" s="454" t="s">
+        <v>908</v>
+      </c>
+      <c r="H287" s="455" t="s">
+        <v>864</v>
+      </c>
+      <c r="I287" s="455" t="s">
+        <v>910</v>
+      </c>
+      <c r="J287" s="455" t="s">
+        <v>876</v>
+      </c>
+      <c r="K287" s="455" t="s">
+        <v>911</v>
+      </c>
+      <c r="L287" s="455" t="s">
+        <v>902</v>
+      </c>
+      <c r="M287" s="234" t="s">
+        <v>888</v>
+      </c>
+      <c r="N287" s="234" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="288" spans="1:14">
+      <c r="B288" s="88">
+        <v>2</v>
+      </c>
+      <c r="C288" s="91">
+        <v>0.03</v>
+      </c>
+      <c r="D288" s="91">
+        <v>1E-3</v>
+      </c>
+      <c r="E288" s="276">
+        <f xml:space="preserve"> 100 / ( ( 1 + C288 ) ^ B288 )</f>
+        <v>94.259590913375433</v>
+      </c>
+      <c r="F288" s="276">
+        <f xml:space="preserve"> 100 / ( ( 1 + C288 + D288) ^ B288 )</f>
+        <v>94.076828782993942</v>
+      </c>
+      <c r="G288" s="456">
+        <f>F288-E288</f>
+        <v>-0.18276213038149081</v>
+      </c>
+      <c r="H288" s="276">
+        <f xml:space="preserve"> ( - 1 * B288 * 100 ) / ( ( 1 + C288 ) ^ (B288 + 1))</f>
+        <v>-183.02833187063192</v>
+      </c>
+      <c r="I288" s="456">
+        <f>D288*H288</f>
+        <v>-0.18302833187063192</v>
+      </c>
+      <c r="J288" s="276">
+        <f xml:space="preserve"> (-1 * H288 ) / E288</f>
+        <v>1.941747572815534</v>
+      </c>
+      <c r="K288" s="461">
+        <f>-1 * D288 * J288</f>
+        <v>-1.9417475728155341E-3</v>
+      </c>
+      <c r="L288" s="276">
+        <f xml:space="preserve"> ( 1 + C288 ) * J288</f>
+        <v>2</v>
+      </c>
+      <c r="M288" s="276">
+        <f xml:space="preserve"> ( B288 * (B288+1) * 100 ) / ( ( 1 + C288 ) ^ (B288+2) )</f>
+        <v>533.09222874941338</v>
+      </c>
+      <c r="N288" s="457">
+        <f>D288 * H288  +  (1/2) * (D288^2) * M288</f>
+        <v>-0.18276178575625721</v>
+      </c>
+    </row>
+    <row r="289" spans="1:14">
+      <c r="B289" s="88">
+        <v>2</v>
+      </c>
+      <c r="C289" s="91">
+        <v>0.03</v>
+      </c>
+      <c r="D289" s="91">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E289" s="276">
+        <f xml:space="preserve"> 100 / ( ( 1 + C289 ) ^ B289 )</f>
+        <v>94.259590913375433</v>
+      </c>
+      <c r="F289" s="276">
+        <f xml:space="preserve"> 100 / ( ( 1 + C289 + D289) ^ B289 )</f>
+        <v>93.351070036640309</v>
+      </c>
+      <c r="G289" s="456">
+        <f>F289-E289</f>
+        <v>-0.90852087673512472</v>
+      </c>
+      <c r="H289" s="276">
+        <f xml:space="preserve"> ( - 1 * B289 * 100 ) / ( ( 1 + C289 ) ^ (B289 + 1))</f>
+        <v>-183.02833187063192</v>
+      </c>
+      <c r="I289" s="456">
+        <f>D289*H289</f>
+        <v>-0.91514165935315961</v>
+      </c>
+      <c r="J289" s="276">
+        <f xml:space="preserve"> (-1 * H289 ) / E289</f>
+        <v>1.941747572815534</v>
+      </c>
+      <c r="K289" s="461">
+        <f>-1 * D289 * J289</f>
+        <v>-9.7087378640776708E-3</v>
+      </c>
+      <c r="L289" s="276">
+        <f xml:space="preserve"> ( 1 + C289 ) * J289</f>
+        <v>2</v>
+      </c>
+      <c r="M289" s="276">
+        <f xml:space="preserve"> ( B289 * (B289+1) * 100 ) / ( ( 1 + C289 ) ^ (B289+2) )</f>
+        <v>533.09222874941338</v>
+      </c>
+      <c r="N289" s="457">
+        <f>D289 * H289  +  (1/2) * (D289^2) * M289</f>
+        <v>-0.90847800649379196</v>
+      </c>
+    </row>
+    <row r="290" spans="1:14">
+      <c r="B290" s="88">
+        <v>4</v>
+      </c>
+      <c r="C290" s="91">
+        <v>0.03</v>
+      </c>
+      <c r="D290" s="91">
+        <v>1E-3</v>
+      </c>
+      <c r="E290" s="276">
+        <f xml:space="preserve"> 100 / ( ( 1 + C290 ) ^ B290 )</f>
+        <v>88.848704791568892</v>
+      </c>
+      <c r="F290" s="276">
+        <f xml:space="preserve"> 100 / ( ( 1 + C290 + D290) ^ B290 )</f>
+        <v>88.504497138647551</v>
+      </c>
+      <c r="G290" s="456">
+        <f>F290-E290</f>
+        <v>-0.34420765292134092</v>
+      </c>
+      <c r="H290" s="276">
+        <f xml:space="preserve"> ( - 1 * B290 * 100 ) / ( ( 1 + C290 ) ^ (B290 + 1))</f>
+        <v>-345.04351375366565</v>
+      </c>
+      <c r="I290" s="456">
+        <f>D290*H290</f>
+        <v>-0.34504351375366565</v>
+      </c>
+      <c r="J290" s="276">
+        <f xml:space="preserve"> (-1 * H290 ) / E290</f>
+        <v>3.8834951456310685</v>
+      </c>
+      <c r="K290" s="461">
+        <f>-1 * D290 * J290</f>
+        <v>-3.8834951456310687E-3</v>
+      </c>
+      <c r="L290" s="276">
+        <f xml:space="preserve"> ( 1 + C290 ) * J290</f>
+        <v>4.0000000000000009</v>
+      </c>
+      <c r="M290" s="276">
+        <f xml:space="preserve"> ( B290 * (B290+1) * 100 ) / ( ( 1 + C290 ) ^ (B290+2) )</f>
+        <v>1674.9685133673088</v>
+      </c>
+      <c r="N290" s="457">
+        <f>D290 * H290  +  (1/2) * (D290^2) * M290</f>
+        <v>-0.34420602949698198</v>
+      </c>
+    </row>
+    <row r="291" spans="1:14">
+      <c r="B291" s="88">
+        <v>4</v>
+      </c>
+      <c r="C291" s="91">
+        <v>0.03</v>
+      </c>
+      <c r="D291" s="91">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E291" s="276">
+        <f xml:space="preserve"> 100 / ( ( 1 + C291 ) ^ B291 )</f>
+        <v>88.848704791568892</v>
+      </c>
+      <c r="F291" s="276">
+        <f xml:space="preserve"> 100 / ( ( 1 + C291 + D291) ^ B291 )</f>
+        <v>87.144222769857237</v>
+      </c>
+      <c r="G291" s="456">
+        <f>F291-E291</f>
+        <v>-1.7044820217116552</v>
+      </c>
+      <c r="H291" s="276">
+        <f xml:space="preserve"> ( - 1 * B291 * 100 ) / ( ( 1 + C291 ) ^ (B291 + 1))</f>
+        <v>-345.04351375366565</v>
+      </c>
+      <c r="I291" s="456">
+        <f>D291*H291</f>
+        <v>-1.7252175687683282</v>
+      </c>
+      <c r="J291" s="276">
+        <f xml:space="preserve"> (-1 * H291 ) / E291</f>
+        <v>3.8834951456310685</v>
+      </c>
+      <c r="K291" s="461">
+        <f>-1 * D291 * J291</f>
+        <v>-1.9417475728155342E-2</v>
+      </c>
+      <c r="L291" s="276">
+        <f xml:space="preserve"> ( 1 + C291 ) * J291</f>
+        <v>4.0000000000000009</v>
+      </c>
+      <c r="M291" s="276">
+        <f xml:space="preserve"> ( B291 * (B291+1) * 100 ) / ( ( 1 + C291 ) ^ (B291+2) )</f>
+        <v>1674.9685133673088</v>
+      </c>
+      <c r="N291" s="457">
+        <f>D291 * H291  +  (1/2) * (D291^2) * M291</f>
+        <v>-1.7042804623512369</v>
+      </c>
+    </row>
+    <row r="296" spans="1:14" s="387" customFormat="1"/>
+    <row r="298" spans="1:14" ht="30.75">
+      <c r="A298" s="72" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="300" spans="1:14">
+      <c r="A300" s="87" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="301" spans="1:14">
+      <c r="B301" s="25"/>
+      <c r="C301" s="25" t="s">
+        <v>919</v>
+      </c>
+      <c r="D301" s="25" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="302" spans="1:14">
+      <c r="B302" s="25" t="s">
+        <v>916</v>
+      </c>
+      <c r="C302" s="88">
+        <v>0.3</v>
+      </c>
+      <c r="D302" s="88" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="303" spans="1:14">
+      <c r="B303" s="25" t="s">
+        <v>917</v>
+      </c>
+      <c r="C303" s="88">
+        <v>0.5</v>
+      </c>
+      <c r="D303" s="88" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="304" spans="1:14">
+      <c r="B304" s="25" t="s">
+        <v>918</v>
+      </c>
+      <c r="C304" s="88">
+        <v>0.2</v>
+      </c>
+      <c r="D304" s="88" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" ht="12" thickBot="1"/>
+    <row r="306" spans="1:4" ht="17.25">
+      <c r="A306" s="469" t="s">
+        <v>924</v>
+      </c>
+      <c r="B306" s="378"/>
+      <c r="C306" s="267"/>
+    </row>
+    <row r="307" spans="1:4" ht="18" thickBot="1">
+      <c r="A307" s="470" t="s">
+        <v>925</v>
+      </c>
+      <c r="B307" s="380"/>
+      <c r="C307" s="271"/>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="A310" s="87" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" ht="17.25">
+      <c r="A312" s="10" t="s">
+        <v>927</v>
+      </c>
+      <c r="B312" s="10"/>
+      <c r="C312" s="10"/>
+    </row>
+    <row r="313" spans="1:4" ht="17.25">
+      <c r="A313" s="10" t="s">
+        <v>928</v>
+      </c>
+      <c r="B313" s="10"/>
+      <c r="C313" s="10"/>
+    </row>
+    <row r="316" spans="1:4" ht="12" thickBot="1"/>
+    <row r="317" spans="1:4" ht="32.25">
+      <c r="A317" s="471" t="s">
+        <v>929</v>
+      </c>
+      <c r="B317" s="378"/>
+      <c r="C317" s="378"/>
+      <c r="D317" s="267"/>
+    </row>
+    <row r="318" spans="1:4" ht="32.25">
+      <c r="A318" s="472"/>
+      <c r="B318" s="229"/>
+      <c r="C318" s="229"/>
+      <c r="D318" s="269"/>
+    </row>
+    <row r="319" spans="1:4" ht="33" thickBot="1">
+      <c r="A319" s="473" t="s">
+        <v>930</v>
+      </c>
+      <c r="B319" s="380"/>
+      <c r="C319" s="380"/>
+      <c r="D319" s="271"/>
+    </row>
+    <row r="320" spans="1:4">
+      <c r="A320" s="87" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" ht="12" thickBot="1"/>
+    <row r="323" spans="1:6" ht="18.75">
+      <c r="A323" s="474" t="s">
+        <v>932</v>
+      </c>
+      <c r="B323" s="378"/>
+      <c r="C323" s="378"/>
+      <c r="D323" s="267"/>
+    </row>
+    <row r="324" spans="1:6" ht="19.5" thickBot="1">
+      <c r="A324" s="475" t="s">
+        <v>933</v>
+      </c>
+      <c r="B324" s="380"/>
+      <c r="C324" s="380"/>
+      <c r="D324" s="271"/>
+    </row>
+    <row r="326" spans="1:6" ht="12" thickBot="1"/>
+    <row r="327" spans="1:6" ht="21">
+      <c r="A327" s="476" t="s">
+        <v>934</v>
+      </c>
+      <c r="B327" s="477"/>
+      <c r="C327" s="477" t="s">
+        <v>942</v>
+      </c>
+      <c r="D327" s="477"/>
+      <c r="E327" s="378"/>
+      <c r="F327" s="267"/>
+    </row>
+    <row r="328" spans="1:6" ht="21.75" thickBot="1">
+      <c r="A328" s="478" t="s">
+        <v>935</v>
+      </c>
+      <c r="B328" s="479"/>
+      <c r="C328" s="479"/>
+      <c r="D328" s="479"/>
+      <c r="E328" s="380"/>
+      <c r="F328" s="271"/>
+    </row>
+    <row r="330" spans="1:6" ht="17.25">
+      <c r="A330" s="10" t="s">
+        <v>943</v>
+      </c>
+      <c r="B330" s="10"/>
+      <c r="C330" s="10"/>
+    </row>
+    <row r="331" spans="1:6" ht="17.25">
+      <c r="A331" s="10"/>
+      <c r="B331" s="10"/>
+      <c r="C331" s="10"/>
+    </row>
+    <row r="332" spans="1:6" ht="17.25">
+      <c r="A332" s="10" t="s">
+        <v>941</v>
+      </c>
+      <c r="B332" s="10"/>
+      <c r="C332" s="10"/>
+    </row>
+    <row r="333" spans="1:6" ht="17.25">
+      <c r="A333" s="10"/>
+      <c r="B333" s="10"/>
+      <c r="C333" s="10"/>
+    </row>
+    <row r="334" spans="1:6" ht="17.25">
+      <c r="A334" s="10" t="s">
+        <v>944</v>
+      </c>
+      <c r="B334" s="10"/>
+      <c r="C334" s="10"/>
+    </row>
+    <row r="340" spans="1:7">
+      <c r="A340" s="278" t="s">
+        <v>936</v>
+      </c>
+      <c r="B340" s="279"/>
+      <c r="C340" s="279"/>
+      <c r="D340" s="279"/>
+      <c r="E340" s="279"/>
+      <c r="F340" s="279"/>
+      <c r="G340" s="280"/>
+    </row>
+    <row r="341" spans="1:7">
+      <c r="A341" s="281" t="s">
+        <v>938</v>
+      </c>
+      <c r="B341" s="282"/>
+      <c r="C341" s="282"/>
+      <c r="D341" s="282"/>
+      <c r="E341" s="282"/>
+      <c r="F341" s="282"/>
+      <c r="G341" s="283"/>
+    </row>
+    <row r="342" spans="1:7">
+      <c r="A342" s="281" t="s">
+        <v>937</v>
+      </c>
+      <c r="B342" s="282"/>
+      <c r="C342" s="282"/>
+      <c r="D342" s="282"/>
+      <c r="E342" s="282"/>
+      <c r="F342" s="282"/>
+      <c r="G342" s="283"/>
+    </row>
+    <row r="343" spans="1:7">
+      <c r="A343" s="281"/>
+      <c r="B343" s="282"/>
+      <c r="C343" s="282"/>
+      <c r="D343" s="282"/>
+      <c r="E343" s="282"/>
+      <c r="F343" s="282"/>
+      <c r="G343" s="283"/>
+    </row>
+    <row r="344" spans="1:7">
+      <c r="A344" s="281" t="s">
+        <v>940</v>
+      </c>
+      <c r="B344" s="282"/>
+      <c r="C344" s="282"/>
+      <c r="D344" s="282"/>
+      <c r="E344" s="282"/>
+      <c r="F344" s="282"/>
+      <c r="G344" s="283"/>
+    </row>
+    <row r="345" spans="1:7">
+      <c r="A345" s="281" t="s">
+        <v>939</v>
+      </c>
+      <c r="B345" s="282"/>
+      <c r="C345" s="282"/>
+      <c r="D345" s="282"/>
+      <c r="E345" s="282"/>
+      <c r="F345" s="282"/>
+      <c r="G345" s="283"/>
+    </row>
+    <row r="346" spans="1:7">
+      <c r="A346" s="284"/>
+      <c r="B346" s="285"/>
+      <c r="C346" s="285"/>
+      <c r="D346" s="285"/>
+      <c r="E346" s="285"/>
+      <c r="F346" s="285"/>
+      <c r="G346" s="286"/>
+    </row>
+    <row r="348" spans="1:7">
+      <c r="A348" s="483" t="s">
+        <v>945</v>
+      </c>
+      <c r="B348" s="482" t="s">
+        <v>946</v>
+      </c>
+      <c r="C348" s="482" t="s">
+        <v>917</v>
+      </c>
+      <c r="D348" s="482" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7">
+      <c r="A349" s="481">
+        <v>41180</v>
+      </c>
+      <c r="B349" s="207"/>
+      <c r="C349" s="207"/>
+      <c r="D349" s="207"/>
+    </row>
+    <row r="350" spans="1:7">
+      <c r="A350" s="481">
+        <v>41181</v>
+      </c>
+      <c r="B350" s="207">
+        <v>-0.21762999999999999</v>
+      </c>
+      <c r="C350" s="207">
+        <v>-1.67763</v>
+      </c>
+      <c r="D350" s="207">
+        <v>0.19342400000000001</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7">
+      <c r="A351" s="481">
+        <v>41182</v>
+      </c>
+      <c r="B351" s="207">
+        <v>1.199864</v>
+      </c>
+      <c r="C351" s="207">
+        <v>0.16728000000000001</v>
+      </c>
+      <c r="D351" s="207">
+        <v>0.19305</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7">
+      <c r="A352" s="481">
+        <v>41183</v>
+      </c>
+      <c r="B352" s="207">
+        <v>0.10775899999999999</v>
+      </c>
+      <c r="C352" s="207">
+        <v>0.36740099999999998</v>
+      </c>
+      <c r="D352" s="207">
+        <v>-0.19267999999999999</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4">
+      <c r="A353" s="481">
+        <v>41184</v>
+      </c>
+      <c r="B353" s="207">
+        <v>-0.75349999999999995</v>
+      </c>
+      <c r="C353" s="207">
+        <v>2.9950079999999999</v>
+      </c>
+      <c r="D353" s="207">
+        <v>1.351351</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4">
+      <c r="A354" s="481">
+        <v>41185</v>
+      </c>
+      <c r="B354" s="207">
+        <v>2.819957</v>
+      </c>
+      <c r="C354" s="207">
+        <v>-1.61551</v>
+      </c>
+      <c r="D354" s="207">
+        <v>-0.19048000000000001</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4">
+      <c r="A355" s="481">
+        <v>41186</v>
+      </c>
+      <c r="B355" s="207">
+        <v>-3.5865</v>
+      </c>
+      <c r="C355" s="207">
+        <v>-1.47783</v>
+      </c>
+      <c r="D355" s="207">
+        <v>-1.1450400000000001</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4">
+      <c r="A356" s="481">
+        <v>41187</v>
+      </c>
+      <c r="B356" s="207">
+        <v>-1.8599600000000001</v>
+      </c>
+      <c r="C356" s="207">
+        <v>-1.9</v>
+      </c>
+      <c r="D356" s="207">
+        <v>1.158301</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4">
+      <c r="A357" s="481">
+        <v>41188</v>
+      </c>
+      <c r="B357" s="207">
+        <v>-0.89185999999999999</v>
+      </c>
+      <c r="C357" s="207">
+        <v>-1.3591599999999999</v>
+      </c>
+      <c r="D357" s="207">
+        <v>2.099237</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
+      <c r="A358" s="481">
+        <v>41189</v>
+      </c>
+      <c r="B358" s="207">
+        <v>2.1372330000000002</v>
+      </c>
+      <c r="C358" s="207">
+        <v>1.0678609999999999</v>
+      </c>
+      <c r="D358" s="207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4">
+      <c r="A359" s="481">
+        <v>41190</v>
+      </c>
+      <c r="B359" s="207">
+        <v>0.77092499999999997</v>
+      </c>
+      <c r="C359" s="207">
+        <v>2.0790730000000002</v>
+      </c>
+      <c r="D359" s="207">
+        <v>0.186916</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4">
+      <c r="A360" s="480"/>
+    </row>
+    <row r="361" spans="1:4">
+      <c r="A361" s="480" t="s">
+        <v>947</v>
+      </c>
+      <c r="B361" s="482" t="s">
+        <v>946</v>
+      </c>
+      <c r="C361" s="482" t="s">
+        <v>917</v>
+      </c>
+      <c r="D361" s="482" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
+      <c r="A362" s="480"/>
+      <c r="B362" s="207">
+        <v>0.3</v>
+      </c>
+      <c r="C362" s="207">
+        <v>0.5</v>
+      </c>
+      <c r="D362" s="207">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4">
+      <c r="A363" s="480"/>
+      <c r="B363" s="242"/>
+      <c r="C363" s="242"/>
+      <c r="D363" s="242"/>
+    </row>
+    <row r="364" spans="1:4">
+      <c r="A364" s="480" t="s">
+        <v>956</v>
+      </c>
+      <c r="B364" s="482" t="s">
+        <v>946</v>
+      </c>
+      <c r="C364" s="482" t="s">
+        <v>917</v>
+      </c>
+      <c r="D364" s="482" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4">
+      <c r="A365" s="480"/>
+      <c r="B365" s="209">
+        <f>AVERAGE(B350:B359)</f>
+        <v>-2.7371199999999984E-2</v>
+      </c>
+      <c r="C365" s="209">
+        <f>AVERAGE(C350:C359)</f>
+        <v>-0.13535069999999996</v>
+      </c>
+      <c r="D365" s="209">
+        <f>AVERAGE(D350:D359)</f>
+        <v>0.36540790000000001</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4">
+      <c r="A366" s="480"/>
+    </row>
+    <row r="367" spans="1:4">
+      <c r="A367" s="480" t="s">
+        <v>952</v>
+      </c>
+      <c r="B367" s="487" t="s">
+        <v>953</v>
+      </c>
+      <c r="C367" s="487" t="s">
+        <v>954</v>
+      </c>
+      <c r="D367" s="487" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
+      <c r="B368" s="209">
+        <f>CORREL(B349:B359,C349:C359)</f>
+        <v>0.25807258767130553</v>
+      </c>
+      <c r="C368" s="209">
+        <f>CORREL(C349:C359,D349:D359)</f>
+        <v>0.10381981561692505</v>
+      </c>
+      <c r="D368" s="209">
+        <f>CORREL(D349:D359,B349:B359)</f>
+        <v>-6.7231251424815675E-2</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5">
+      <c r="A369" s="480"/>
+    </row>
+    <row r="370" spans="1:5">
+      <c r="A370" s="480" t="s">
+        <v>948</v>
+      </c>
+      <c r="B370" s="482" t="s">
+        <v>946</v>
+      </c>
+      <c r="C370" s="482" t="s">
+        <v>917</v>
+      </c>
+      <c r="D370" s="482" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5">
+      <c r="A371" s="482" t="s">
+        <v>946</v>
+      </c>
+      <c r="B371" s="209">
+        <f>VARP(B349:B359)</f>
+        <v>3.22910143065456</v>
+      </c>
+      <c r="C371" s="485">
+        <f>COVAR(B349:B359,C349:C359)</f>
+        <v>0.76873711130486</v>
+      </c>
+      <c r="D371" s="485">
+        <f>COVAR(B349:B359,D349:D359)</f>
+        <v>-0.10624308462552004</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5">
+      <c r="A372" s="482" t="s">
+        <v>917</v>
+      </c>
+      <c r="B372" s="207">
+        <f>COVAR(C349:C359,B349:B359)</f>
+        <v>0.76873711130486</v>
+      </c>
+      <c r="C372" s="209">
+        <f>VARP(C349:C359)</f>
+        <v>2.7478324939510101</v>
+      </c>
+      <c r="D372" s="485">
+        <f>COVAR(C349:C359,D349:D359)</f>
+        <v>0.15134358364613001</v>
+      </c>
+      <c r="E372" s="486" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5">
+      <c r="A373" s="482" t="s">
+        <v>918</v>
+      </c>
+      <c r="B373" s="207">
+        <f>COVAR(D349:D359,B349:B359)</f>
+        <v>-0.10624308462552004</v>
+      </c>
+      <c r="C373" s="207">
+        <f>COVAR(D349:D359,C349:C359)</f>
+        <v>0.15134358364613001</v>
+      </c>
+      <c r="D373" s="209">
+        <f>VARP(D349:D359)</f>
+        <v>0.77335209318789</v>
+      </c>
+      <c r="E373" s="484" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" ht="12" thickBot="1">
+      <c r="A374" s="480"/>
+    </row>
+    <row r="375" spans="1:5" ht="12" thickBot="1">
+      <c r="A375" s="480" t="s">
+        <v>957</v>
+      </c>
+      <c r="B375" s="488">
+        <f>B362*B365 + C362*C365 + D362*D365</f>
+        <v>-2.8051299999999751E-3</v>
+      </c>
+      <c r="C375" s="87" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" ht="12" thickBot="1">
+      <c r="A376" s="480"/>
+    </row>
+    <row r="377" spans="1:5" ht="12" thickBot="1">
+      <c r="A377" s="480" t="s">
+        <v>949</v>
+      </c>
+      <c r="B377" s="488">
+        <f>B362^2*B371^2 + C362^2*C372^2 + D362^2*D373^2 + 2*B362*C362*C371 + 2*C362*D362*D372 + 2*D362*B362*D371</f>
+        <v>3.098148116521382</v>
+      </c>
+      <c r="C377" s="87" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" ht="12" thickBot="1">
+      <c r="A378" s="480"/>
+    </row>
+    <row r="379" spans="1:5" ht="12" thickBot="1">
+      <c r="A379" s="480" t="s">
+        <v>958</v>
+      </c>
+      <c r="B379" s="488">
+        <f>B377^0.5</f>
+        <v>1.7601557080330654</v>
+      </c>
+      <c r="C379" s="87" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" ht="12" thickBot="1">
+      <c r="A380" s="480"/>
+    </row>
+    <row r="381" spans="1:5" ht="12" thickBot="1">
+      <c r="A381" s="480" t="s">
+        <v>959</v>
+      </c>
+      <c r="B381" s="488">
+        <f>-2.33 * B379</f>
+        <v>-4.1011627997170423</v>
+      </c>
+      <c r="C381" s="87" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" ht="12" thickBot="1">
+      <c r="A382" s="480"/>
+    </row>
+    <row r="383" spans="1:5" ht="12" thickBot="1">
+      <c r="A383" s="480" t="s">
+        <v>960</v>
+      </c>
+      <c r="B383" s="489">
+        <f>1000 * B381 / 100</f>
+        <v>-41.011627997170429</v>
+      </c>
+      <c r="C383" s="490" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5">
+      <c r="A384" s="480"/>
+      <c r="B384" s="87" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1">
+      <c r="A385" s="480"/>
+    </row>
+    <row r="386" spans="1:1">
+      <c r="A386" s="480"/>
+    </row>
+    <row r="387" spans="1:1">
+      <c r="A387" s="480"/>
+    </row>
+    <row r="388" spans="1:1">
+      <c r="A388" s="480"/>
+    </row>
+    <row r="389" spans="1:1">
+      <c r="A389" s="480"/>
+    </row>
+    <row r="390" spans="1:1">
+      <c r="A390" s="480"/>
+    </row>
+    <row r="391" spans="1:1">
+      <c r="A391" s="480"/>
+    </row>
+    <row r="392" spans="1:1">
+      <c r="A392" s="480"/>
+    </row>
+    <row r="393" spans="1:1">
+      <c r="A393" s="480"/>
+    </row>
+    <row r="394" spans="1:1">
+      <c r="A394" s="480"/>
+    </row>
+    <row r="395" spans="1:1">
+      <c r="A395" s="480"/>
+    </row>
+    <row r="396" spans="1:1">
+      <c r="A396" s="480"/>
+    </row>
+    <row r="397" spans="1:1">
+      <c r="A397" s="480"/>
+    </row>
+    <row r="398" spans="1:1">
+      <c r="A398" s="480"/>
+    </row>
+    <row r="399" spans="1:1">
+      <c r="A399" s="480"/>
+    </row>
+    <row r="400" spans="1:1">
+      <c r="A400" s="480"/>
+    </row>
+    <row r="401" spans="1:1">
+      <c r="A401" s="480"/>
+    </row>
+  </sheetData>
+  <sortState ref="F132:F151">
+    <sortCondition ref="F132:F151"/>
+  </sortState>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
@@ -18422,7 +25795,7 @@
         <v>4</v>
       </c>
       <c r="D187" s="373">
-        <f t="shared" ref="D186:D191" si="5">( (100/A187) ^ ( 1/(C187*B187) )  - 1 ) * C187</f>
+        <f t="shared" ref="D187:D191" si="5">( (100/A187) ^ ( 1/(C187*B187) )  - 1 ) * C187</f>
         <v>4.9941236707820025E-3</v>
       </c>
       <c r="E187" s="99" t="s">
@@ -18781,7 +26154,7 @@
         <v>2</v>
       </c>
       <c r="D215" s="26">
-        <f t="shared" ref="D214:D219" si="6">( (100/A215) ^ ( 1/(C215*B215) )  - 1 ) * C215</f>
+        <f t="shared" ref="D215:D219" si="6">( (100/A215) ^ ( 1/(C215*B215) )  - 1 ) * C215</f>
         <v>4.997241329686819E-3</v>
       </c>
       <c r="E215" s="99" t="s">
@@ -19563,7 +26936,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
@@ -20987,11 +28360,11 @@
         <v>1</v>
       </c>
       <c r="E139" s="239">
-        <f>B139 * (C139/200) * C130</f>
+        <f t="shared" ref="E139:E144" si="3">B139 * (C139/200) * C130</f>
         <v>0.67821063646487978</v>
       </c>
       <c r="F139" s="239">
-        <f>B139 * ( D139/200) * C130</f>
+        <f t="shared" ref="F139:F144" si="4">B139 * ( D139/200) * C130</f>
         <v>0.48632887475275527</v>
       </c>
     </row>
@@ -21009,11 +28382,11 @@
         <v>1</v>
       </c>
       <c r="E140" s="239">
-        <f>B140 * (C140/200) * C131</f>
+        <f t="shared" si="3"/>
         <v>0.74191935473729897</v>
       </c>
       <c r="F140" s="239">
-        <f>B140 * ( D140/200) * C131</f>
+        <f t="shared" si="4"/>
         <v>0.48261927797906873</v>
       </c>
     </row>
@@ -21031,11 +28404,11 @@
         <v>1</v>
       </c>
       <c r="E141" s="239">
-        <f>B141 * (C141/200) * C132</f>
+        <f t="shared" si="3"/>
         <v>0.7363871851403061</v>
       </c>
       <c r="F141" s="239">
-        <f>B141 * ( D141/200) * C132</f>
+        <f t="shared" si="4"/>
         <v>0.47893734205336724</v>
       </c>
     </row>
@@ -21053,11 +28426,11 @@
         <v>1</v>
       </c>
       <c r="E142" s="239">
-        <f>B142 * (C142/200) * C133</f>
+        <f t="shared" si="3"/>
         <v>0.77929344132120659</v>
       </c>
       <c r="F142" s="239">
-        <f>B142 * ( D142/200) * C133</f>
+        <f t="shared" si="4"/>
         <v>0.47504087484676122</v>
       </c>
     </row>
@@ -21075,11 +28448,11 @@
         <v>1</v>
       </c>
       <c r="E143" s="239">
-        <f>B143 * (C143/200) * C134</f>
+        <f t="shared" si="3"/>
         <v>0.84304472615895309</v>
       </c>
       <c r="F143" s="239">
-        <f>B143 * ( D143/200) * C134</f>
+        <f t="shared" si="4"/>
         <v>0.47082565121596642</v>
       </c>
     </row>
@@ -21097,11 +28470,11 @@
         <v>1</v>
       </c>
       <c r="E144" s="239">
-        <f>B144 * (C144/200) * C135</f>
+        <f t="shared" si="3"/>
         <v>0.88865936520453392</v>
       </c>
       <c r="F144" s="239">
-        <f>B144 * ( D144/200) * C135</f>
+        <f t="shared" si="4"/>
         <v>0.46638235438994374</v>
       </c>
     </row>
@@ -22240,14 +29613,14 @@
         <v>0.70972222222222214</v>
       </c>
       <c r="F316" s="364">
-        <f>B316 * (E316/200) * D316</f>
+        <f t="shared" ref="F316:F321" si="5">B316 * (E316/200) * D316</f>
         <v>0.35360629986644615</v>
       </c>
       <c r="G316" s="88">
         <v>1.6</v>
       </c>
       <c r="H316" s="364">
-        <f>B316 * (G316/200) * D316</f>
+        <f t="shared" ref="H316:H321" si="6">B316 * (G316/200) * D316</f>
         <v>0.7971711496010685</v>
       </c>
     </row>
@@ -22270,14 +29643,14 @@
         <v>1.0913160437361125</v>
       </c>
       <c r="F317" s="364">
-        <f>B317 * (E317/200) * D317</f>
+        <f t="shared" si="5"/>
         <v>0.54077774358863584</v>
       </c>
       <c r="G317" s="88">
         <v>1.6</v>
       </c>
       <c r="H317" s="364">
-        <f>B317 * (G317/200) * D317</f>
+        <f t="shared" si="6"/>
         <v>0.79284492765235948</v>
       </c>
     </row>
@@ -22300,14 +29673,14 @@
         <v>1.504107738805871</v>
       </c>
       <c r="F318" s="364">
-        <f>B318 * (E318/200) * D318</f>
+        <f t="shared" si="5"/>
         <v>0.73976419434875207</v>
       </c>
       <c r="G318" s="88">
         <v>1.6</v>
       </c>
       <c r="H318" s="364">
-        <f>B318 * (G318/200) * D318</f>
+        <f t="shared" si="6"/>
         <v>0.78692681409756959</v>
       </c>
     </row>
@@ -22330,14 +29703,14 @@
         <v>1.9098765949617569</v>
       </c>
       <c r="F319" s="364">
-        <f>B319 * (E319/200) * D319</f>
+        <f t="shared" si="5"/>
         <v>0.93044798596436762</v>
       </c>
       <c r="G319" s="88">
         <v>1.6</v>
       </c>
       <c r="H319" s="364">
-        <f>B319 * (G319/200) * D319</f>
+        <f t="shared" si="6"/>
         <v>0.77948323020985455</v>
       </c>
     </row>
@@ -22360,14 +29733,14 @@
         <v>2.0636749037368673</v>
       </c>
       <c r="F320" s="364">
-        <f>B320 * (E320/200) * D320</f>
+        <f t="shared" si="5"/>
         <v>0.99510709980044709</v>
       </c>
       <c r="G320" s="88">
         <v>1.6</v>
       </c>
       <c r="H320" s="364">
-        <f>B320 * (G320/200) * D320</f>
+        <f t="shared" si="6"/>
         <v>0.77152237341145091</v>
       </c>
     </row>
@@ -22390,14 +29763,14 @@
         <v>2.372734894196471</v>
       </c>
       <c r="F321" s="364">
-        <f>B321 * (E321/200) * D321</f>
+        <f t="shared" si="5"/>
         <v>1.1307217706499</v>
       </c>
       <c r="G321" s="88">
         <v>1.6</v>
       </c>
       <c r="H321" s="364">
-        <f>B321 * (G321/200) * D321</f>
+        <f t="shared" si="6"/>
         <v>0.76247659924625166</v>
       </c>
     </row>
@@ -26474,7 +33847,725 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="8" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:N89"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="54" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="42">
+      <c r="A1" s="377" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="9" t="s">
+        <v>762</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="8">
+        <v>10000</v>
+      </c>
+      <c r="B8" s="406">
+        <v>0.01</v>
+      </c>
+      <c r="D8" s="67" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="8">
+        <v>5000</v>
+      </c>
+      <c r="B9" s="406">
+        <v>0.03</v>
+      </c>
+      <c r="D9" s="407">
+        <f>A8*B8 + A9*B9 + A10*B10 + A11*B11 + A12*B12</f>
+        <v>500</v>
+      </c>
+      <c r="E9" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="8">
+        <v>1000</v>
+      </c>
+      <c r="B10" s="406">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="8">
+        <v>500</v>
+      </c>
+      <c r="B11" s="406">
+        <v>0.3</v>
+      </c>
+      <c r="D11" s="67" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="8">
+        <v>0</v>
+      </c>
+      <c r="B12" s="406">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D12" s="407">
+        <f>(A8-D9)^2*B8 + (A9-D9)^2*B9 + (A10-D9)^2*B10 + (A11-D9)^2*B11 + (A12-D9)^2*B12</f>
+        <v>1675000</v>
+      </c>
+      <c r="E12" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="D14" s="67" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="D15" s="408">
+        <f>D12^0.5</f>
+        <v>1294.2179105544785</v>
+      </c>
+      <c r="E15" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="418" t="s">
+        <v>707</v>
+      </c>
+      <c r="B22" s="409" t="s">
+        <v>769</v>
+      </c>
+      <c r="C22" s="410"/>
+      <c r="D22" s="410"/>
+      <c r="E22" s="411"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="418" t="s">
+        <v>708</v>
+      </c>
+      <c r="B23" s="412" t="s">
+        <v>770</v>
+      </c>
+      <c r="C23" s="413"/>
+      <c r="D23" s="413"/>
+      <c r="E23" s="414"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="418" t="s">
+        <v>709</v>
+      </c>
+      <c r="B24" s="415" t="s">
+        <v>771</v>
+      </c>
+      <c r="C24" s="416"/>
+      <c r="D24" s="416"/>
+      <c r="E24" s="417"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9" t="s">
+        <v>707</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="8" t="s">
+        <v>773</v>
+      </c>
+      <c r="B29" s="8">
+        <v>1</v>
+      </c>
+      <c r="C29" s="8">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="8" t="s">
+        <v>774</v>
+      </c>
+      <c r="B30" s="8">
+        <v>2</v>
+      </c>
+      <c r="C30" s="8">
+        <v>5</v>
+      </c>
+      <c r="E30" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>775</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>722</v>
+      </c>
+      <c r="E33" s="25" t="s">
+        <v>744</v>
+      </c>
+      <c r="F33" s="25" t="s">
+        <v>745</v>
+      </c>
+      <c r="G33" s="25" t="s">
+        <v>746</v>
+      </c>
+      <c r="H33" s="234" t="s">
+        <v>747</v>
+      </c>
+      <c r="I33" s="234" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="87" t="s">
+        <v>778</v>
+      </c>
+      <c r="C34" s="66" t="s">
+        <v>776</v>
+      </c>
+      <c r="D34" s="88">
+        <v>4.25</v>
+      </c>
+      <c r="E34" s="88">
+        <v>1</v>
+      </c>
+      <c r="F34" s="88">
+        <v>1</v>
+      </c>
+      <c r="G34" s="88">
+        <v>2.5</v>
+      </c>
+      <c r="H34" s="88">
+        <f>(D34-F34)/G34</f>
+        <v>1.3</v>
+      </c>
+      <c r="I34" s="88">
+        <f>NORMSDIST(H34 * E34 )</f>
+        <v>0.9031995154143897</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="C35" s="66" t="s">
+        <v>777</v>
+      </c>
+      <c r="D35" s="234">
+        <f>F35 + H35*G35</f>
+        <v>8.5</v>
+      </c>
+      <c r="E35" s="88">
+        <v>1</v>
+      </c>
+      <c r="F35" s="88">
+        <v>2</v>
+      </c>
+      <c r="G35" s="88">
+        <v>5</v>
+      </c>
+      <c r="H35" s="88">
+        <v>1.3</v>
+      </c>
+      <c r="I35" s="88">
+        <f>NORMSDIST(H35 * E35 )</f>
+        <v>0.9031995154143897</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>780</v>
+      </c>
+      <c r="C36" s="66" t="s">
+        <v>781</v>
+      </c>
+      <c r="D36" s="88">
+        <v>-1.25</v>
+      </c>
+      <c r="E36" s="88">
+        <v>-1</v>
+      </c>
+      <c r="F36" s="88">
+        <v>1</v>
+      </c>
+      <c r="G36" s="88">
+        <v>2.5</v>
+      </c>
+      <c r="H36" s="88">
+        <f>(D36-F36)/G36</f>
+        <v>-0.9</v>
+      </c>
+      <c r="I36" s="88">
+        <f>NORMSDIST(H36 * E36 )</f>
+        <v>0.81593987465324047</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="87" t="s">
+        <v>778</v>
+      </c>
+      <c r="C37" s="66" t="s">
+        <v>782</v>
+      </c>
+      <c r="D37" s="234">
+        <f>F37 + H37*G37</f>
+        <v>-2.5</v>
+      </c>
+      <c r="E37" s="88">
+        <v>-1</v>
+      </c>
+      <c r="F37" s="88">
+        <v>2</v>
+      </c>
+      <c r="G37" s="88">
+        <v>5</v>
+      </c>
+      <c r="H37" s="88">
+        <v>-0.9</v>
+      </c>
+      <c r="I37" s="88">
+        <f>NORMSDIST(H37 * E37 )</f>
+        <v>0.81593987465324047</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="419" customFormat="1"/>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="9"/>
+      <c r="B48" s="9" t="s">
+        <v>773</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="8" t="s">
+        <v>707</v>
+      </c>
+      <c r="B49" s="8">
+        <v>1.8</v>
+      </c>
+      <c r="C49" s="8">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="8" t="s">
+        <v>709</v>
+      </c>
+      <c r="B50" s="8">
+        <v>2.8</v>
+      </c>
+      <c r="C50" s="8">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>787</v>
+      </c>
+      <c r="D56">
+        <f>3 + 3*1.8</f>
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>788</v>
+      </c>
+      <c r="D57">
+        <f>(3^2) * (2.8^2)</f>
+        <v>70.559999999999988</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>789</v>
+      </c>
+      <c r="D59">
+        <f>2*B49 + 3*C49</f>
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="D66" s="25" t="s">
+        <v>722</v>
+      </c>
+      <c r="E66" s="25" t="s">
+        <v>744</v>
+      </c>
+      <c r="F66" s="25" t="s">
+        <v>745</v>
+      </c>
+      <c r="G66" s="25" t="s">
+        <v>746</v>
+      </c>
+      <c r="H66" s="234" t="s">
+        <v>747</v>
+      </c>
+      <c r="I66" s="234" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="399" t="s">
+        <v>791</v>
+      </c>
+      <c r="B67" s="233"/>
+      <c r="D67" s="88">
+        <v>1.8</v>
+      </c>
+      <c r="E67" s="88">
+        <v>1</v>
+      </c>
+      <c r="F67" s="88">
+        <v>1</v>
+      </c>
+      <c r="G67" s="88">
+        <v>1.2</v>
+      </c>
+      <c r="H67" s="88">
+        <f>(D67-F67)/G67</f>
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="I67" s="420">
+        <f>NORMSDIST(H67 * E67 )</f>
+        <v>0.7475074624530772</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="399" t="s">
+        <v>792</v>
+      </c>
+      <c r="B68" s="233"/>
+      <c r="D68" s="88">
+        <v>2.5</v>
+      </c>
+      <c r="E68" s="88">
+        <v>1</v>
+      </c>
+      <c r="F68" s="88">
+        <v>0.5</v>
+      </c>
+      <c r="G68" s="88">
+        <v>3</v>
+      </c>
+      <c r="H68" s="88">
+        <f>(D68-F68)/G68</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I68" s="420">
+        <f>NORMSDIST(H68 * E68 )</f>
+        <v>0.74750746245307709</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="399" t="s">
+        <v>793</v>
+      </c>
+      <c r="B69" s="233"/>
+      <c r="D69" s="88">
+        <v>-1.5</v>
+      </c>
+      <c r="E69" s="88">
+        <v>1</v>
+      </c>
+      <c r="F69" s="88">
+        <v>-0.5</v>
+      </c>
+      <c r="G69" s="88">
+        <v>1.5</v>
+      </c>
+      <c r="H69" s="88">
+        <f>(D69-F69)/G69</f>
+        <v>-0.66666666666666663</v>
+      </c>
+      <c r="I69" s="276">
+        <f>NORMSDIST(H69 * E69 )</f>
+        <v>0.25249253754692291</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="399" t="s">
+        <v>794</v>
+      </c>
+      <c r="B70" s="233"/>
+      <c r="D70" s="88">
+        <v>-3</v>
+      </c>
+      <c r="E70" s="88">
+        <v>-1</v>
+      </c>
+      <c r="F70" s="88">
+        <v>1</v>
+      </c>
+      <c r="G70" s="88">
+        <v>6</v>
+      </c>
+      <c r="H70" s="88">
+        <f>(D70-F70)/G70</f>
+        <v>-0.66666666666666663</v>
+      </c>
+      <c r="I70" s="420">
+        <f>NORMSDIST(H70 * E70 )</f>
+        <v>0.74750746245307709</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="14.25" thickBot="1">
+      <c r="A71" s="233"/>
+      <c r="B71" s="233"/>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="400" t="s">
+        <v>753</v>
+      </c>
+      <c r="B72" s="401"/>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="402" t="s">
+        <v>754</v>
+      </c>
+      <c r="B73" s="403"/>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="402"/>
+      <c r="B74" s="403"/>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="402" t="s">
+        <v>755</v>
+      </c>
+      <c r="B75" s="403" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="14.25" thickBot="1">
+      <c r="A76" s="404" t="s">
+        <v>756</v>
+      </c>
+      <c r="B76" s="405" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="233"/>
+      <c r="B77" s="233"/>
+    </row>
+    <row r="81" spans="1:14" s="87" customFormat="1" ht="11.25">
+      <c r="A81" s="87" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" s="87" customFormat="1" ht="11.25">
+      <c r="A82" s="278" t="s">
+        <v>896</v>
+      </c>
+      <c r="B82" s="280"/>
+    </row>
+    <row r="83" spans="1:14" s="87" customFormat="1" ht="11.25">
+      <c r="A83" s="281" t="s">
+        <v>912</v>
+      </c>
+      <c r="B83" s="283"/>
+    </row>
+    <row r="84" spans="1:14" s="87" customFormat="1" ht="11.25"/>
+    <row r="85" spans="1:14" s="87" customFormat="1" ht="14.25">
+      <c r="B85" s="453" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" s="87" customFormat="1" ht="12" thickBot="1">
+      <c r="B86" s="25" t="s">
+        <v>900</v>
+      </c>
+      <c r="C86" s="25" t="s">
+        <v>901</v>
+      </c>
+      <c r="D86" s="25" t="s">
+        <v>903</v>
+      </c>
+      <c r="E86" s="464" t="s">
+        <v>905</v>
+      </c>
+      <c r="F86" s="454" t="s">
+        <v>904</v>
+      </c>
+      <c r="G86" s="454" t="s">
+        <v>908</v>
+      </c>
+      <c r="H86" s="466" t="s">
+        <v>864</v>
+      </c>
+      <c r="I86" s="466" t="s">
+        <v>910</v>
+      </c>
+      <c r="J86" s="455" t="s">
+        <v>876</v>
+      </c>
+      <c r="K86" s="455" t="s">
+        <v>911</v>
+      </c>
+      <c r="L86" s="455" t="s">
+        <v>902</v>
+      </c>
+      <c r="M86" s="234" t="s">
+        <v>888</v>
+      </c>
+      <c r="N86" s="234" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" s="87" customFormat="1" ht="12" thickBot="1">
+      <c r="B87" s="88">
+        <v>3</v>
+      </c>
+      <c r="C87" s="91">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="D87" s="462">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E87" s="467">
+        <f xml:space="preserve"> 100 / ( ( 1 + C87 ) ^ B87 )</f>
+        <v>93.680092870097312</v>
+      </c>
+      <c r="F87" s="463">
+        <f xml:space="preserve"> 100 / ( ( 1 + C87 + D87) ^ B87 )</f>
+        <v>92.859941091974875</v>
+      </c>
+      <c r="G87" s="465">
+        <f>F87-E87</f>
+        <v>-0.82015177812243678</v>
+      </c>
+      <c r="H87" s="467">
+        <f xml:space="preserve"> ( - 1 * B87 * 100 ) / ( ( 1 + C87 ) ^ (B87 + 1))</f>
+        <v>-274.99048787699797</v>
+      </c>
+      <c r="I87" s="468">
+        <f>D87*H87</f>
+        <v>-0.82497146363099394</v>
+      </c>
+      <c r="J87" s="463">
+        <f xml:space="preserve"> (-1 * H87 ) / E87</f>
+        <v>2.9354207436399218</v>
+      </c>
+      <c r="K87" s="461">
+        <f>-1 * D87 * J87</f>
+        <v>-8.8062622309197647E-3</v>
+      </c>
+      <c r="L87" s="276">
+        <f xml:space="preserve"> ( 1 + C87 ) * J87</f>
+        <v>3</v>
+      </c>
+      <c r="M87" s="276">
+        <f xml:space="preserve"> ( B87 * (B87+1) * 100 ) / ( ( 1 + C87 ) ^ (B87+2) )</f>
+        <v>1076.2837098904031</v>
+      </c>
+      <c r="N87" s="457">
+        <f>D87 * H87  +  (1/2) * (D87^2) * M87</f>
+        <v>-0.82012818693648715</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" s="87" customFormat="1" ht="11.25"/>
+    <row r="89" spans="1:14" s="87" customFormat="1" ht="11.25"/>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -27133,7 +35224,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -28661,7 +36752,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -29120,1015 +37211,4 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <dimension ref="A1:I95"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D99" sqref="D99"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="19" width="16.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="24">
-      <c r="A1" s="40" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="B2" s="42" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="B3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="B5" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="B6" s="14">
-        <v>100000000</v>
-      </c>
-      <c r="C6" s="28">
-        <v>7.7999999999999996E-3</v>
-      </c>
-      <c r="D6" s="7">
-        <f>150/365</f>
-        <v>0.41095890410958902</v>
-      </c>
-      <c r="E6" s="7">
-        <v>150</v>
-      </c>
-      <c r="F6" s="14">
-        <f>B6 * ( (1+C6/E6)^(D6*E6) )</f>
-        <v>100321053.88880028</v>
-      </c>
-      <c r="G6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="B7" s="14">
-        <v>100000000</v>
-      </c>
-      <c r="C7" s="28">
-        <v>7.7999999999999996E-3</v>
-      </c>
-      <c r="D7" s="7">
-        <f>150/365</f>
-        <v>0.41095890410958902</v>
-      </c>
-      <c r="E7" s="7">
-        <f>24*3600*150</f>
-        <v>12960000</v>
-      </c>
-      <c r="F7" s="14">
-        <f>B7 * ( (1+C7/E7)^(D7*E7) )</f>
-        <v>100321062.2760258</v>
-      </c>
-      <c r="G7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="B8" s="14"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="B11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="B13" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="B14" s="14">
-        <v>100000000</v>
-      </c>
-      <c r="C14" s="28">
-        <v>7.7999999999999996E-3</v>
-      </c>
-      <c r="D14" s="7">
-        <f>150/365</f>
-        <v>0.41095890410958902</v>
-      </c>
-      <c r="E14" s="14">
-        <f>B14*EXP(C14*D14)</f>
-        <v>100321062.24951516</v>
-      </c>
-      <c r="F14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="B19" s="42" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="B20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="B21" t="s">
-        <v>91</v>
-      </c>
-      <c r="E21" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="B23" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="D23" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="20">
-        <v>98.97</v>
-      </c>
-      <c r="C24" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="D24" s="7">
-        <v>2</v>
-      </c>
-      <c r="E24" s="7">
-        <f t="shared" ref="E24:E35" si="0">C24*D24</f>
-        <v>3</v>
-      </c>
-      <c r="F24" s="44">
-        <f t="shared" ref="F24:F34" si="1">( ( 100 / B24 ) ^ ( 1/E24) - 1 ) * D24</f>
-        <v>6.9141987819838491E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="20">
-        <v>98.97</v>
-      </c>
-      <c r="C25" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="D25" s="7">
-        <v>4</v>
-      </c>
-      <c r="E25" s="7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="F25" s="43">
-        <f t="shared" si="1"/>
-        <v>6.9082333210319646E-3</v>
-      </c>
-      <c r="G25" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="20">
-        <v>98.97</v>
-      </c>
-      <c r="C26" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="D26" s="7">
-        <v>365</v>
-      </c>
-      <c r="E26" s="7">
-        <f t="shared" si="0"/>
-        <v>547.5</v>
-      </c>
-      <c r="F26" s="43">
-        <f t="shared" si="1"/>
-        <v>6.9023399822421005E-3</v>
-      </c>
-      <c r="G26" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="20">
-        <v>98.97</v>
-      </c>
-      <c r="C27" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="D27" s="7">
-        <f>24*3600*365</f>
-        <v>31536000</v>
-      </c>
-      <c r="E27" s="7">
-        <f t="shared" si="0"/>
-        <v>47304000</v>
-      </c>
-      <c r="F27" s="43">
-        <f t="shared" si="1"/>
-        <v>6.9022713624633525E-3</v>
-      </c>
-      <c r="G27" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="20">
-        <v>98.43</v>
-      </c>
-      <c r="C28" s="7">
-        <v>2</v>
-      </c>
-      <c r="D28" s="7">
-        <v>2</v>
-      </c>
-      <c r="E28" s="7">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F28" s="44">
-        <f t="shared" si="1"/>
-        <v>7.9279468577220236E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="20">
-        <v>98.43</v>
-      </c>
-      <c r="C29" s="7">
-        <v>2</v>
-      </c>
-      <c r="D29" s="7">
-        <v>4</v>
-      </c>
-      <c r="E29" s="7">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="F29" s="43">
-        <f t="shared" si="1"/>
-        <v>7.92010584814129E-3</v>
-      </c>
-      <c r="G29" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" s="20">
-        <v>98.43</v>
-      </c>
-      <c r="C30" s="7">
-        <v>2</v>
-      </c>
-      <c r="D30" s="7">
-        <v>365</v>
-      </c>
-      <c r="E30" s="7">
-        <f t="shared" si="0"/>
-        <v>730</v>
-      </c>
-      <c r="F30" s="43">
-        <f t="shared" si="1"/>
-        <v>7.9123609331721578E-3</v>
-      </c>
-      <c r="G30" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="20">
-        <v>98.43</v>
-      </c>
-      <c r="C31" s="7">
-        <v>2</v>
-      </c>
-      <c r="D31" s="7">
-        <f>24*3600*365</f>
-        <v>31536000</v>
-      </c>
-      <c r="E31" s="7">
-        <f t="shared" si="0"/>
-        <v>63072000</v>
-      </c>
-      <c r="F31" s="43">
-        <f t="shared" si="1"/>
-        <v>7.9122763381178629E-3</v>
-      </c>
-      <c r="G31" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" s="20">
-        <v>97.95</v>
-      </c>
-      <c r="C32" s="7">
-        <v>2.25</v>
-      </c>
-      <c r="D32" s="7">
-        <v>2</v>
-      </c>
-      <c r="E32" s="7">
-        <f t="shared" si="0"/>
-        <v>4.5</v>
-      </c>
-      <c r="F32" s="44">
-        <f t="shared" si="1"/>
-        <v>9.227015480932188E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" s="20">
-        <v>97.95</v>
-      </c>
-      <c r="C33" s="7">
-        <v>2.25</v>
-      </c>
-      <c r="D33" s="7">
-        <v>4</v>
-      </c>
-      <c r="E33" s="7">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="F33" s="43">
-        <f t="shared" si="1"/>
-        <v>9.2163977325361301E-3</v>
-      </c>
-      <c r="G33" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="20">
-        <v>97.95</v>
-      </c>
-      <c r="C34" s="7">
-        <v>2.25</v>
-      </c>
-      <c r="D34" s="7">
-        <v>365</v>
-      </c>
-      <c r="E34" s="7">
-        <f t="shared" si="0"/>
-        <v>821.25</v>
-      </c>
-      <c r="F34" s="43">
-        <f t="shared" si="1"/>
-        <v>9.2059123578758228E-3</v>
-      </c>
-      <c r="G34" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="20">
-        <v>97.95</v>
-      </c>
-      <c r="C35" s="7">
-        <v>2.25</v>
-      </c>
-      <c r="D35" s="7">
-        <f>24*3600*365</f>
-        <v>31536000</v>
-      </c>
-      <c r="E35" s="7">
-        <f t="shared" si="0"/>
-        <v>70956000</v>
-      </c>
-      <c r="F35" s="43">
-        <v>0.02</v>
-      </c>
-      <c r="G35" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="B37" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="B38" t="s">
-        <v>95</v>
-      </c>
-      <c r="D38" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="B40" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="C40" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" t="s">
-        <v>16</v>
-      </c>
-      <c r="B41" s="20">
-        <v>98.97</v>
-      </c>
-      <c r="C41" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="D41" s="43">
-        <f>(1/C41)*LN(100/B41)</f>
-        <v>6.9022747196611448E-3</v>
-      </c>
-      <c r="E41" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" t="s">
-        <v>16</v>
-      </c>
-      <c r="B42" s="20">
-        <v>98.43</v>
-      </c>
-      <c r="C42" s="7">
-        <v>2</v>
-      </c>
-      <c r="D42" s="43">
-        <f>(1/C42)*LN(100/B42)</f>
-        <v>7.9122751734856406E-3</v>
-      </c>
-      <c r="E42" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" t="s">
-        <v>16</v>
-      </c>
-      <c r="B43" s="20">
-        <v>97.95</v>
-      </c>
-      <c r="C43" s="7">
-        <v>2.25</v>
-      </c>
-      <c r="D43" s="43">
-        <f>(1/C43)*LN(100/B43)</f>
-        <v>9.2057962655740112E-3</v>
-      </c>
-      <c r="E43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="B47" s="42" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="B48" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="B49" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="B51" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="G51" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" t="s">
-        <v>8</v>
-      </c>
-      <c r="B52" s="45">
-        <v>6.9141999999999997E-3</v>
-      </c>
-      <c r="C52" s="7">
-        <v>3</v>
-      </c>
-      <c r="D52" s="45">
-        <v>7.9278999999999999E-3</v>
-      </c>
-      <c r="E52" s="7">
-        <v>4</v>
-      </c>
-      <c r="F52" s="7">
-        <v>2</v>
-      </c>
-      <c r="G52" s="46">
-        <f xml:space="preserve"> ( ( ( (1+D52/F52)^E52 ) / ( (1+B52/F52)^C52 ) )  - 1 ) * F52</f>
-        <v>1.0972073176996666E-2</v>
-      </c>
-      <c r="H52" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" t="s">
-        <v>104</v>
-      </c>
-      <c r="B53" s="45">
-        <v>6.9081999999999998E-3</v>
-      </c>
-      <c r="C53" s="7">
-        <v>6</v>
-      </c>
-      <c r="D53" s="45">
-        <v>7.9200999999999994E-3</v>
-      </c>
-      <c r="E53" s="7">
-        <v>8</v>
-      </c>
-      <c r="F53" s="7">
-        <v>4</v>
-      </c>
-      <c r="G53" s="46">
-        <f xml:space="preserve"> ( ( ( (1+D53/F53)^E53 ) / ( (1+B53/F53)^C53 ) ) ^ (1/2)  - 1 ) * F53</f>
-        <v>1.0957333522545909E-2</v>
-      </c>
-      <c r="H53" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" t="s">
-        <v>104</v>
-      </c>
-      <c r="B54" s="45">
-        <v>7.9200999999999994E-3</v>
-      </c>
-      <c r="C54" s="7">
-        <v>8</v>
-      </c>
-      <c r="D54" s="45">
-        <v>9.2163999999999996E-3</v>
-      </c>
-      <c r="E54" s="7">
-        <v>9</v>
-      </c>
-      <c r="F54" s="7">
-        <v>4</v>
-      </c>
-      <c r="G54" s="46">
-        <f xml:space="preserve"> ( ( ( (1+D54/F54)^E54 ) / ( (1+B54/F54)^C54 ) )  - 1 ) * F54</f>
-        <v>1.9601905053811208E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="B56" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="B57" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="B58" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F58" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="G58" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="B59" s="45">
-        <v>7.9200999999999994E-3</v>
-      </c>
-      <c r="C59" s="7">
-        <v>2</v>
-      </c>
-      <c r="D59" s="45">
-        <v>9.2163999999999996E-3</v>
-      </c>
-      <c r="E59" s="7">
-        <v>2.25</v>
-      </c>
-      <c r="F59" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="G59" s="46">
-        <f xml:space="preserve">  (D59*E59 - B59*C59) / F59</f>
-        <v>1.9586800000000001E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="B64" s="42" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="10.5" customHeight="1">
-      <c r="A65" s="47"/>
-      <c r="B65" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="B67" s="63" t="s">
-        <v>138</v>
-      </c>
-      <c r="C67" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="D67" s="63" t="s">
-        <v>195</v>
-      </c>
-      <c r="E67" s="51" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="B68" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C68" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="D68" s="11">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="E68" s="83">
-        <f t="shared" ref="E68:E70" si="2">100 /  ( (1+D68/2)^(2*C68) )</f>
-        <v>99.626400996264024</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="B69" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C69" s="8">
-        <v>1</v>
-      </c>
-      <c r="D69" s="11">
-        <v>8.8000000000000005E-3</v>
-      </c>
-      <c r="E69" s="83">
-        <f t="shared" si="2"/>
-        <v>99.125774112820366</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="B70" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C70" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="D70" s="11">
-        <v>1.0200000000000001E-2</v>
-      </c>
-      <c r="E70" s="83">
-        <f t="shared" si="2"/>
-        <v>98.485474356583538</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="B71" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C71" s="8">
-        <v>2</v>
-      </c>
-      <c r="D71" s="11">
-        <v>1.18E-2</v>
-      </c>
-      <c r="E71" s="83">
-        <f>100 /  ( (1+D71/2)^(2*C71) )</f>
-        <v>97.674403443391924</v>
-      </c>
-      <c r="F71" s="18" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="D72" s="73"/>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="B73" s="64" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="B74" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C74" s="2"/>
-      <c r="D74" s="3"/>
-    </row>
-    <row r="75" spans="1:9">
-      <c r="B75" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C75" s="5"/>
-      <c r="D75" s="6"/>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="B78" s="65" t="s">
-        <v>142</v>
-      </c>
-      <c r="G78" s="53"/>
-      <c r="H78" s="53"/>
-      <c r="I78" s="53"/>
-    </row>
-    <row r="79" spans="1:9">
-      <c r="B79" t="s">
-        <v>143</v>
-      </c>
-      <c r="C79" s="66"/>
-      <c r="E79" s="70">
-        <f>E68/100</f>
-        <v>0.9962640099626402</v>
-      </c>
-      <c r="G79" s="53"/>
-      <c r="H79" s="53"/>
-      <c r="I79" s="53"/>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="B80" t="s">
-        <v>202</v>
-      </c>
-      <c r="E80" s="70">
-        <f>E69/100</f>
-        <v>0.99125774112820364</v>
-      </c>
-      <c r="G80" s="53"/>
-      <c r="H80" s="53"/>
-      <c r="I80" s="53"/>
-    </row>
-    <row r="81" spans="2:9">
-      <c r="B81" t="s">
-        <v>203</v>
-      </c>
-      <c r="E81" s="70">
-        <f>E70/100</f>
-        <v>0.98485474356583536</v>
-      </c>
-      <c r="G81" s="53"/>
-      <c r="H81" s="53"/>
-      <c r="I81" s="53"/>
-    </row>
-    <row r="82" spans="2:9">
-      <c r="B82" t="s">
-        <v>204</v>
-      </c>
-      <c r="E82" s="70">
-        <f>E71/100</f>
-        <v>0.97674403443391922</v>
-      </c>
-      <c r="G82" s="53"/>
-      <c r="H82" s="53"/>
-      <c r="I82" s="53"/>
-    </row>
-    <row r="83" spans="2:9">
-      <c r="G83" s="53"/>
-      <c r="H83" s="84"/>
-      <c r="I83" s="53"/>
-    </row>
-    <row r="84" spans="2:9">
-      <c r="B84" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9">
-      <c r="B85" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="C85" s="7">
-        <f>B85*E79</f>
-        <v>0.59775840597758412</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9">
-      <c r="B86" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="C86" s="7">
-        <f t="shared" ref="C86:C88" si="3">B86*E80</f>
-        <v>0.59475464467692218</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9">
-      <c r="B87" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="C87" s="7">
-        <f t="shared" si="3"/>
-        <v>0.59091284613950124</v>
-      </c>
-      <c r="E87" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9">
-      <c r="B88" s="7">
-        <v>100.6</v>
-      </c>
-      <c r="C88" s="7">
-        <f t="shared" si="3"/>
-        <v>98.260449864052262</v>
-      </c>
-      <c r="E88">
-        <f>(C89-0.6*(E79+E80+E81) ) / 100.6</f>
-        <v>0.97674403443391922</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9">
-      <c r="C89" s="69">
-        <f>SUM(C85:C88)</f>
-        <v>100.04387576084628</v>
-      </c>
-      <c r="E89" s="18" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9">
-      <c r="B92" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C92" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D92" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E92" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="F92" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H92" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I92" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9">
-      <c r="B93" s="85">
-        <f>C89</f>
-        <v>100.04387576084628</v>
-      </c>
-      <c r="C93" s="11">
-        <v>1.2E-2</v>
-      </c>
-      <c r="D93" s="8">
-        <v>2</v>
-      </c>
-      <c r="E93" s="8">
-        <v>2</v>
-      </c>
-      <c r="F93" s="26">
-        <f>C93/E93</f>
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="H93" s="7">
-        <f>B93*(-1)</f>
-        <v>-100.04387576084628</v>
-      </c>
-      <c r="I93" s="86">
-        <f>IRR(H93:H95) * E93</f>
-        <v>1.155743555458022E-2</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9">
-      <c r="H94" s="7">
-        <f>100*F93</f>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9">
-      <c r="H95" s="7">
-        <f>100*F93 + 100</f>
-        <v>100.6</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/a1.xlsx
+++ b/a1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23025" windowHeight="10335" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23025" windowHeight="10335" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="債権数理式" sheetId="7" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2466" uniqueCount="1267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2535" uniqueCount="1296">
   <si>
     <t>複利計算式</t>
     <rPh sb="0" eb="2">
@@ -13459,6 +13459,225 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>これは以下のようにして導かれる。</t>
+  </si>
+  <si>
+    <r>
+      <t>調達および運用を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>年当たり</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>回の複利運用した場合、先の一般式は以下の形に書き換えられる。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>これを連続複利に拡張する、つまり</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を無限大とする極限をとると、</t>
+    </r>
+  </si>
+  <si>
+    <t>F: 理論先物価格</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CF: 変換係数</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>r:ファンディング・レート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>q:クーポン・レート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T:先物の満期までの期間</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参考ＵＲＬ　http://www.aksystem.jp/finance/ArbitrageTrading/ArbitrageTrading.htm</t>
+    <rPh sb="0" eb="2">
+      <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なお、ファイナンス理論では株式先物の理論価格を定義する場合に、はこの一般式を連続複利に拡張した式が用いられることが多い。</t>
+  </si>
+  <si>
+    <t>こうすると微分がしやすいだとか、何かと便利である。</t>
+  </si>
+  <si>
+    <t>F:           理論先物価格</t>
+  </si>
+  <si>
+    <t>S:           株式価格</t>
+  </si>
+  <si>
+    <t>r:           リスク・フリー・レート(これがこの株式のファンディング・レートに該当する)</t>
+  </si>
+  <si>
+    <t>q:           配当利回り (運用利回りに相当)</t>
+  </si>
+  <si>
+    <t>T:           先物の満期までの期間</t>
+  </si>
+  <si>
+    <t>CF = 1: 　先物がこの株式を原資産とする場合、変換係数は1のはず。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>      </t>
+  </si>
+  <si>
+    <t>  </t>
+  </si>
+  <si>
+    <t>債券先物理論価格の一般式</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ｆ　＝　Ｓ　×　e^rt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【解答】</t>
+    <rPh sb="1" eb="3">
+      <t>カイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>原資産の株価1000円</t>
+    <rPh sb="0" eb="3">
+      <t>ゲンシサン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カブカ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金利0.5%</t>
+    <rPh sb="0" eb="2">
+      <t>キンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期間0.5年</t>
+    <rPh sb="0" eb="2">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>債権の先物理論価格</t>
+    <rPh sb="0" eb="2">
+      <t>サイケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無裁定理論を用いて、フォワードの理論価格を求めると</t>
+    <rPh sb="0" eb="1">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>サイテイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>リロン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>リロン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">F = 1000　× e^ (0.5% * 0.5年) = </t>
+    <rPh sb="25" eb="26">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(答え）1002.503</t>
+    <rPh sb="1" eb="2">
+      <t>コタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -13494,7 +13713,7 @@
     <numFmt numFmtId="202" formatCode="0.00000000000000_);[Red]\(0.00000000000000\)"/>
     <numFmt numFmtId="203" formatCode="#,##0.00000_ "/>
   </numFmts>
-  <fonts count="81">
+  <fonts count="83">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -14162,6 +14381,19 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="28">
     <fill>
@@ -14801,7 +15033,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="574">
+  <cellXfs count="602">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -16522,6 +16754,90 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="183" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="192" fontId="16" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="24" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -16533,8 +16849,8 @@
   <colors>
     <mruColors>
       <color rgb="FF0000FF"/>
+      <color rgb="FF66FFFF"/>
       <color rgb="FFFFFF99"/>
-      <color rgb="FF66FFFF"/>
       <color rgb="FFCCFF99"/>
       <color rgb="FFCCFFFF"/>
       <color rgb="FFCC99FF"/>
@@ -22793,6 +23109,647 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線コネクタ 9"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2200275" y="51720750"/>
+          <a:ext cx="0" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線コネクタ 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2209800" y="52568475"/>
+          <a:ext cx="1428750" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線コネクタ 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2219325" y="51996975"/>
+          <a:ext cx="676275" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線コネクタ 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2905125" y="51996975"/>
+          <a:ext cx="571500" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線コネクタ 13"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1514475" y="54864000"/>
+          <a:ext cx="0" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線コネクタ 14"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1524000" y="55711725"/>
+          <a:ext cx="1428750" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線コネクタ 15"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1514475" y="55702200"/>
+          <a:ext cx="609600" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直線コネクタ 16"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2124075" y="17706976"/>
+          <a:ext cx="885825" cy="742949"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="図 25" descr="http://www.aksystem.jp/finance/ArbitrageTrading/ArbitrageTrading.files/image002.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19050" y="4629150"/>
+          <a:ext cx="1600200" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="図 26" descr="http://www.aksystem.jp/finance/ArbitrageTrading/ArbitrageTrading.files/image004.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="28575" y="6276975"/>
+          <a:ext cx="1501775" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="66FFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="図 27" descr="http://www.aksystem.jp/finance/ArbitrageTrading/ArbitrageTrading.files/image006.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8353425"/>
+          <a:ext cx="1419225" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="図 28" descr="http://www.aksystem.jp/finance/ArbitrageTrading/ArbitrageTrading.files/image008.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="9039225"/>
+          <a:ext cx="1562100" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>305</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>309</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直線コネクタ 35"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2124075" y="54968776"/>
+          <a:ext cx="885825" cy="742949"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -23088,8 +24045,8 @@
   </sheetPr>
   <dimension ref="A1:N209"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A156" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73:E76"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="A17:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -23209,13 +24166,21 @@
       <c r="I8" s="114"/>
     </row>
     <row r="9" spans="1:9" ht="13.5">
-      <c r="A9" s="105"/>
-      <c r="B9" s="106"/>
-      <c r="C9" s="107"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="116" t="e">
+      <c r="A9" s="105">
+        <v>1000</v>
+      </c>
+      <c r="B9" s="106">
+        <v>0.5</v>
+      </c>
+      <c r="C9" s="107">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D9" s="106">
+        <v>2</v>
+      </c>
+      <c r="E9" s="116">
         <f>A9 * ( (1+C9/D9)^(B9*D9) )</f>
-        <v>#DIV/0!</v>
+        <v>1002.5</v>
       </c>
       <c r="G9" s="114"/>
       <c r="H9" s="114"/>
@@ -23282,7 +24247,7 @@
       <c r="A17" s="105"/>
       <c r="B17" s="106"/>
       <c r="C17" s="107"/>
-      <c r="D17" s="116">
+      <c r="D17" s="574">
         <f>A17 * EXP(B17*C17)</f>
         <v>0</v>
       </c>
@@ -33897,8 +34862,8 @@
   </sheetPr>
   <dimension ref="A1:L568"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView showGridLines="0" topLeftCell="A503" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A313" sqref="A313:XFD355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -47839,16 +48804,22 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <sheetPr>
+    <tabColor theme="8" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:P113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G124" sqref="G124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" ht="28.5">
+      <c r="A1" s="47" t="s">
         <v>1260</v>
       </c>
     </row>
@@ -47904,13 +48875,13 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="255" customFormat="1" ht="11.25"/>
-    <row r="18" spans="1:5" s="255" customFormat="1" ht="11.25">
+    <row r="17" spans="1:16" s="255" customFormat="1" ht="11.25"/>
+    <row r="18" spans="1:16" s="255" customFormat="1" ht="11.25">
       <c r="E18" s="255" t="s">
         <v>1265</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:16">
       <c r="A20" s="7" t="s">
         <v>1264</v>
       </c>
@@ -47919,7 +48890,7 @@
         <v>0.98815841584158415</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:16">
       <c r="A21" s="7" t="s">
         <v>108</v>
       </c>
@@ -47928,20 +48899,786 @@
         <v>98.81584158415842</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:16">
       <c r="A23" s="7" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:16">
       <c r="A24" s="573">
         <f>1*0.996 + 101*B20</f>
         <v>100.8</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:16">
       <c r="A27" t="s">
         <v>1266</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="14.25" thickBot="1">
+      <c r="A28" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="36" customHeight="1">
+      <c r="A29" s="576" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B29" s="577"/>
+      <c r="C29" s="577"/>
+      <c r="D29" s="577"/>
+      <c r="E29" s="577"/>
+      <c r="F29" s="577"/>
+      <c r="G29" s="577"/>
+      <c r="H29" s="577"/>
+      <c r="I29" s="577"/>
+      <c r="J29" s="577"/>
+      <c r="K29" s="578"/>
+      <c r="L29" s="579"/>
+      <c r="M29" s="575"/>
+      <c r="N29" s="575"/>
+      <c r="O29" s="575"/>
+      <c r="P29" s="575"/>
+    </row>
+    <row r="30" spans="1:16" ht="13.5" customHeight="1">
+      <c r="A30" s="580" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B30" s="581"/>
+      <c r="C30" s="581"/>
+      <c r="D30" s="581"/>
+      <c r="E30" s="581"/>
+      <c r="F30" s="581"/>
+      <c r="G30" s="581"/>
+      <c r="H30" s="581"/>
+      <c r="I30" s="581"/>
+      <c r="J30" s="581"/>
+      <c r="K30" s="582"/>
+      <c r="L30" s="583"/>
+      <c r="M30" s="575"/>
+      <c r="N30" s="575"/>
+      <c r="O30" s="575"/>
+      <c r="P30" s="575"/>
+    </row>
+    <row r="31" spans="1:16" ht="13.5" customHeight="1">
+      <c r="A31" s="580" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B31" s="581"/>
+      <c r="C31" s="581"/>
+      <c r="D31" s="581"/>
+      <c r="E31" s="581"/>
+      <c r="F31" s="581"/>
+      <c r="G31" s="581"/>
+      <c r="H31" s="581"/>
+      <c r="I31" s="581"/>
+      <c r="J31" s="581"/>
+      <c r="K31" s="582"/>
+      <c r="L31" s="583"/>
+      <c r="M31" s="575"/>
+      <c r="N31" s="575"/>
+      <c r="O31" s="575"/>
+      <c r="P31" s="575"/>
+    </row>
+    <row r="32" spans="1:16" ht="13.5" customHeight="1">
+      <c r="A32" s="580" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B32" s="581"/>
+      <c r="C32" s="581"/>
+      <c r="D32" s="581"/>
+      <c r="E32" s="581"/>
+      <c r="F32" s="581"/>
+      <c r="G32" s="581"/>
+      <c r="H32" s="581"/>
+      <c r="I32" s="581"/>
+      <c r="J32" s="581"/>
+      <c r="K32" s="582"/>
+      <c r="L32" s="583"/>
+      <c r="M32" s="575"/>
+      <c r="N32" s="575"/>
+      <c r="O32" s="575"/>
+      <c r="P32" s="575"/>
+    </row>
+    <row r="33" spans="1:16" ht="13.5" customHeight="1">
+      <c r="A33" s="580" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B33" s="581"/>
+      <c r="C33" s="581"/>
+      <c r="D33" s="581"/>
+      <c r="E33" s="581"/>
+      <c r="F33" s="581"/>
+      <c r="G33" s="581"/>
+      <c r="H33" s="581"/>
+      <c r="I33" s="581"/>
+      <c r="J33" s="581"/>
+      <c r="K33" s="582"/>
+      <c r="L33" s="583"/>
+      <c r="M33" s="575"/>
+      <c r="N33" s="575"/>
+      <c r="O33" s="575"/>
+      <c r="P33" s="575"/>
+    </row>
+    <row r="34" spans="1:16" ht="13.5" customHeight="1">
+      <c r="A34" s="580" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B34" s="581"/>
+      <c r="C34" s="581"/>
+      <c r="D34" s="581"/>
+      <c r="E34" s="581"/>
+      <c r="F34" s="581"/>
+      <c r="G34" s="581"/>
+      <c r="H34" s="581"/>
+      <c r="I34" s="581"/>
+      <c r="J34" s="581"/>
+      <c r="K34" s="582"/>
+      <c r="L34" s="583"/>
+      <c r="M34" s="575"/>
+      <c r="N34" s="575"/>
+      <c r="O34" s="575"/>
+      <c r="P34" s="575"/>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" s="584"/>
+      <c r="B35" s="582"/>
+      <c r="C35" s="582"/>
+      <c r="D35" s="582"/>
+      <c r="E35" s="582"/>
+      <c r="F35" s="582"/>
+      <c r="G35" s="582"/>
+      <c r="H35" s="582"/>
+      <c r="I35" s="582"/>
+      <c r="J35" s="582"/>
+      <c r="K35" s="582"/>
+      <c r="L35" s="583"/>
+      <c r="M35" s="575"/>
+      <c r="N35" s="575"/>
+      <c r="O35" s="575"/>
+      <c r="P35" s="575"/>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" s="580" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B36" s="582"/>
+      <c r="C36" s="582"/>
+      <c r="D36" s="582"/>
+      <c r="E36" s="582"/>
+      <c r="F36" s="582"/>
+      <c r="G36" s="582"/>
+      <c r="H36" s="582"/>
+      <c r="I36" s="582"/>
+      <c r="J36" s="582"/>
+      <c r="K36" s="582"/>
+      <c r="L36" s="583"/>
+      <c r="M36" s="575"/>
+      <c r="N36" s="575"/>
+      <c r="O36" s="575"/>
+      <c r="P36" s="575"/>
+    </row>
+    <row r="37" spans="1:16" ht="17.25" customHeight="1">
+      <c r="A37" s="580" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B37" s="582"/>
+      <c r="C37" s="582"/>
+      <c r="D37" s="582"/>
+      <c r="E37" s="582"/>
+      <c r="F37" s="582"/>
+      <c r="G37" s="582"/>
+      <c r="H37" s="582"/>
+      <c r="I37" s="582"/>
+      <c r="J37" s="582"/>
+      <c r="K37" s="582"/>
+      <c r="L37" s="583"/>
+      <c r="M37" s="575"/>
+      <c r="N37" s="575"/>
+      <c r="O37" s="575"/>
+      <c r="P37" s="575"/>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" s="585"/>
+      <c r="B38" s="586"/>
+      <c r="C38" s="582"/>
+      <c r="D38" s="582"/>
+      <c r="E38" s="582"/>
+      <c r="F38" s="582"/>
+      <c r="G38" s="582"/>
+      <c r="H38" s="582"/>
+      <c r="I38" s="582"/>
+      <c r="J38" s="582"/>
+      <c r="K38" s="582"/>
+      <c r="L38" s="583"/>
+      <c r="M38" s="575"/>
+      <c r="N38" s="575"/>
+      <c r="O38" s="575"/>
+      <c r="P38" s="575"/>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" s="584"/>
+      <c r="B39" s="582"/>
+      <c r="C39" s="582"/>
+      <c r="D39" s="582"/>
+      <c r="E39" s="582"/>
+      <c r="F39" s="582"/>
+      <c r="G39" s="582"/>
+      <c r="H39" s="582"/>
+      <c r="I39" s="582"/>
+      <c r="J39" s="582"/>
+      <c r="K39" s="582"/>
+      <c r="L39" s="583"/>
+      <c r="M39" s="575"/>
+      <c r="N39" s="575"/>
+      <c r="O39" s="575"/>
+      <c r="P39" s="575"/>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" s="587"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="588"/>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" s="587" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="588"/>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" s="587" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="588"/>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43" s="587" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="588"/>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" s="587" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="588"/>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45" s="587" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="588"/>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46" s="587" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="588"/>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47" s="587" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B47" s="24"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="588"/>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48" s="587"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="588"/>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="589" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B49" s="24"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="24"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="588"/>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="590" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B50" s="24"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="24"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="588"/>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="587"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="588"/>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="587"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="588"/>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="589" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B53" s="24"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="24"/>
+      <c r="J53" s="24"/>
+      <c r="K53" s="24"/>
+      <c r="L53" s="588"/>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="590" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B54" s="24"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="24"/>
+      <c r="J54" s="24"/>
+      <c r="K54" s="24"/>
+      <c r="L54" s="588"/>
+    </row>
+    <row r="55" spans="1:12" ht="14.25" thickBot="1">
+      <c r="A55" s="601"/>
+      <c r="B55" s="591"/>
+      <c r="C55" s="591"/>
+      <c r="D55" s="591"/>
+      <c r="E55" s="591"/>
+      <c r="F55" s="591"/>
+      <c r="G55" s="591"/>
+      <c r="H55" s="591"/>
+      <c r="I55" s="591"/>
+      <c r="J55" s="591"/>
+      <c r="K55" s="591"/>
+      <c r="L55" s="592"/>
+    </row>
+    <row r="57" spans="1:12" ht="14.25" thickBot="1">
+      <c r="A57" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="24">
+      <c r="A58" s="593" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B58" s="594"/>
+      <c r="C58" s="594"/>
+      <c r="D58" s="595"/>
+      <c r="E58" s="596"/>
+    </row>
+    <row r="59" spans="1:12" ht="24.75" thickBot="1">
+      <c r="A59" s="597" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B59" s="598"/>
+      <c r="C59" s="598"/>
+      <c r="D59" s="599"/>
+      <c r="E59" s="600"/>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D66" s="55">
+        <f>1000*EXP(0.5%*0.5)</f>
+        <v>1002.5031276057952</v>
+      </c>
+      <c r="F66" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" s="255" customFormat="1" ht="11.25">
+      <c r="A71" s="348" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B71" s="349"/>
+      <c r="C71" s="349"/>
+      <c r="D71" s="349"/>
+      <c r="E71" s="349"/>
+      <c r="F71" s="349"/>
+      <c r="G71" s="349"/>
+      <c r="H71" s="350"/>
+    </row>
+    <row r="72" spans="1:8" s="255" customFormat="1" ht="11.25">
+      <c r="A72" s="351" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B72" s="352"/>
+      <c r="C72" s="352"/>
+      <c r="D72" s="352"/>
+      <c r="E72" s="352"/>
+      <c r="F72" s="352"/>
+      <c r="G72" s="352"/>
+      <c r="H72" s="353"/>
+    </row>
+    <row r="73" spans="1:8" s="255" customFormat="1" ht="11.25">
+      <c r="A73" s="355" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B73" s="356"/>
+      <c r="C73" s="356"/>
+      <c r="D73" s="356"/>
+      <c r="E73" s="356"/>
+      <c r="F73" s="356"/>
+      <c r="G73" s="356"/>
+      <c r="H73" s="357"/>
+    </row>
+    <row r="74" spans="1:8" s="255" customFormat="1" ht="11.25"/>
+    <row r="75" spans="1:8" s="255" customFormat="1" ht="11.25">
+      <c r="A75" s="255" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B75" s="255" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C75" s="540" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D75" s="540"/>
+      <c r="E75" s="540"/>
+    </row>
+    <row r="76" spans="1:8" s="255" customFormat="1" ht="11.25">
+      <c r="A76" s="255" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B76" s="255" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C76" s="540" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D76" s="540"/>
+      <c r="E76" s="540"/>
+    </row>
+    <row r="77" spans="1:8" s="255" customFormat="1" ht="11.25"/>
+    <row r="78" spans="1:8" s="255" customFormat="1" ht="11.25">
+      <c r="A78" s="255" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C78" s="255" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" s="255" customFormat="1" ht="11.25">
+      <c r="C79" s="540" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D79" s="540"/>
+      <c r="E79" s="540"/>
+    </row>
+    <row r="80" spans="1:8" s="255" customFormat="1" ht="11.25"/>
+    <row r="81" spans="1:8" s="255" customFormat="1" ht="11.25"/>
+    <row r="82" spans="1:8" s="255" customFormat="1" ht="11.25">
+      <c r="C82" s="541" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" s="255" customFormat="1" ht="11.25"/>
+    <row r="84" spans="1:8" s="255" customFormat="1" ht="11.25"/>
+    <row r="85" spans="1:8" s="255" customFormat="1" ht="11.25"/>
+    <row r="86" spans="1:8" s="255" customFormat="1" ht="11.25">
+      <c r="D86" s="255" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" s="255" customFormat="1" ht="11.25">
+      <c r="G87" s="255" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" s="255" customFormat="1" ht="11.25"/>
+    <row r="89" spans="1:8" s="255" customFormat="1" ht="11.25"/>
+    <row r="90" spans="1:8" s="255" customFormat="1" ht="11.25"/>
+    <row r="91" spans="1:8" s="255" customFormat="1" ht="11.25">
+      <c r="E91" s="255" t="s">
+        <v>747</v>
+      </c>
+      <c r="F91" s="255" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" s="255" customFormat="1" ht="11.25"/>
+    <row r="93" spans="1:8" s="255" customFormat="1" ht="11.25">
+      <c r="A93" s="348" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B93" s="349"/>
+      <c r="C93" s="349"/>
+      <c r="D93" s="349"/>
+      <c r="E93" s="349"/>
+      <c r="F93" s="349"/>
+      <c r="G93" s="349"/>
+      <c r="H93" s="350"/>
+    </row>
+    <row r="94" spans="1:8" s="255" customFormat="1" ht="11.25">
+      <c r="A94" s="351" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B94" s="352"/>
+      <c r="C94" s="352"/>
+      <c r="D94" s="352"/>
+      <c r="E94" s="352"/>
+      <c r="F94" s="352"/>
+      <c r="G94" s="352"/>
+      <c r="H94" s="353"/>
+    </row>
+    <row r="95" spans="1:8" s="255" customFormat="1" ht="11.25">
+      <c r="A95" s="351" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B95" s="352"/>
+      <c r="C95" s="352"/>
+      <c r="D95" s="352"/>
+      <c r="E95" s="352"/>
+      <c r="F95" s="352"/>
+      <c r="G95" s="352"/>
+      <c r="H95" s="353"/>
+    </row>
+    <row r="96" spans="1:8" s="255" customFormat="1" ht="11.25">
+      <c r="A96" s="355" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B96" s="356"/>
+      <c r="C96" s="356"/>
+      <c r="D96" s="356"/>
+      <c r="E96" s="356"/>
+      <c r="F96" s="356"/>
+      <c r="G96" s="356"/>
+      <c r="H96" s="357"/>
+    </row>
+    <row r="97" spans="1:6" s="255" customFormat="1" ht="11.25"/>
+    <row r="98" spans="1:6" s="255" customFormat="1" ht="11.25">
+      <c r="A98" s="255" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B98" s="255" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D98" s="540" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" s="255" customFormat="1" ht="11.25">
+      <c r="A99" s="255" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B99" s="255" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D99" s="540" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" s="255" customFormat="1" ht="11.25">
+      <c r="A100" s="255" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B100" s="255" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" s="255" customFormat="1" ht="11.25">
+      <c r="D101" s="255" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" s="255" customFormat="1" ht="11.25">
+      <c r="A102" s="255" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D102" s="540" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" s="255" customFormat="1" ht="11.25">
+      <c r="A103" s="255" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" s="255" customFormat="1" ht="11.25">
+      <c r="A104" s="255" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" s="255" customFormat="1" ht="11.25"/>
+    <row r="106" spans="1:6" s="255" customFormat="1" ht="11.25"/>
+    <row r="107" spans="1:6" s="255" customFormat="1" ht="11.25">
+      <c r="F107" s="255" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" s="255" customFormat="1" ht="11.25">
+      <c r="C108" s="255" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" s="255" customFormat="1" ht="11.25">
+      <c r="F109" s="255" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" s="255" customFormat="1" ht="11.25"/>
+    <row r="111" spans="1:6" s="255" customFormat="1" ht="11.25"/>
+    <row r="112" spans="1:6" s="255" customFormat="1" ht="11.25"/>
+    <row r="113" spans="4:5" s="255" customFormat="1" ht="11.25">
+      <c r="D113" s="255" t="s">
+        <v>747</v>
+      </c>
+      <c r="E113" s="255" t="s">
+        <v>1085</v>
       </c>
     </row>
   </sheetData>

--- a/a1.xlsx
+++ b/a1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23025" windowHeight="10335" firstSheet="7" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23025" windowHeight="10335" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="債権数理式" sheetId="7" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2827" uniqueCount="1540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2940" uniqueCount="1585">
   <si>
     <t>複利計算式</t>
     <rPh sb="0" eb="2">
@@ -16779,6 +16779,359 @@
     <t>lnS(T)/S0  ～  N(Tν , Tσ^2）</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>伊藤の公式</t>
+    <rPh sb="0" eb="2">
+      <t>イトウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確率過程X(t)が伊藤過程（ウィナー過程）に従う場合、</t>
+    <rPh sb="0" eb="2">
+      <t>カクリツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カテイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イトウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カテイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カテイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dX = μ（X,t)dt + σ(X,t)dW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これ即ち、以下と対比さえるとよくわかる。</t>
+    <rPh sb="2" eb="3">
+      <t>スナワ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>タイヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>X = lnS(t)が分かる</t>
+    <rPh sb="11" eb="12">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↓　以下が伊藤の公式</t>
+    <rPh sb="2" eb="4">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イトウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■過程（前提条件）</t>
+    <rPh sb="1" eb="3">
+      <t>カテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ゼンテイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■結論（定理）</t>
+    <rPh sb="1" eb="3">
+      <t>ケツロン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テイリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Y(t) = f(X , t ) は、以下となる。</t>
+    <rPh sb="19" eb="21">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dY = { ∂/∂X ・ f(X , t ) ・ μ(X , t )  +  ∂/∂t ・ f(X , t )  +  1/2・∂^2/∂^2X・f(X , t )・σ^2(X , t ) } dt   +   ∂/∂X  ・ f(X , t ) ・ σ(X , t )　dW</t>
+  </si>
+  <si>
+    <t>dY = { ∂/∂X ・ f(X , t ) ・ μ(X , t )  +  ∂/∂t ・ f(X , t )  +  1/2・∂^2/∂^2X・f(X , t )・σ^2(X , t ) } dt   +   ∂/∂X  ・ f(X , t ) ・ σ(X , t )　dW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問題１</t>
+    <rPh sb="0" eb="2">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>X(t) = lnS(t)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>μ(x , t ) = ν</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>σ(x , t ) = σ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Y = S(t)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上記を元にを、計算する。</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>∂/∂X ・ f(X , t )  = e^x = S(t)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Y(t)  = f(X , t )  =  e^x = S(t)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>∂/∂t ・ f(X , t ) = 0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>∂^2/∂X^2・f(X , t ) = e^X = S(t)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dS(t) = { S(t)・ν + 0  + 1/2・S（ｔ）・σ^2　} df  +  S(t) ・σ dw</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dS(t) /S(t) = 　（ ν + 1/2σ^2 ) dt + σ dw</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ν = μ - 1/2σ^2より</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dS(t) /S(t) = 　μ dt + σ dw</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Y = lnS(t)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Y(t)  = f(X , t )  =  X = lnS(t)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>∂/∂X ・ f(X , t )  = 1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>∂^2/∂X^2・f(X , t ) = 0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>d lnS(t) = { ν + 0  + 0　} df  +  1 ・σ dw</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>d lnS(t) = 　νdt + σ dw</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>d lnS(t) = 　(μ -1/2σ^2) dt + σ dw</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>二項モデルの復習</t>
+    <rPh sb="0" eb="2">
+      <t>ニコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>フクシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１期間二項モデルの一般化で証明</t>
+    <rPh sb="1" eb="3">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニコウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ショウメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>u = exp(νdt + σ√dt )</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>d = exp(νdt - σ√dt )</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>微小区間の二項モデルを、足し合わせる形で無理やり連続にし、</t>
+    <rPh sb="0" eb="2">
+      <t>ビショウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>クカン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニコウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カタチ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ムリ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>レンゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中心極限定理より、一般化して、連続型と離散型を同一と見なし</t>
+    <rPh sb="0" eb="2">
+      <t>チュウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キョクゲン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テイリ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>レンゾクガタ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>リサンガタ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ドウイツ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ていた。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無裁定理論を持ち出す</t>
+    <rPh sb="0" eb="1">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>サイテイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>リロン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結論を導き出した</t>
+    <rPh sb="0" eb="2">
+      <t>ケツロン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ミチビ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ν　＝　μ - 1/2・σ^2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>μ   =   ν + 1/2・σ^2</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -16814,7 +17167,7 @@
     <numFmt numFmtId="202" formatCode="0.00000000000000_);[Red]\(0.00000000000000\)"/>
     <numFmt numFmtId="203" formatCode="#,##0.00000_ "/>
   </numFmts>
-  <fonts count="104">
+  <fonts count="107">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -17668,6 +18021,32 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="20"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="28">
     <fill>
@@ -18307,7 +18686,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="711">
+  <cellXfs count="745">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -20439,6 +20818,108 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="18" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -20449,10 +20930,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCCFF99"/>
       <color rgb="FF0000FF"/>
       <color rgb="FF66FFFF"/>
       <color rgb="FFFFFF99"/>
-      <color rgb="FFCCFF99"/>
       <color rgb="FFCCFFFF"/>
       <color rgb="FFCC99FF"/>
       <color rgb="FFFF9966"/>
@@ -32985,6 +33466,1638 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>337</xdr:row>
+      <xdr:rowOff>338139</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>619124</xdr:colOff>
+      <xdr:row>339</xdr:row>
+      <xdr:rowOff>57153</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="右中かっこ 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="1262061" y="58640665"/>
+          <a:ext cx="223839" cy="1233487"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>623887</xdr:colOff>
+      <xdr:row>337</xdr:row>
+      <xdr:rowOff>357189</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>485774</xdr:colOff>
+      <xdr:row>339</xdr:row>
+      <xdr:rowOff>76203</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="右中かっこ 83"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3186111" y="58659715"/>
+          <a:ext cx="223839" cy="1233487"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>340</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="886012" cy="325730"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="990600" y="59483625"/>
+          <a:ext cx="886012" cy="325730"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>ドリフト項</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>340</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="723275" cy="325730"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="テキスト ボックス 84"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2933700" y="59502675"/>
+          <a:ext cx="723275" cy="325730"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>拡散項</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>445</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>449</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直線矢印コネクタ 22"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="390525" y="75190350"/>
+          <a:ext cx="1133475" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>449</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>452</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="86" name="直線矢印コネクタ 85"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381000" y="75828525"/>
+          <a:ext cx="1162050" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>448</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="476250" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="テキスト ボックス 87"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="142876" y="75723750"/>
+          <a:ext cx="476250" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>S</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>447</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>449</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="右矢印 88"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2200275" y="75571350"/>
+          <a:ext cx="1743075" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>200026</xdr:colOff>
+      <xdr:row>444</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="476250" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="テキスト ボックス 89"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1571626" y="75057000"/>
+          <a:ext cx="476250" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>uS</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>200026</xdr:colOff>
+      <xdr:row>451</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="476250" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="テキスト ボックス 90"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1571626" y="76152375"/>
+          <a:ext cx="476250" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>dS</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>444</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="476250" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="テキスト ボックス 91"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="781051" y="75161775"/>
+          <a:ext cx="476250" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1/2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>451</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="476250" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="テキスト ボックス 92"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733426" y="76085700"/>
+          <a:ext cx="476250" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1/2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>455</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>455</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="95" name="直線矢印コネクタ 94"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="390525" y="76733400"/>
+          <a:ext cx="1228725" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>455</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="476250" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="96" name="テキスト ボックス 95"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="923926" y="76752450"/>
+          <a:ext cx="476250" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>dt</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>447</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>450</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="97" name="直線矢印コネクタ 96"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="285750" y="18611850"/>
+          <a:ext cx="695325" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>450</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>452</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="98" name="直線矢印コネクタ 97"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="295275" y="19011900"/>
+          <a:ext cx="695325" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>447</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>449</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="99" name="直線矢印コネクタ 98"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1809750" y="18602325"/>
+          <a:ext cx="695325" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>449</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>452</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="100" name="直線矢印コネクタ 99"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1819275" y="19002375"/>
+          <a:ext cx="695325" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>446</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>449</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="101" name="直線矢印コネクタ 100"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3933825" y="18564225"/>
+          <a:ext cx="695325" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>449</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>452</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="102" name="直線矢印コネクタ 101"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3943350" y="18964275"/>
+          <a:ext cx="695325" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>446</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>448</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="103" name="テキスト ボックス 102"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="990600" y="18440400"/>
+          <a:ext cx="723900" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>u×S</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>451</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>453</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="104" name="テキスト ボックス 103"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="981075" y="19250025"/>
+          <a:ext cx="723900" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>d×S</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>450</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>452</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="テキスト ボックス 104"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="19040475"/>
+          <a:ext cx="723900" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>S</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>449</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>451</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="106" name="テキスト ボックス 105"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1685925" y="18973800"/>
+          <a:ext cx="723900" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>457198</xdr:colOff>
+      <xdr:row>446</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>448</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="107" name="テキスト ボックス 106"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2514598" y="18468975"/>
+          <a:ext cx="1447802" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>R ( = 1 +</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> r )</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419098</xdr:colOff>
+      <xdr:row>451</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>453</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="108" name="テキスト ボックス 107"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2476498" y="19278600"/>
+          <a:ext cx="1447802" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>R ( = 1 +</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> r )</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>552448</xdr:colOff>
+      <xdr:row>446</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>448</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="109" name="テキスト ボックス 108"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4667248" y="18449925"/>
+          <a:ext cx="1447802" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>Cu </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>571498</xdr:colOff>
+      <xdr:row>451</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>453</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="110" name="テキスト ボックス 109"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4686298" y="19221450"/>
+          <a:ext cx="1447802" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Cd</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>455</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="111" name="テキスト ボックス 110"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6191250" y="19764375"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>409574</xdr:colOff>
+      <xdr:row>470</xdr:row>
+      <xdr:rowOff>133352</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>476</xdr:row>
+      <xdr:rowOff>19052</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="112" name="右矢印 111"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5791199" y="79181327"/>
+          <a:ext cx="742950" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -37690,10 +39803,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="4" tint="0.39997558519241921"/>
+  </sheetPr>
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -50229,8 +52345,8 @@
   </sheetPr>
   <dimension ref="A1:M210"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A205" sqref="A205"/>
+    <sheetView showGridLines="0" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="A193" sqref="A193:I211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -51204,10 +53320,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M311"/>
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:T496"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A128" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A144" sqref="A144:D147"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A186" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N209" sqref="N209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -52214,6 +54333,11 @@
       <c r="D206" s="694"/>
       <c r="E206" s="694"/>
       <c r="F206" s="694"/>
+      <c r="H206" s="744" t="s">
+        <v>1583</v>
+      </c>
+      <c r="I206" s="744"/>
+      <c r="J206" s="744"/>
     </row>
     <row r="207" spans="1:13" s="693" customFormat="1" ht="17.25">
       <c r="A207" s="694" t="s">
@@ -52224,6 +54348,11 @@
       <c r="D207" s="694"/>
       <c r="E207" s="694"/>
       <c r="F207" s="694"/>
+      <c r="H207" s="744" t="s">
+        <v>1584</v>
+      </c>
+      <c r="I207" s="744"/>
+      <c r="J207" s="744"/>
     </row>
     <row r="209" spans="1:5" ht="14.25">
       <c r="A209" s="265" t="s">
@@ -52630,6 +54759,1897 @@
       </c>
       <c r="B311" s="92"/>
       <c r="C311" s="92"/>
+    </row>
+    <row r="315" spans="1:3" s="674" customFormat="1" ht="22.5" customHeight="1"/>
+    <row r="317" spans="1:3" ht="55.5">
+      <c r="A317" s="638" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" s="87" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" s="87" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="321" spans="1:19" ht="28.5">
+      <c r="A321" s="711" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B321" s="279"/>
+      <c r="C321" s="279"/>
+      <c r="D321" s="279"/>
+      <c r="E321" s="279"/>
+      <c r="F321" s="279"/>
+      <c r="G321" s="279"/>
+      <c r="H321" s="279"/>
+      <c r="I321" s="280"/>
+    </row>
+    <row r="322" spans="1:19">
+      <c r="A322" s="281"/>
+      <c r="B322" s="282"/>
+      <c r="C322" s="282"/>
+      <c r="D322" s="282"/>
+      <c r="E322" s="282"/>
+      <c r="F322" s="282"/>
+      <c r="G322" s="282"/>
+      <c r="H322" s="282"/>
+      <c r="I322" s="283"/>
+    </row>
+    <row r="323" spans="1:19">
+      <c r="A323" s="281" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B323" s="282"/>
+      <c r="C323" s="282"/>
+      <c r="D323" s="282"/>
+      <c r="E323" s="282"/>
+      <c r="F323" s="282"/>
+      <c r="G323" s="282"/>
+      <c r="H323" s="282"/>
+      <c r="I323" s="283"/>
+    </row>
+    <row r="324" spans="1:19" ht="24">
+      <c r="A324" s="712" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B324" s="713"/>
+      <c r="C324" s="713"/>
+      <c r="D324" s="713"/>
+      <c r="E324" s="282"/>
+      <c r="F324" s="282"/>
+      <c r="G324" s="282"/>
+      <c r="H324" s="282"/>
+      <c r="I324" s="283"/>
+    </row>
+    <row r="325" spans="1:19">
+      <c r="A325" s="281"/>
+      <c r="B325" s="282"/>
+      <c r="C325" s="282"/>
+      <c r="D325" s="282"/>
+      <c r="E325" s="282"/>
+      <c r="F325" s="282"/>
+      <c r="G325" s="282"/>
+      <c r="H325" s="282"/>
+      <c r="I325" s="283"/>
+    </row>
+    <row r="326" spans="1:19" ht="25.5">
+      <c r="A326" s="714" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B326" s="282"/>
+      <c r="C326" s="282"/>
+      <c r="D326" s="282"/>
+      <c r="E326" s="282"/>
+      <c r="F326" s="282"/>
+      <c r="G326" s="282"/>
+      <c r="H326" s="282"/>
+      <c r="I326" s="283"/>
+    </row>
+    <row r="327" spans="1:19">
+      <c r="A327" s="284"/>
+      <c r="B327" s="285"/>
+      <c r="C327" s="285"/>
+      <c r="D327" s="285"/>
+      <c r="E327" s="285"/>
+      <c r="F327" s="285"/>
+      <c r="G327" s="285"/>
+      <c r="H327" s="285"/>
+      <c r="I327" s="286"/>
+    </row>
+    <row r="330" spans="1:19">
+      <c r="A330" s="87" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="332" spans="1:19">
+      <c r="A332" s="87" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="333" spans="1:19" ht="12" thickBot="1">
+      <c r="A333" s="87" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="334" spans="1:19" ht="17.25">
+      <c r="A334" s="715" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B334" s="716"/>
+      <c r="C334" s="716"/>
+      <c r="D334" s="716"/>
+      <c r="E334" s="716"/>
+      <c r="F334" s="716"/>
+      <c r="G334" s="716"/>
+      <c r="H334" s="716"/>
+      <c r="I334" s="716"/>
+      <c r="J334" s="716"/>
+      <c r="K334" s="716"/>
+      <c r="L334" s="716"/>
+      <c r="M334" s="716"/>
+      <c r="N334" s="716"/>
+      <c r="O334" s="716"/>
+      <c r="P334" s="716"/>
+      <c r="Q334" s="683"/>
+      <c r="R334" s="683"/>
+      <c r="S334" s="684"/>
+    </row>
+    <row r="335" spans="1:19" ht="12" thickBot="1">
+      <c r="A335" s="717"/>
+      <c r="B335" s="718"/>
+      <c r="C335" s="718"/>
+      <c r="D335" s="718"/>
+      <c r="E335" s="718"/>
+      <c r="F335" s="718"/>
+      <c r="G335" s="718"/>
+      <c r="H335" s="718"/>
+      <c r="I335" s="718"/>
+      <c r="J335" s="718"/>
+      <c r="K335" s="718"/>
+      <c r="L335" s="718"/>
+      <c r="M335" s="718"/>
+      <c r="N335" s="718"/>
+      <c r="O335" s="718"/>
+      <c r="P335" s="718"/>
+      <c r="Q335" s="690"/>
+      <c r="R335" s="690"/>
+      <c r="S335" s="691"/>
+    </row>
+    <row r="338" spans="1:12" s="242" customFormat="1" ht="28.5">
+      <c r="A338" s="719" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B338" s="720"/>
+      <c r="C338" s="720"/>
+      <c r="D338" s="720"/>
+      <c r="E338" s="720"/>
+      <c r="F338" s="720"/>
+    </row>
+    <row r="345" spans="1:12">
+      <c r="A345" s="87" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="346" spans="1:12">
+      <c r="A346" s="721" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B346" s="722"/>
+      <c r="C346" s="722"/>
+      <c r="D346" s="722"/>
+      <c r="E346" s="722"/>
+      <c r="F346" s="722"/>
+      <c r="G346" s="722"/>
+      <c r="H346" s="722"/>
+      <c r="I346" s="722"/>
+      <c r="J346" s="722"/>
+      <c r="K346" s="722"/>
+      <c r="L346" s="723"/>
+    </row>
+    <row r="347" spans="1:12">
+      <c r="A347" s="262"/>
+      <c r="B347" s="263"/>
+      <c r="C347" s="263"/>
+      <c r="D347" s="263"/>
+      <c r="E347" s="263"/>
+      <c r="F347" s="263"/>
+      <c r="G347" s="263"/>
+      <c r="H347" s="263"/>
+      <c r="I347" s="263"/>
+      <c r="J347" s="263"/>
+      <c r="K347" s="263"/>
+      <c r="L347" s="724"/>
+    </row>
+    <row r="348" spans="1:12">
+      <c r="A348" s="734" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B348" s="263"/>
+      <c r="C348" s="263"/>
+      <c r="D348" s="263"/>
+      <c r="E348" s="263"/>
+      <c r="F348" s="263"/>
+      <c r="G348" s="263"/>
+      <c r="H348" s="263"/>
+      <c r="I348" s="263"/>
+      <c r="J348" s="263"/>
+      <c r="K348" s="263"/>
+      <c r="L348" s="724"/>
+    </row>
+    <row r="349" spans="1:12">
+      <c r="A349" s="262" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B349" s="263"/>
+      <c r="C349" s="263"/>
+      <c r="D349" s="263"/>
+      <c r="E349" s="263"/>
+      <c r="F349" s="263"/>
+      <c r="G349" s="263"/>
+      <c r="H349" s="263"/>
+      <c r="I349" s="263"/>
+      <c r="J349" s="263"/>
+      <c r="K349" s="263"/>
+      <c r="L349" s="724"/>
+    </row>
+    <row r="350" spans="1:12">
+      <c r="A350" s="262" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B350" s="263"/>
+      <c r="C350" s="263"/>
+      <c r="D350" s="263"/>
+      <c r="E350" s="263"/>
+      <c r="F350" s="263"/>
+      <c r="G350" s="263"/>
+      <c r="H350" s="263"/>
+      <c r="I350" s="263"/>
+      <c r="J350" s="263"/>
+      <c r="K350" s="263"/>
+      <c r="L350" s="724"/>
+    </row>
+    <row r="351" spans="1:12">
+      <c r="A351" s="262" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B351" s="263"/>
+      <c r="C351" s="263"/>
+      <c r="D351" s="263"/>
+      <c r="E351" s="263"/>
+      <c r="F351" s="263"/>
+      <c r="G351" s="263"/>
+      <c r="H351" s="263"/>
+      <c r="I351" s="263"/>
+      <c r="J351" s="263"/>
+      <c r="K351" s="263"/>
+      <c r="L351" s="724"/>
+    </row>
+    <row r="352" spans="1:12">
+      <c r="A352" s="262"/>
+      <c r="B352" s="263"/>
+      <c r="C352" s="263"/>
+      <c r="D352" s="263"/>
+      <c r="E352" s="263"/>
+      <c r="F352" s="263"/>
+      <c r="G352" s="263"/>
+      <c r="H352" s="263"/>
+      <c r="I352" s="263"/>
+      <c r="J352" s="263"/>
+      <c r="K352" s="263"/>
+      <c r="L352" s="724"/>
+    </row>
+    <row r="353" spans="1:12">
+      <c r="A353" s="262" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B353" s="263"/>
+      <c r="C353" s="263"/>
+      <c r="D353" s="263"/>
+      <c r="E353" s="263"/>
+      <c r="F353" s="263"/>
+      <c r="G353" s="263"/>
+      <c r="H353" s="263"/>
+      <c r="I353" s="263"/>
+      <c r="J353" s="263"/>
+      <c r="K353" s="263"/>
+      <c r="L353" s="724"/>
+    </row>
+    <row r="354" spans="1:12">
+      <c r="A354" s="262"/>
+      <c r="B354" s="725" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C354" s="729" t="s">
+        <v>1560</v>
+      </c>
+      <c r="D354" s="729"/>
+      <c r="E354" s="729"/>
+      <c r="F354" s="263"/>
+      <c r="G354" s="263"/>
+      <c r="H354" s="263"/>
+      <c r="I354" s="263"/>
+      <c r="J354" s="263"/>
+      <c r="K354" s="263"/>
+      <c r="L354" s="724"/>
+    </row>
+    <row r="355" spans="1:12">
+      <c r="A355" s="262"/>
+      <c r="B355" s="725" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C355" s="729" t="s">
+        <v>1559</v>
+      </c>
+      <c r="D355" s="729"/>
+      <c r="E355" s="729"/>
+      <c r="F355" s="263"/>
+      <c r="G355" s="263"/>
+      <c r="H355" s="263"/>
+      <c r="I355" s="263"/>
+      <c r="J355" s="263"/>
+      <c r="K355" s="263"/>
+      <c r="L355" s="724"/>
+    </row>
+    <row r="356" spans="1:12">
+      <c r="A356" s="262"/>
+      <c r="B356" s="725" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C356" s="729" t="s">
+        <v>1561</v>
+      </c>
+      <c r="D356" s="729"/>
+      <c r="E356" s="729"/>
+      <c r="F356" s="263"/>
+      <c r="G356" s="263"/>
+      <c r="H356" s="263"/>
+      <c r="I356" s="263"/>
+      <c r="J356" s="263"/>
+      <c r="K356" s="263"/>
+      <c r="L356" s="724"/>
+    </row>
+    <row r="357" spans="1:12">
+      <c r="A357" s="262"/>
+      <c r="B357" s="725" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C357" s="729" t="s">
+        <v>1562</v>
+      </c>
+      <c r="D357" s="729"/>
+      <c r="E357" s="729"/>
+      <c r="F357" s="263"/>
+      <c r="G357" s="263"/>
+      <c r="H357" s="263"/>
+      <c r="I357" s="263"/>
+      <c r="J357" s="263"/>
+      <c r="K357" s="263"/>
+      <c r="L357" s="724"/>
+    </row>
+    <row r="358" spans="1:12">
+      <c r="A358" s="262"/>
+      <c r="B358" s="263"/>
+      <c r="C358" s="263"/>
+      <c r="D358" s="263"/>
+      <c r="E358" s="263"/>
+      <c r="F358" s="263"/>
+      <c r="G358" s="263"/>
+      <c r="H358" s="263"/>
+      <c r="I358" s="263"/>
+      <c r="J358" s="263"/>
+      <c r="K358" s="263"/>
+      <c r="L358" s="724"/>
+    </row>
+    <row r="359" spans="1:12">
+      <c r="A359" s="262" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B359" s="263"/>
+      <c r="C359" s="263"/>
+      <c r="D359" s="263"/>
+      <c r="E359" s="263"/>
+      <c r="F359" s="263"/>
+      <c r="G359" s="263"/>
+      <c r="H359" s="263"/>
+      <c r="I359" s="263"/>
+      <c r="J359" s="263"/>
+      <c r="K359" s="263"/>
+      <c r="L359" s="724"/>
+    </row>
+    <row r="360" spans="1:12">
+      <c r="A360" s="262"/>
+      <c r="B360" s="263"/>
+      <c r="C360" s="263"/>
+      <c r="D360" s="263"/>
+      <c r="E360" s="263"/>
+      <c r="F360" s="263"/>
+      <c r="G360" s="263"/>
+      <c r="H360" s="263"/>
+      <c r="I360" s="263"/>
+      <c r="J360" s="263"/>
+      <c r="K360" s="263"/>
+      <c r="L360" s="724"/>
+    </row>
+    <row r="361" spans="1:12">
+      <c r="A361" s="262" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B361" s="263"/>
+      <c r="C361" s="263"/>
+      <c r="D361" s="263"/>
+      <c r="E361" s="263"/>
+      <c r="F361" s="263"/>
+      <c r="G361" s="263"/>
+      <c r="H361" s="263"/>
+      <c r="I361" s="263"/>
+      <c r="J361" s="263"/>
+      <c r="K361" s="263"/>
+      <c r="L361" s="724"/>
+    </row>
+    <row r="362" spans="1:12">
+      <c r="A362" s="262"/>
+      <c r="B362" s="263"/>
+      <c r="C362" s="263"/>
+      <c r="D362" s="263"/>
+      <c r="E362" s="263"/>
+      <c r="F362" s="263"/>
+      <c r="G362" s="263"/>
+      <c r="H362" s="263"/>
+      <c r="I362" s="263"/>
+      <c r="J362" s="263"/>
+      <c r="K362" s="263"/>
+      <c r="L362" s="724"/>
+    </row>
+    <row r="363" spans="1:12">
+      <c r="A363" s="262" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B363" s="263"/>
+      <c r="C363" s="263"/>
+      <c r="D363" s="263"/>
+      <c r="E363" s="263"/>
+      <c r="F363" s="263"/>
+      <c r="G363" s="263"/>
+      <c r="H363" s="263"/>
+      <c r="I363" s="263"/>
+      <c r="J363" s="263"/>
+      <c r="K363" s="263"/>
+      <c r="L363" s="724"/>
+    </row>
+    <row r="364" spans="1:12">
+      <c r="A364" s="730"/>
+      <c r="B364" s="731"/>
+      <c r="C364" s="731"/>
+      <c r="D364" s="263"/>
+      <c r="E364" s="263"/>
+      <c r="F364" s="263"/>
+      <c r="G364" s="263"/>
+      <c r="H364" s="263"/>
+      <c r="I364" s="263"/>
+      <c r="J364" s="263"/>
+      <c r="K364" s="263"/>
+      <c r="L364" s="724"/>
+    </row>
+    <row r="365" spans="1:12">
+      <c r="A365" s="730" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B365" s="731"/>
+      <c r="C365" s="731"/>
+      <c r="D365" s="263"/>
+      <c r="E365" s="263"/>
+      <c r="F365" s="263"/>
+      <c r="G365" s="263"/>
+      <c r="H365" s="263"/>
+      <c r="I365" s="263"/>
+      <c r="J365" s="263"/>
+      <c r="K365" s="263"/>
+      <c r="L365" s="724"/>
+    </row>
+    <row r="366" spans="1:12">
+      <c r="A366" s="262"/>
+      <c r="B366" s="263"/>
+      <c r="C366" s="263"/>
+      <c r="D366" s="263"/>
+      <c r="E366" s="263"/>
+      <c r="F366" s="263"/>
+      <c r="G366" s="263"/>
+      <c r="H366" s="263"/>
+      <c r="I366" s="263"/>
+      <c r="J366" s="263"/>
+      <c r="K366" s="263"/>
+      <c r="L366" s="724"/>
+    </row>
+    <row r="367" spans="1:12" ht="18.75">
+      <c r="A367" s="732" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B367" s="733"/>
+      <c r="C367" s="733"/>
+      <c r="D367" s="733"/>
+      <c r="E367" s="263"/>
+      <c r="F367" s="263"/>
+      <c r="G367" s="263"/>
+      <c r="H367" s="263"/>
+      <c r="I367" s="263"/>
+      <c r="J367" s="263"/>
+      <c r="K367" s="263"/>
+      <c r="L367" s="724"/>
+    </row>
+    <row r="368" spans="1:12">
+      <c r="A368" s="262"/>
+      <c r="B368" s="263"/>
+      <c r="C368" s="263"/>
+      <c r="D368" s="263"/>
+      <c r="E368" s="263"/>
+      <c r="F368" s="263"/>
+      <c r="G368" s="263"/>
+      <c r="H368" s="263"/>
+      <c r="I368" s="263"/>
+      <c r="J368" s="263"/>
+      <c r="K368" s="263"/>
+      <c r="L368" s="724"/>
+    </row>
+    <row r="369" spans="1:12">
+      <c r="A369" s="262"/>
+      <c r="B369" s="263"/>
+      <c r="C369" s="263"/>
+      <c r="D369" s="263"/>
+      <c r="E369" s="263"/>
+      <c r="F369" s="263"/>
+      <c r="G369" s="263"/>
+      <c r="H369" s="263"/>
+      <c r="I369" s="263"/>
+      <c r="J369" s="263"/>
+      <c r="K369" s="263"/>
+      <c r="L369" s="724"/>
+    </row>
+    <row r="370" spans="1:12">
+      <c r="A370" s="726"/>
+      <c r="B370" s="727"/>
+      <c r="C370" s="727"/>
+      <c r="D370" s="727"/>
+      <c r="E370" s="727"/>
+      <c r="F370" s="727"/>
+      <c r="G370" s="727"/>
+      <c r="H370" s="727"/>
+      <c r="I370" s="727"/>
+      <c r="J370" s="727"/>
+      <c r="K370" s="727"/>
+      <c r="L370" s="728"/>
+    </row>
+    <row r="373" spans="1:12">
+      <c r="A373" s="87" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="374" spans="1:12">
+      <c r="A374" s="721" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B374" s="722"/>
+      <c r="C374" s="722"/>
+      <c r="D374" s="722"/>
+      <c r="E374" s="722"/>
+      <c r="F374" s="722"/>
+      <c r="G374" s="722"/>
+      <c r="H374" s="722"/>
+      <c r="I374" s="722"/>
+      <c r="J374" s="722"/>
+      <c r="K374" s="722"/>
+      <c r="L374" s="723"/>
+    </row>
+    <row r="375" spans="1:12">
+      <c r="A375" s="262"/>
+      <c r="B375" s="263"/>
+      <c r="C375" s="263"/>
+      <c r="D375" s="263"/>
+      <c r="E375" s="263"/>
+      <c r="F375" s="263"/>
+      <c r="G375" s="263"/>
+      <c r="H375" s="263"/>
+      <c r="I375" s="263"/>
+      <c r="J375" s="263"/>
+      <c r="K375" s="263"/>
+      <c r="L375" s="724"/>
+    </row>
+    <row r="376" spans="1:12">
+      <c r="A376" s="734" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B376" s="263"/>
+      <c r="C376" s="263"/>
+      <c r="D376" s="263"/>
+      <c r="E376" s="263"/>
+      <c r="F376" s="263"/>
+      <c r="G376" s="263"/>
+      <c r="H376" s="263"/>
+      <c r="I376" s="263"/>
+      <c r="J376" s="263"/>
+      <c r="K376" s="263"/>
+      <c r="L376" s="724"/>
+    </row>
+    <row r="377" spans="1:12">
+      <c r="A377" s="262" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B377" s="263"/>
+      <c r="C377" s="263"/>
+      <c r="D377" s="263"/>
+      <c r="E377" s="263"/>
+      <c r="F377" s="263"/>
+      <c r="G377" s="263"/>
+      <c r="H377" s="263"/>
+      <c r="I377" s="263"/>
+      <c r="J377" s="263"/>
+      <c r="K377" s="263"/>
+      <c r="L377" s="724"/>
+    </row>
+    <row r="378" spans="1:12">
+      <c r="A378" s="262" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B378" s="263"/>
+      <c r="C378" s="263"/>
+      <c r="D378" s="263"/>
+      <c r="E378" s="263"/>
+      <c r="F378" s="263"/>
+      <c r="G378" s="263"/>
+      <c r="H378" s="263"/>
+      <c r="I378" s="263"/>
+      <c r="J378" s="263"/>
+      <c r="K378" s="263"/>
+      <c r="L378" s="724"/>
+    </row>
+    <row r="379" spans="1:12">
+      <c r="A379" s="262" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B379" s="263"/>
+      <c r="C379" s="263"/>
+      <c r="D379" s="263"/>
+      <c r="E379" s="263"/>
+      <c r="F379" s="263"/>
+      <c r="G379" s="263"/>
+      <c r="H379" s="263"/>
+      <c r="I379" s="263"/>
+      <c r="J379" s="263"/>
+      <c r="K379" s="263"/>
+      <c r="L379" s="724"/>
+    </row>
+    <row r="380" spans="1:12">
+      <c r="A380" s="262"/>
+      <c r="B380" s="263"/>
+      <c r="C380" s="263"/>
+      <c r="D380" s="263"/>
+      <c r="E380" s="263"/>
+      <c r="F380" s="263"/>
+      <c r="G380" s="263"/>
+      <c r="H380" s="263"/>
+      <c r="I380" s="263"/>
+      <c r="J380" s="263"/>
+      <c r="K380" s="263"/>
+      <c r="L380" s="724"/>
+    </row>
+    <row r="381" spans="1:12">
+      <c r="A381" s="262" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B381" s="263"/>
+      <c r="C381" s="263"/>
+      <c r="D381" s="263"/>
+      <c r="E381" s="263"/>
+      <c r="F381" s="263"/>
+      <c r="G381" s="263"/>
+      <c r="H381" s="263"/>
+      <c r="I381" s="263"/>
+      <c r="J381" s="263"/>
+      <c r="K381" s="263"/>
+      <c r="L381" s="724"/>
+    </row>
+    <row r="382" spans="1:12">
+      <c r="A382" s="262"/>
+      <c r="B382" s="725" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C382" s="729" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D382" s="729"/>
+      <c r="E382" s="729"/>
+      <c r="F382" s="263"/>
+      <c r="G382" s="263"/>
+      <c r="H382" s="263"/>
+      <c r="I382" s="263"/>
+      <c r="J382" s="263"/>
+      <c r="K382" s="263"/>
+      <c r="L382" s="724"/>
+    </row>
+    <row r="383" spans="1:12">
+      <c r="A383" s="262"/>
+      <c r="B383" s="725" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C383" s="729" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D383" s="729"/>
+      <c r="E383" s="729"/>
+      <c r="F383" s="263"/>
+      <c r="G383" s="263"/>
+      <c r="H383" s="263"/>
+      <c r="I383" s="263"/>
+      <c r="J383" s="263"/>
+      <c r="K383" s="263"/>
+      <c r="L383" s="724"/>
+    </row>
+    <row r="384" spans="1:12">
+      <c r="A384" s="262"/>
+      <c r="B384" s="725" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C384" s="729" t="s">
+        <v>1561</v>
+      </c>
+      <c r="D384" s="729"/>
+      <c r="E384" s="729"/>
+      <c r="F384" s="263"/>
+      <c r="G384" s="263"/>
+      <c r="H384" s="263"/>
+      <c r="I384" s="263"/>
+      <c r="J384" s="263"/>
+      <c r="K384" s="263"/>
+      <c r="L384" s="724"/>
+    </row>
+    <row r="385" spans="1:12">
+      <c r="A385" s="262"/>
+      <c r="B385" s="725" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C385" s="729" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D385" s="729"/>
+      <c r="E385" s="729"/>
+      <c r="F385" s="263"/>
+      <c r="G385" s="263"/>
+      <c r="H385" s="263"/>
+      <c r="I385" s="263"/>
+      <c r="J385" s="263"/>
+      <c r="K385" s="263"/>
+      <c r="L385" s="724"/>
+    </row>
+    <row r="386" spans="1:12">
+      <c r="A386" s="262"/>
+      <c r="B386" s="263"/>
+      <c r="C386" s="263"/>
+      <c r="D386" s="263"/>
+      <c r="E386" s="263"/>
+      <c r="F386" s="263"/>
+      <c r="G386" s="263"/>
+      <c r="H386" s="263"/>
+      <c r="I386" s="263"/>
+      <c r="J386" s="263"/>
+      <c r="K386" s="263"/>
+      <c r="L386" s="724"/>
+    </row>
+    <row r="387" spans="1:12">
+      <c r="A387" s="262" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B387" s="263"/>
+      <c r="C387" s="263"/>
+      <c r="D387" s="263"/>
+      <c r="E387" s="263"/>
+      <c r="F387" s="263"/>
+      <c r="G387" s="263"/>
+      <c r="H387" s="263"/>
+      <c r="I387" s="263"/>
+      <c r="J387" s="263"/>
+      <c r="K387" s="263"/>
+      <c r="L387" s="724"/>
+    </row>
+    <row r="388" spans="1:12">
+      <c r="A388" s="262"/>
+      <c r="B388" s="263"/>
+      <c r="C388" s="263"/>
+      <c r="D388" s="263"/>
+      <c r="E388" s="263"/>
+      <c r="F388" s="263"/>
+      <c r="G388" s="263"/>
+      <c r="H388" s="263"/>
+      <c r="I388" s="263"/>
+      <c r="J388" s="263"/>
+      <c r="K388" s="263"/>
+      <c r="L388" s="724"/>
+    </row>
+    <row r="389" spans="1:12">
+      <c r="A389" s="262" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B389" s="263"/>
+      <c r="C389" s="263"/>
+      <c r="D389" s="263"/>
+      <c r="E389" s="263"/>
+      <c r="F389" s="263"/>
+      <c r="G389" s="263"/>
+      <c r="H389" s="263"/>
+      <c r="I389" s="263"/>
+      <c r="J389" s="263"/>
+      <c r="K389" s="263"/>
+      <c r="L389" s="724"/>
+    </row>
+    <row r="390" spans="1:12">
+      <c r="A390" s="262"/>
+      <c r="B390" s="263"/>
+      <c r="C390" s="263"/>
+      <c r="D390" s="263"/>
+      <c r="E390" s="263"/>
+      <c r="F390" s="263"/>
+      <c r="G390" s="263"/>
+      <c r="H390" s="263"/>
+      <c r="I390" s="263"/>
+      <c r="J390" s="263"/>
+      <c r="K390" s="263"/>
+      <c r="L390" s="724"/>
+    </row>
+    <row r="391" spans="1:12">
+      <c r="A391" s="262" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B391" s="263"/>
+      <c r="C391" s="263"/>
+      <c r="D391" s="263"/>
+      <c r="E391" s="263"/>
+      <c r="F391" s="263"/>
+      <c r="G391" s="263"/>
+      <c r="H391" s="263"/>
+      <c r="I391" s="263"/>
+      <c r="J391" s="263"/>
+      <c r="K391" s="263"/>
+      <c r="L391" s="724"/>
+    </row>
+    <row r="392" spans="1:12">
+      <c r="A392" s="730"/>
+      <c r="B392" s="731"/>
+      <c r="C392" s="731"/>
+      <c r="D392" s="263"/>
+      <c r="E392" s="263"/>
+      <c r="F392" s="263"/>
+      <c r="G392" s="263"/>
+      <c r="H392" s="263"/>
+      <c r="I392" s="263"/>
+      <c r="J392" s="263"/>
+      <c r="K392" s="263"/>
+      <c r="L392" s="724"/>
+    </row>
+    <row r="393" spans="1:12">
+      <c r="A393" s="730" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B393" s="731"/>
+      <c r="C393" s="731"/>
+      <c r="D393" s="263"/>
+      <c r="E393" s="263"/>
+      <c r="F393" s="263"/>
+      <c r="G393" s="263"/>
+      <c r="H393" s="263"/>
+      <c r="I393" s="263"/>
+      <c r="J393" s="263"/>
+      <c r="K393" s="263"/>
+      <c r="L393" s="724"/>
+    </row>
+    <row r="394" spans="1:12">
+      <c r="A394" s="262"/>
+      <c r="B394" s="263"/>
+      <c r="C394" s="263"/>
+      <c r="D394" s="263"/>
+      <c r="E394" s="263"/>
+      <c r="F394" s="263"/>
+      <c r="G394" s="263"/>
+      <c r="H394" s="263"/>
+      <c r="I394" s="263"/>
+      <c r="J394" s="263"/>
+      <c r="K394" s="263"/>
+      <c r="L394" s="724"/>
+    </row>
+    <row r="395" spans="1:12" ht="18.75">
+      <c r="A395" s="732" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B395" s="733"/>
+      <c r="C395" s="733"/>
+      <c r="D395" s="733"/>
+      <c r="E395" s="263"/>
+      <c r="F395" s="263"/>
+      <c r="G395" s="263"/>
+      <c r="H395" s="263"/>
+      <c r="I395" s="263"/>
+      <c r="J395" s="263"/>
+      <c r="K395" s="263"/>
+      <c r="L395" s="724"/>
+    </row>
+    <row r="396" spans="1:12">
+      <c r="A396" s="262"/>
+      <c r="B396" s="263"/>
+      <c r="C396" s="263"/>
+      <c r="D396" s="263"/>
+      <c r="E396" s="263"/>
+      <c r="F396" s="263"/>
+      <c r="G396" s="263"/>
+      <c r="H396" s="263"/>
+      <c r="I396" s="263"/>
+      <c r="J396" s="263"/>
+      <c r="K396" s="263"/>
+      <c r="L396" s="724"/>
+    </row>
+    <row r="397" spans="1:12">
+      <c r="A397" s="262"/>
+      <c r="B397" s="263"/>
+      <c r="C397" s="263"/>
+      <c r="D397" s="263"/>
+      <c r="E397" s="263"/>
+      <c r="F397" s="263"/>
+      <c r="G397" s="263"/>
+      <c r="H397" s="263"/>
+      <c r="I397" s="263"/>
+      <c r="J397" s="263"/>
+      <c r="K397" s="263"/>
+      <c r="L397" s="724"/>
+    </row>
+    <row r="398" spans="1:12">
+      <c r="A398" s="726"/>
+      <c r="B398" s="727"/>
+      <c r="C398" s="727"/>
+      <c r="D398" s="727"/>
+      <c r="E398" s="727"/>
+      <c r="F398" s="727"/>
+      <c r="G398" s="727"/>
+      <c r="H398" s="727"/>
+      <c r="I398" s="727"/>
+      <c r="J398" s="727"/>
+      <c r="K398" s="727"/>
+      <c r="L398" s="728"/>
+    </row>
+    <row r="405" spans="1:4" s="387" customFormat="1"/>
+    <row r="407" spans="1:4" ht="25.5">
+      <c r="A407" s="62" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" s="99" customFormat="1">
+      <c r="A409" s="99" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" s="99" customFormat="1">
+      <c r="A410" s="735" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B410" s="735"/>
+      <c r="C410" s="735"/>
+      <c r="D410" s="735"/>
+    </row>
+    <row r="411" spans="1:4" s="99" customFormat="1"/>
+    <row r="412" spans="1:4" s="99" customFormat="1">
+      <c r="A412" s="99" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" s="99" customFormat="1">
+      <c r="A413" s="99" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" s="99" customFormat="1"/>
+    <row r="415" spans="1:4" s="99" customFormat="1">
+      <c r="A415" s="99" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" s="99" customFormat="1">
+      <c r="A416" s="99" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7" s="99" customFormat="1">
+      <c r="A417" s="99" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7" s="99" customFormat="1"/>
+    <row r="419" spans="1:7" s="99" customFormat="1">
+      <c r="A419" s="99" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7" s="99" customFormat="1">
+      <c r="A420" s="99" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" s="99" customFormat="1"/>
+    <row r="422" spans="1:7" s="99" customFormat="1">
+      <c r="A422" s="99" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7" s="99" customFormat="1"/>
+    <row r="424" spans="1:7" s="99" customFormat="1" ht="25.5">
+      <c r="A424" s="628" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7" s="99" customFormat="1">
+      <c r="A425" s="604" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B425" s="605"/>
+      <c r="C425" s="605"/>
+      <c r="D425" s="605"/>
+      <c r="E425" s="605"/>
+      <c r="F425" s="606"/>
+    </row>
+    <row r="426" spans="1:7" s="99" customFormat="1">
+      <c r="A426" s="607" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B426" s="608"/>
+      <c r="C426" s="608"/>
+      <c r="D426" s="608"/>
+      <c r="E426" s="608"/>
+      <c r="F426" s="609"/>
+    </row>
+    <row r="427" spans="1:7" s="99" customFormat="1">
+      <c r="A427" s="610" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B427" s="611"/>
+      <c r="C427" s="611"/>
+      <c r="D427" s="611"/>
+      <c r="E427" s="611"/>
+      <c r="F427" s="612"/>
+    </row>
+    <row r="428" spans="1:7" s="99" customFormat="1">
+      <c r="A428" s="99" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7" s="99" customFormat="1"/>
+    <row r="430" spans="1:7" s="99" customFormat="1" ht="24">
+      <c r="A430" s="98" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7" s="99" customFormat="1">
+      <c r="A431" s="604" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B431" s="605"/>
+      <c r="C431" s="605"/>
+      <c r="D431" s="605"/>
+      <c r="E431" s="605"/>
+      <c r="F431" s="605"/>
+      <c r="G431" s="606"/>
+    </row>
+    <row r="432" spans="1:7" s="99" customFormat="1">
+      <c r="A432" s="610"/>
+      <c r="B432" s="611"/>
+      <c r="C432" s="611"/>
+      <c r="D432" s="611"/>
+      <c r="E432" s="611"/>
+      <c r="F432" s="611"/>
+      <c r="G432" s="612"/>
+    </row>
+    <row r="433" spans="1:20" s="99" customFormat="1"/>
+    <row r="434" spans="1:20" s="99" customFormat="1" ht="12" thickBot="1">
+      <c r="A434" s="99" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="435" spans="1:20" s="99" customFormat="1">
+      <c r="A435" s="629" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B435" s="630"/>
+      <c r="C435" s="630"/>
+      <c r="D435" s="630"/>
+      <c r="E435" s="630"/>
+      <c r="F435" s="630"/>
+      <c r="G435" s="630"/>
+      <c r="H435" s="631"/>
+    </row>
+    <row r="436" spans="1:20" s="99" customFormat="1">
+      <c r="A436" s="632"/>
+      <c r="B436" s="633"/>
+      <c r="C436" s="633"/>
+      <c r="D436" s="633"/>
+      <c r="E436" s="633"/>
+      <c r="F436" s="633"/>
+      <c r="G436" s="633"/>
+      <c r="H436" s="634"/>
+    </row>
+    <row r="437" spans="1:20" s="99" customFormat="1">
+      <c r="A437" s="632" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B437" s="633"/>
+      <c r="C437" s="633"/>
+      <c r="D437" s="633"/>
+      <c r="E437" s="633"/>
+      <c r="F437" s="633"/>
+      <c r="G437" s="633"/>
+      <c r="H437" s="634"/>
+    </row>
+    <row r="438" spans="1:20" s="99" customFormat="1">
+      <c r="A438" s="632"/>
+      <c r="B438" s="633"/>
+      <c r="C438" s="633"/>
+      <c r="D438" s="633"/>
+      <c r="E438" s="633"/>
+      <c r="F438" s="633"/>
+      <c r="G438" s="633"/>
+      <c r="H438" s="634"/>
+    </row>
+    <row r="439" spans="1:20" s="99" customFormat="1">
+      <c r="A439" s="632" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B439" s="633"/>
+      <c r="C439" s="633"/>
+      <c r="D439" s="633"/>
+      <c r="E439" s="633"/>
+      <c r="F439" s="633"/>
+      <c r="G439" s="633"/>
+      <c r="H439" s="634"/>
+    </row>
+    <row r="440" spans="1:20" s="99" customFormat="1">
+      <c r="A440" s="632" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B440" s="633"/>
+      <c r="C440" s="633"/>
+      <c r="D440" s="633"/>
+      <c r="E440" s="633"/>
+      <c r="F440" s="633"/>
+      <c r="G440" s="633"/>
+      <c r="H440" s="634"/>
+    </row>
+    <row r="441" spans="1:20" s="99" customFormat="1" ht="12" thickBot="1">
+      <c r="A441" s="635"/>
+      <c r="B441" s="636"/>
+      <c r="C441" s="636"/>
+      <c r="D441" s="636"/>
+      <c r="E441" s="636"/>
+      <c r="F441" s="636"/>
+      <c r="G441" s="636"/>
+      <c r="H441" s="637"/>
+    </row>
+    <row r="442" spans="1:20" s="99" customFormat="1"/>
+    <row r="443" spans="1:20" s="99" customFormat="1" ht="12" thickBot="1"/>
+    <row r="444" spans="1:20">
+      <c r="G444" s="318"/>
+      <c r="H444" s="319"/>
+      <c r="I444" s="319"/>
+      <c r="J444" s="319"/>
+      <c r="K444" s="319"/>
+      <c r="L444" s="319"/>
+      <c r="M444" s="319"/>
+      <c r="N444" s="319"/>
+      <c r="O444" s="319"/>
+      <c r="P444" s="319"/>
+      <c r="Q444" s="319"/>
+      <c r="R444" s="319"/>
+      <c r="S444" s="320"/>
+    </row>
+    <row r="445" spans="1:20">
+      <c r="G445" s="323"/>
+      <c r="H445" s="242"/>
+      <c r="I445" s="242"/>
+      <c r="J445" s="242"/>
+      <c r="K445" s="242"/>
+      <c r="L445" s="242"/>
+      <c r="M445" s="242"/>
+      <c r="N445" s="242"/>
+      <c r="O445" s="242"/>
+      <c r="P445" s="242"/>
+      <c r="Q445" s="242"/>
+      <c r="R445" s="242"/>
+      <c r="S445" s="322"/>
+    </row>
+    <row r="446" spans="1:20">
+      <c r="G446" s="736" t="s">
+        <v>1297</v>
+      </c>
+      <c r="H446" s="143"/>
+      <c r="I446" s="143" t="s">
+        <v>1298</v>
+      </c>
+      <c r="J446" s="143"/>
+      <c r="K446" s="143"/>
+      <c r="L446" s="143"/>
+      <c r="M446" s="143" t="s">
+        <v>1299</v>
+      </c>
+      <c r="N446" s="143"/>
+      <c r="O446" s="143"/>
+      <c r="P446" s="143"/>
+      <c r="Q446" s="143"/>
+      <c r="R446" s="143"/>
+      <c r="S446" s="737"/>
+      <c r="T446" s="99"/>
+    </row>
+    <row r="447" spans="1:20">
+      <c r="D447" s="87" t="s">
+        <v>1581</v>
+      </c>
+      <c r="G447" s="736"/>
+      <c r="H447" s="143"/>
+      <c r="I447" s="143"/>
+      <c r="J447" s="143"/>
+      <c r="K447" s="143"/>
+      <c r="L447" s="143"/>
+      <c r="M447" s="143"/>
+      <c r="N447" s="143"/>
+      <c r="O447" s="143"/>
+      <c r="P447" s="143"/>
+      <c r="Q447" s="143"/>
+      <c r="R447" s="143"/>
+      <c r="S447" s="737"/>
+      <c r="T447" s="99"/>
+    </row>
+    <row r="448" spans="1:20">
+      <c r="G448" s="736"/>
+      <c r="H448" s="143"/>
+      <c r="I448" s="143"/>
+      <c r="J448" s="143"/>
+      <c r="K448" s="143"/>
+      <c r="L448" s="143"/>
+      <c r="M448" s="143"/>
+      <c r="N448" s="143"/>
+      <c r="O448" s="143"/>
+      <c r="P448" s="143"/>
+      <c r="Q448" s="143"/>
+      <c r="R448" s="143"/>
+      <c r="S448" s="737"/>
+      <c r="T448" s="99"/>
+    </row>
+    <row r="449" spans="1:20">
+      <c r="G449" s="736"/>
+      <c r="H449" s="143"/>
+      <c r="I449" s="143"/>
+      <c r="J449" s="143"/>
+      <c r="K449" s="143"/>
+      <c r="L449" s="143"/>
+      <c r="M449" s="143"/>
+      <c r="N449" s="143"/>
+      <c r="O449" s="143"/>
+      <c r="P449" s="143"/>
+      <c r="Q449" s="143"/>
+      <c r="R449" s="143"/>
+      <c r="S449" s="737"/>
+      <c r="T449" s="99"/>
+    </row>
+    <row r="450" spans="1:20">
+      <c r="G450" s="736"/>
+      <c r="H450" s="143"/>
+      <c r="I450" s="143"/>
+      <c r="J450" s="143"/>
+      <c r="K450" s="143"/>
+      <c r="L450" s="143"/>
+      <c r="M450" s="143"/>
+      <c r="N450" s="738"/>
+      <c r="O450" s="143"/>
+      <c r="P450" s="143"/>
+      <c r="Q450" s="143"/>
+      <c r="R450" s="143"/>
+      <c r="S450" s="737"/>
+      <c r="T450" s="99"/>
+    </row>
+    <row r="451" spans="1:20">
+      <c r="G451" s="736"/>
+      <c r="H451" s="143"/>
+      <c r="I451" s="143"/>
+      <c r="J451" s="143"/>
+      <c r="K451" s="143"/>
+      <c r="L451" s="739" t="s">
+        <v>1305</v>
+      </c>
+      <c r="M451" s="143"/>
+      <c r="N451" s="143"/>
+      <c r="O451" s="143"/>
+      <c r="P451" s="143"/>
+      <c r="Q451" s="143"/>
+      <c r="R451" s="143"/>
+      <c r="S451" s="737"/>
+      <c r="T451" s="99"/>
+    </row>
+    <row r="452" spans="1:20">
+      <c r="G452" s="736"/>
+      <c r="H452" s="143"/>
+      <c r="I452" s="143"/>
+      <c r="J452" s="143"/>
+      <c r="K452" s="143"/>
+      <c r="L452" s="143"/>
+      <c r="M452" s="143"/>
+      <c r="N452" s="143"/>
+      <c r="O452" s="143"/>
+      <c r="P452" s="143"/>
+      <c r="Q452" s="143"/>
+      <c r="R452" s="143"/>
+      <c r="S452" s="737"/>
+      <c r="T452" s="99"/>
+    </row>
+    <row r="453" spans="1:20">
+      <c r="G453" s="736"/>
+      <c r="H453" s="143"/>
+      <c r="I453" s="143"/>
+      <c r="J453" s="143"/>
+      <c r="K453" s="143"/>
+      <c r="L453" s="143"/>
+      <c r="M453" s="143"/>
+      <c r="N453" s="143"/>
+      <c r="O453" s="143"/>
+      <c r="P453" s="143"/>
+      <c r="Q453" s="143"/>
+      <c r="R453" s="143"/>
+      <c r="S453" s="737"/>
+      <c r="T453" s="99"/>
+    </row>
+    <row r="454" spans="1:20">
+      <c r="G454" s="736"/>
+      <c r="H454" s="143"/>
+      <c r="I454" s="143"/>
+      <c r="J454" s="143"/>
+      <c r="K454" s="143"/>
+      <c r="L454" s="143"/>
+      <c r="M454" s="143"/>
+      <c r="N454" s="143"/>
+      <c r="O454" s="143"/>
+      <c r="P454" s="143"/>
+      <c r="Q454" s="143"/>
+      <c r="R454" s="143"/>
+      <c r="S454" s="737"/>
+      <c r="T454" s="99"/>
+    </row>
+    <row r="455" spans="1:20">
+      <c r="G455" s="736"/>
+      <c r="H455" s="143" t="s">
+        <v>1307</v>
+      </c>
+      <c r="I455" s="143"/>
+      <c r="J455" s="143"/>
+      <c r="K455" s="143"/>
+      <c r="L455" s="143"/>
+      <c r="M455" s="143"/>
+      <c r="N455" s="143"/>
+      <c r="O455" s="143"/>
+      <c r="P455" s="143"/>
+      <c r="Q455" s="143"/>
+      <c r="R455" s="143"/>
+      <c r="S455" s="737"/>
+      <c r="T455" s="99"/>
+    </row>
+    <row r="456" spans="1:20">
+      <c r="G456" s="736"/>
+      <c r="H456" s="143"/>
+      <c r="I456" s="143"/>
+      <c r="J456" s="143"/>
+      <c r="K456" s="143"/>
+      <c r="L456" s="143"/>
+      <c r="M456" s="143"/>
+      <c r="N456" s="143"/>
+      <c r="O456" s="143"/>
+      <c r="P456" s="143"/>
+      <c r="Q456" s="143"/>
+      <c r="R456" s="143"/>
+      <c r="S456" s="737"/>
+      <c r="T456" s="99"/>
+    </row>
+    <row r="457" spans="1:20">
+      <c r="G457" s="736"/>
+      <c r="H457" s="143" t="s">
+        <v>1349</v>
+      </c>
+      <c r="I457" s="143"/>
+      <c r="J457" s="143" t="s">
+        <v>1351</v>
+      </c>
+      <c r="K457" s="143"/>
+      <c r="L457" s="143"/>
+      <c r="M457" s="143"/>
+      <c r="N457" s="143"/>
+      <c r="O457" s="143"/>
+      <c r="P457" s="143"/>
+      <c r="Q457" s="143"/>
+      <c r="R457" s="143"/>
+      <c r="S457" s="737"/>
+      <c r="T457" s="99"/>
+    </row>
+    <row r="458" spans="1:20">
+      <c r="G458" s="736"/>
+      <c r="H458" s="143" t="s">
+        <v>1350</v>
+      </c>
+      <c r="I458" s="143"/>
+      <c r="J458" s="143" t="s">
+        <v>1352</v>
+      </c>
+      <c r="K458" s="143"/>
+      <c r="L458" s="143"/>
+      <c r="M458" s="143"/>
+      <c r="N458" s="143"/>
+      <c r="O458" s="143"/>
+      <c r="P458" s="143"/>
+      <c r="Q458" s="143"/>
+      <c r="R458" s="143"/>
+      <c r="S458" s="737"/>
+      <c r="T458" s="99"/>
+    </row>
+    <row r="459" spans="1:20">
+      <c r="B459" s="87" t="s">
+        <v>1576</v>
+      </c>
+      <c r="G459" s="736"/>
+      <c r="H459" s="143"/>
+      <c r="I459" s="143"/>
+      <c r="J459" s="143"/>
+      <c r="K459" s="143"/>
+      <c r="L459" s="143"/>
+      <c r="M459" s="143"/>
+      <c r="N459" s="143"/>
+      <c r="O459" s="143"/>
+      <c r="P459" s="143"/>
+      <c r="Q459" s="143"/>
+      <c r="R459" s="143"/>
+      <c r="S459" s="737"/>
+      <c r="T459" s="99"/>
+    </row>
+    <row r="460" spans="1:20">
+      <c r="B460" s="87" t="s">
+        <v>1577</v>
+      </c>
+      <c r="G460" s="736"/>
+      <c r="H460" s="143" t="s">
+        <v>1353</v>
+      </c>
+      <c r="I460" s="143"/>
+      <c r="J460" s="143"/>
+      <c r="K460" s="143"/>
+      <c r="L460" s="143"/>
+      <c r="M460" s="143"/>
+      <c r="N460" s="143"/>
+      <c r="O460" s="143"/>
+      <c r="P460" s="143"/>
+      <c r="Q460" s="143"/>
+      <c r="R460" s="143"/>
+      <c r="S460" s="737"/>
+      <c r="T460" s="99"/>
+    </row>
+    <row r="461" spans="1:20">
+      <c r="G461" s="736"/>
+      <c r="H461" s="143" t="s">
+        <v>1354</v>
+      </c>
+      <c r="I461" s="143"/>
+      <c r="J461" s="143"/>
+      <c r="K461" s="143"/>
+      <c r="L461" s="143"/>
+      <c r="M461" s="143"/>
+      <c r="N461" s="143"/>
+      <c r="O461" s="143"/>
+      <c r="P461" s="143"/>
+      <c r="Q461" s="143"/>
+      <c r="R461" s="143"/>
+      <c r="S461" s="737"/>
+      <c r="T461" s="99"/>
+    </row>
+    <row r="462" spans="1:20">
+      <c r="A462" s="87" t="s">
+        <v>1578</v>
+      </c>
+      <c r="G462" s="736"/>
+      <c r="H462" s="740" t="s">
+        <v>1355</v>
+      </c>
+      <c r="I462" s="740"/>
+      <c r="J462" s="740"/>
+      <c r="K462" s="143"/>
+      <c r="L462" s="143"/>
+      <c r="M462" s="143"/>
+      <c r="N462" s="143"/>
+      <c r="O462" s="143"/>
+      <c r="P462" s="143"/>
+      <c r="Q462" s="143"/>
+      <c r="R462" s="143"/>
+      <c r="S462" s="737"/>
+      <c r="T462" s="99"/>
+    </row>
+    <row r="463" spans="1:20">
+      <c r="A463" s="87" t="s">
+        <v>1579</v>
+      </c>
+      <c r="G463" s="736"/>
+      <c r="H463" s="143"/>
+      <c r="I463" s="143"/>
+      <c r="J463" s="143"/>
+      <c r="K463" s="143"/>
+      <c r="L463" s="143"/>
+      <c r="M463" s="143"/>
+      <c r="N463" s="143"/>
+      <c r="O463" s="143"/>
+      <c r="P463" s="143"/>
+      <c r="Q463" s="143"/>
+      <c r="R463" s="143"/>
+      <c r="S463" s="737"/>
+      <c r="T463" s="99"/>
+    </row>
+    <row r="464" spans="1:20">
+      <c r="A464" s="87" t="s">
+        <v>1580</v>
+      </c>
+      <c r="G464" s="736"/>
+      <c r="H464" s="143" t="s">
+        <v>1356</v>
+      </c>
+      <c r="I464" s="143"/>
+      <c r="J464" s="143"/>
+      <c r="K464" s="143"/>
+      <c r="L464" s="143"/>
+      <c r="M464" s="143"/>
+      <c r="N464" s="143"/>
+      <c r="O464" s="143"/>
+      <c r="P464" s="143"/>
+      <c r="Q464" s="143"/>
+      <c r="R464" s="143"/>
+      <c r="S464" s="737"/>
+      <c r="T464" s="99"/>
+    </row>
+    <row r="465" spans="7:20">
+      <c r="G465" s="736"/>
+      <c r="H465" s="143" t="s">
+        <v>1357</v>
+      </c>
+      <c r="I465" s="143"/>
+      <c r="J465" s="143"/>
+      <c r="K465" s="143"/>
+      <c r="L465" s="143"/>
+      <c r="M465" s="143"/>
+      <c r="N465" s="143"/>
+      <c r="O465" s="143"/>
+      <c r="P465" s="143"/>
+      <c r="Q465" s="143"/>
+      <c r="R465" s="143"/>
+      <c r="S465" s="737"/>
+      <c r="T465" s="99"/>
+    </row>
+    <row r="466" spans="7:20">
+      <c r="G466" s="736"/>
+      <c r="H466" s="740" t="s">
+        <v>1358</v>
+      </c>
+      <c r="I466" s="143"/>
+      <c r="J466" s="143"/>
+      <c r="K466" s="143"/>
+      <c r="L466" s="143"/>
+      <c r="M466" s="143"/>
+      <c r="N466" s="143"/>
+      <c r="O466" s="143"/>
+      <c r="P466" s="143"/>
+      <c r="Q466" s="143"/>
+      <c r="R466" s="143"/>
+      <c r="S466" s="737"/>
+      <c r="T466" s="99"/>
+    </row>
+    <row r="467" spans="7:20">
+      <c r="G467" s="736"/>
+      <c r="H467" s="143"/>
+      <c r="I467" s="143"/>
+      <c r="J467" s="143"/>
+      <c r="K467" s="143"/>
+      <c r="L467" s="143"/>
+      <c r="M467" s="143"/>
+      <c r="N467" s="143"/>
+      <c r="O467" s="143"/>
+      <c r="P467" s="143"/>
+      <c r="Q467" s="143"/>
+      <c r="R467" s="143"/>
+      <c r="S467" s="737"/>
+      <c r="T467" s="99"/>
+    </row>
+    <row r="468" spans="7:20">
+      <c r="G468" s="736"/>
+      <c r="H468" s="143" t="s">
+        <v>1359</v>
+      </c>
+      <c r="I468" s="143"/>
+      <c r="J468" s="143"/>
+      <c r="K468" s="143"/>
+      <c r="L468" s="143"/>
+      <c r="M468" s="143"/>
+      <c r="N468" s="143"/>
+      <c r="O468" s="143"/>
+      <c r="P468" s="143"/>
+      <c r="Q468" s="143"/>
+      <c r="R468" s="143"/>
+      <c r="S468" s="737"/>
+      <c r="T468" s="99"/>
+    </row>
+    <row r="469" spans="7:20" ht="24">
+      <c r="G469" s="736"/>
+      <c r="H469" s="741" t="s">
+        <v>1374</v>
+      </c>
+      <c r="I469" s="741"/>
+      <c r="J469" s="741"/>
+      <c r="K469" s="741"/>
+      <c r="L469" s="741"/>
+      <c r="M469" s="741"/>
+      <c r="N469" s="742"/>
+      <c r="O469" s="742"/>
+      <c r="P469" s="742"/>
+      <c r="Q469" s="742"/>
+      <c r="R469" s="742"/>
+      <c r="S469" s="743"/>
+      <c r="T469" s="99"/>
+    </row>
+    <row r="470" spans="7:20" ht="12" thickBot="1">
+      <c r="G470" s="325"/>
+      <c r="H470" s="326"/>
+      <c r="I470" s="326"/>
+      <c r="J470" s="326"/>
+      <c r="K470" s="326"/>
+      <c r="L470" s="326"/>
+      <c r="M470" s="326"/>
+      <c r="N470" s="326"/>
+      <c r="O470" s="326"/>
+      <c r="P470" s="326"/>
+      <c r="Q470" s="326"/>
+      <c r="R470" s="326"/>
+      <c r="S470" s="327"/>
+    </row>
+    <row r="474" spans="7:20">
+      <c r="K474" s="87" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="478" spans="7:20" ht="25.5">
+      <c r="G478" s="628" t="s">
+        <v>1385</v>
+      </c>
+      <c r="H478" s="99"/>
+      <c r="I478" s="99"/>
+      <c r="J478" s="99"/>
+      <c r="K478" s="99"/>
+      <c r="L478" s="99"/>
+      <c r="M478" s="99"/>
+      <c r="N478" s="99"/>
+      <c r="O478" s="99"/>
+    </row>
+    <row r="479" spans="7:20">
+      <c r="G479" s="604" t="s">
+        <v>1386</v>
+      </c>
+      <c r="H479" s="605"/>
+      <c r="I479" s="605"/>
+      <c r="J479" s="605"/>
+      <c r="K479" s="605"/>
+      <c r="L479" s="606"/>
+      <c r="M479" s="99"/>
+      <c r="N479" s="99"/>
+      <c r="O479" s="99"/>
+    </row>
+    <row r="480" spans="7:20">
+      <c r="G480" s="607" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H480" s="608"/>
+      <c r="I480" s="608"/>
+      <c r="J480" s="608"/>
+      <c r="K480" s="608"/>
+      <c r="L480" s="609"/>
+      <c r="M480" s="99"/>
+      <c r="N480" s="99"/>
+      <c r="O480" s="99"/>
+    </row>
+    <row r="481" spans="7:15">
+      <c r="G481" s="610" t="s">
+        <v>1388</v>
+      </c>
+      <c r="H481" s="611"/>
+      <c r="I481" s="611"/>
+      <c r="J481" s="611"/>
+      <c r="K481" s="611"/>
+      <c r="L481" s="612"/>
+      <c r="M481" s="99"/>
+      <c r="N481" s="99"/>
+      <c r="O481" s="99"/>
+    </row>
+    <row r="482" spans="7:15">
+      <c r="G482" s="99" t="s">
+        <v>1389</v>
+      </c>
+      <c r="H482" s="99"/>
+      <c r="I482" s="99"/>
+      <c r="J482" s="99"/>
+      <c r="K482" s="99"/>
+      <c r="L482" s="99"/>
+      <c r="M482" s="99"/>
+      <c r="N482" s="99"/>
+      <c r="O482" s="99"/>
+    </row>
+    <row r="483" spans="7:15">
+      <c r="G483" s="99"/>
+      <c r="H483" s="99"/>
+      <c r="I483" s="99"/>
+      <c r="J483" s="99"/>
+      <c r="K483" s="99"/>
+      <c r="L483" s="99"/>
+      <c r="M483" s="99"/>
+      <c r="N483" s="99"/>
+      <c r="O483" s="99"/>
+    </row>
+    <row r="484" spans="7:15" ht="24">
+      <c r="G484" s="98" t="s">
+        <v>1390</v>
+      </c>
+      <c r="H484" s="99"/>
+      <c r="I484" s="99"/>
+      <c r="J484" s="99"/>
+      <c r="K484" s="99"/>
+      <c r="L484" s="99"/>
+      <c r="M484" s="99"/>
+      <c r="N484" s="99"/>
+      <c r="O484" s="99"/>
+    </row>
+    <row r="485" spans="7:15">
+      <c r="G485" s="604" t="s">
+        <v>1391</v>
+      </c>
+      <c r="H485" s="605"/>
+      <c r="I485" s="605"/>
+      <c r="J485" s="605"/>
+      <c r="K485" s="605"/>
+      <c r="L485" s="605"/>
+      <c r="M485" s="606"/>
+      <c r="N485" s="99"/>
+      <c r="O485" s="99"/>
+    </row>
+    <row r="486" spans="7:15">
+      <c r="G486" s="610"/>
+      <c r="H486" s="611"/>
+      <c r="I486" s="611"/>
+      <c r="J486" s="611"/>
+      <c r="K486" s="611"/>
+      <c r="L486" s="611"/>
+      <c r="M486" s="612"/>
+      <c r="N486" s="99"/>
+      <c r="O486" s="99"/>
+    </row>
+    <row r="487" spans="7:15">
+      <c r="G487" s="99"/>
+      <c r="H487" s="99"/>
+      <c r="I487" s="99"/>
+      <c r="J487" s="99"/>
+      <c r="K487" s="99"/>
+      <c r="L487" s="99"/>
+      <c r="M487" s="99"/>
+      <c r="N487" s="99"/>
+      <c r="O487" s="99"/>
+    </row>
+    <row r="488" spans="7:15" ht="12" thickBot="1">
+      <c r="G488" s="99" t="s">
+        <v>1396</v>
+      </c>
+      <c r="H488" s="99"/>
+      <c r="I488" s="99"/>
+      <c r="J488" s="99"/>
+      <c r="K488" s="99"/>
+      <c r="L488" s="99"/>
+      <c r="M488" s="99"/>
+      <c r="N488" s="99"/>
+      <c r="O488" s="99"/>
+    </row>
+    <row r="489" spans="7:15">
+      <c r="G489" s="629" t="s">
+        <v>1392</v>
+      </c>
+      <c r="H489" s="630"/>
+      <c r="I489" s="630"/>
+      <c r="J489" s="630"/>
+      <c r="K489" s="630"/>
+      <c r="L489" s="630"/>
+      <c r="M489" s="630"/>
+      <c r="N489" s="631"/>
+      <c r="O489" s="99"/>
+    </row>
+    <row r="490" spans="7:15">
+      <c r="G490" s="632"/>
+      <c r="H490" s="633"/>
+      <c r="I490" s="633"/>
+      <c r="J490" s="633"/>
+      <c r="K490" s="633"/>
+      <c r="L490" s="633"/>
+      <c r="M490" s="633"/>
+      <c r="N490" s="634"/>
+      <c r="O490" s="99"/>
+    </row>
+    <row r="491" spans="7:15">
+      <c r="G491" s="632" t="s">
+        <v>1393</v>
+      </c>
+      <c r="H491" s="633"/>
+      <c r="I491" s="633"/>
+      <c r="J491" s="633"/>
+      <c r="K491" s="633"/>
+      <c r="L491" s="633"/>
+      <c r="M491" s="633"/>
+      <c r="N491" s="634"/>
+      <c r="O491" s="99"/>
+    </row>
+    <row r="492" spans="7:15">
+      <c r="G492" s="632"/>
+      <c r="H492" s="633"/>
+      <c r="I492" s="633"/>
+      <c r="J492" s="633"/>
+      <c r="K492" s="633"/>
+      <c r="L492" s="633"/>
+      <c r="M492" s="633"/>
+      <c r="N492" s="634"/>
+      <c r="O492" s="99"/>
+    </row>
+    <row r="493" spans="7:15">
+      <c r="G493" s="632" t="s">
+        <v>1394</v>
+      </c>
+      <c r="H493" s="633"/>
+      <c r="I493" s="633"/>
+      <c r="J493" s="633"/>
+      <c r="K493" s="633"/>
+      <c r="L493" s="633"/>
+      <c r="M493" s="633"/>
+      <c r="N493" s="634"/>
+      <c r="O493" s="99"/>
+    </row>
+    <row r="494" spans="7:15">
+      <c r="G494" s="632" t="s">
+        <v>1395</v>
+      </c>
+      <c r="H494" s="633"/>
+      <c r="I494" s="633"/>
+      <c r="J494" s="633"/>
+      <c r="K494" s="633"/>
+      <c r="L494" s="633"/>
+      <c r="M494" s="633"/>
+      <c r="N494" s="634"/>
+      <c r="O494" s="99"/>
+    </row>
+    <row r="495" spans="7:15" ht="12" thickBot="1">
+      <c r="G495" s="635"/>
+      <c r="H495" s="636"/>
+      <c r="I495" s="636"/>
+      <c r="J495" s="636"/>
+      <c r="K495" s="636"/>
+      <c r="L495" s="636"/>
+      <c r="M495" s="636"/>
+      <c r="N495" s="637"/>
+      <c r="O495" s="99"/>
+    </row>
+    <row r="496" spans="7:15">
+      <c r="G496" s="99"/>
+      <c r="H496" s="99"/>
+      <c r="I496" s="99"/>
+      <c r="J496" s="99"/>
+      <c r="K496" s="99"/>
+      <c r="L496" s="99"/>
+      <c r="M496" s="99"/>
+      <c r="N496" s="99"/>
+      <c r="O496" s="99"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
